--- a/table_replication.xlsx
+++ b/table_replication.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="360">
   <si>
     <t>cg</t>
   </si>
@@ -148,6 +148,9 @@
     <t>cg07262247</t>
   </si>
   <si>
+    <t>cg00135497</t>
+  </si>
+  <si>
     <t>cg03798942</t>
   </si>
   <si>
@@ -304,6 +307,9 @@
     <t>ENSG00000131435</t>
   </si>
   <si>
+    <t>ENSG00000121207</t>
+  </si>
+  <si>
     <t>ENSG00000151702</t>
   </si>
   <si>
@@ -454,6 +460,9 @@
     <t>PDLIM4</t>
   </si>
   <si>
+    <t>LRAT</t>
+  </si>
+  <si>
     <t>FLI1</t>
   </si>
   <si>
@@ -565,9 +574,15 @@
     <t>cg17024258</t>
   </si>
   <si>
+    <t>cg00502509</t>
+  </si>
+  <si>
     <t>cg14023009</t>
   </si>
   <si>
+    <t>cg08781728</t>
+  </si>
+  <si>
     <t>cg06168149</t>
   </si>
   <si>
@@ -643,9 +658,15 @@
     <t>ENSG00000162738</t>
   </si>
   <si>
+    <t>ENSG00000002822</t>
+  </si>
+  <si>
     <t>ENSG00000104728</t>
   </si>
   <si>
+    <t>ENSG00000158806</t>
+  </si>
+  <si>
     <t>ENSG00000223865</t>
   </si>
   <si>
@@ -712,9 +733,15 @@
     <t>VANGL2</t>
   </si>
   <si>
+    <t>MAD1L1</t>
+  </si>
+  <si>
     <t>ARHGEF10</t>
   </si>
   <si>
+    <t>NPM2</t>
+  </si>
+  <si>
     <t>HLA-DPB1</t>
   </si>
   <si>
@@ -763,6 +790,9 @@
     <t>cg02509232</t>
   </si>
   <si>
+    <t>cg06379876</t>
+  </si>
+  <si>
     <t>cg11866719</t>
   </si>
   <si>
@@ -778,6 +808,9 @@
     <t>cg05046717</t>
   </si>
   <si>
+    <t>cg09383172</t>
+  </si>
+  <si>
     <t>cg18423210</t>
   </si>
   <si>
@@ -868,6 +901,9 @@
     <t>ENSG00000171798</t>
   </si>
   <si>
+    <t>ENSG00000066136</t>
+  </si>
+  <si>
     <t>ENSG00000139970</t>
   </si>
   <si>
@@ -880,6 +916,9 @@
     <t>ENSG00000144909</t>
   </si>
   <si>
+    <t>ENSG00000155093</t>
+  </si>
+  <si>
     <t>ENSG00000130477</t>
   </si>
   <si>
@@ -970,6 +1009,9 @@
     <t>KNDC1</t>
   </si>
   <si>
+    <t>NFYC</t>
+  </si>
+  <si>
     <t>RTN1</t>
   </si>
   <si>
@@ -980,6 +1022,9 @@
   </si>
   <si>
     <t>OSBPL11</t>
+  </si>
+  <si>
+    <t>PTPRN2</t>
   </si>
   <si>
     <t>UNC13A</t>
@@ -1172,7 +1217,7 @@
         <v>3.5689475E7</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
         <v>0.06617</v>
@@ -1217,10 +1262,10 @@
         <v>1.987</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
@@ -1234,7 +1279,7 @@
         <v>3.6982447E7</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
         <v>0.1637</v>
@@ -1279,10 +1324,10 @@
         <v>4.034</v>
       </c>
       <c r="S3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
@@ -1296,7 +1341,7 @@
         <v>5207312.0</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
         <v>0.03497</v>
@@ -1341,10 +1386,10 @@
         <v>1.509</v>
       </c>
       <c r="S4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
@@ -1358,7 +1403,7 @@
         <v>4.5297445E7</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" t="n">
         <v>0.108</v>
@@ -1403,10 +1448,10 @@
         <v>3.226</v>
       </c>
       <c r="S5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
@@ -1420,7 +1465,7 @@
         <v>1.97402549E8</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" t="n">
         <v>0.1422</v>
@@ -1465,10 +1510,10 @@
         <v>2.094</v>
       </c>
       <c r="S6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -1482,7 +1527,7 @@
         <v>2.9692082E7</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
         <v>0.1749</v>
@@ -1527,10 +1572,10 @@
         <v>1.7</v>
       </c>
       <c r="S7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8">
@@ -1544,7 +1589,7 @@
         <v>5.5141971E7</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
         <v>0.1087</v>
@@ -1589,10 +1634,10 @@
         <v>2.907</v>
       </c>
       <c r="S8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
@@ -1606,7 +1651,7 @@
         <v>5.6148763E7</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
         <v>0.1393</v>
@@ -1651,10 +1696,10 @@
         <v>0.4829</v>
       </c>
       <c r="S9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -1668,7 +1713,7 @@
         <v>2432720.0</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" t="n">
         <v>0.1627</v>
@@ -1713,10 +1758,10 @@
         <v>3.567</v>
       </c>
       <c r="S10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -1730,7 +1775,7 @@
         <v>3.8073472E7</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" t="n">
         <v>0.1672</v>
@@ -1775,10 +1820,10 @@
         <v>0.5703</v>
       </c>
       <c r="S11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -1792,7 +1837,7 @@
         <v>1.7167148E8</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" t="n">
         <v>0.138</v>
@@ -1837,10 +1882,10 @@
         <v>3.339</v>
       </c>
       <c r="S12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
@@ -1854,7 +1899,7 @@
         <v>1.26339578E8</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
         <v>0.1544</v>
@@ -1899,10 +1944,10 @@
         <v>2.821</v>
       </c>
       <c r="S13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
@@ -1916,7 +1961,7 @@
         <v>3.8146969E7</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" t="n">
         <v>0.06666</v>
@@ -1961,10 +2006,10 @@
         <v>2.22</v>
       </c>
       <c r="S14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -1978,7 +2023,7 @@
         <v>1.03346811E8</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" t="n">
         <v>0.1126</v>
@@ -2023,10 +2068,10 @@
         <v>2.005</v>
       </c>
       <c r="S15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
@@ -2040,7 +2085,7 @@
         <v>3.9171734E7</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" t="n">
         <v>0.07928</v>
@@ -2085,10 +2130,10 @@
         <v>4.01</v>
       </c>
       <c r="S16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
@@ -2102,7 +2147,7 @@
         <v>2.4920631E7</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
         <v>0.1196</v>
@@ -2147,10 +2192,10 @@
         <v>0.8271</v>
       </c>
       <c r="S17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
@@ -2164,7 +2209,7 @@
         <v>1.0024364E7</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E18" t="n">
         <v>0.1638</v>
@@ -2209,10 +2254,10 @@
         <v>3.386</v>
       </c>
       <c r="S18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19">
@@ -2226,7 +2271,7 @@
         <v>7.3103395E7</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" t="n">
         <v>-0.1381</v>
@@ -2271,10 +2316,10 @@
         <v>0.02322</v>
       </c>
       <c r="S19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20">
@@ -2288,7 +2333,7 @@
         <v>1.19528656E8</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20" t="n">
         <v>0.1092</v>
@@ -2333,10 +2378,10 @@
         <v>0.7442</v>
       </c>
       <c r="S20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
@@ -2350,7 +2395,7 @@
         <v>1187652.0</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" t="n">
         <v>0.1511</v>
@@ -2395,10 +2440,10 @@
         <v>3.38</v>
       </c>
       <c r="S21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22">
@@ -2412,7 +2457,7 @@
         <v>4.384224E7</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" t="n">
         <v>-0.1415</v>
@@ -2457,10 +2502,10 @@
         <v>1.432</v>
       </c>
       <c r="S22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23">
@@ -2474,7 +2519,7 @@
         <v>1.2183938E7</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" t="n">
         <v>0.1491</v>
@@ -2519,10 +2564,10 @@
         <v>2.69</v>
       </c>
       <c r="S23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24">
@@ -2536,7 +2581,7 @@
         <v>1.2183938E7</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E24" t="n">
         <v>0.1491</v>
@@ -2581,10 +2626,10 @@
         <v>2.69</v>
       </c>
       <c r="S24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
@@ -2598,7 +2643,7 @@
         <v>1.1959303E7</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" t="n">
         <v>-0.09594</v>
@@ -2643,10 +2688,10 @@
         <v>1.963</v>
       </c>
       <c r="S25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
@@ -2660,7 +2705,7 @@
         <v>1.3159373E8</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" t="n">
         <v>0.08884</v>
@@ -2705,10 +2750,10 @@
         <v>4.078</v>
       </c>
       <c r="S26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27">
@@ -2722,7 +2767,7 @@
         <v>1.3159373E8</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" t="n">
         <v>0.08884</v>
@@ -2767,10 +2812,10 @@
         <v>4.078</v>
       </c>
       <c r="S27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28">
@@ -2778,61 +2823,61 @@
         <v>44</v>
       </c>
       <c r="B28" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.28566958E8</v>
+        <v>1.55661849E8</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09082</v>
+        <v>0.2221</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01951665955024066</v>
+        <v>0.04172529209005013</v>
       </c>
       <c r="G28" t="n">
-        <v>3.369</v>
+        <v>3.401</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.01723</v>
+        <v>-0.2567</v>
       </c>
       <c r="I28" t="n">
-        <v>0.011175866856758808</v>
+        <v>0.03093056740507681</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.458</v>
+        <v>3.113</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4895916665957459</v>
+        <v>0.5724508712544685</v>
       </c>
       <c r="L28" t="n">
-        <v>3.126151725638979E-23</v>
+        <v>0.307447003824568</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1184</v>
+        <v>0.1198</v>
       </c>
       <c r="N28" t="n">
-        <v>0.05394441583704471</v>
+        <v>0.048166378315169185</v>
       </c>
       <c r="O28" t="n">
-        <v>2.496</v>
+        <v>3.384</v>
       </c>
       <c r="P28" t="n">
-        <v>0.07596</v>
+        <v>0.1857</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.08721238444166057</v>
+        <v>0.09691233151668574</v>
       </c>
       <c r="R28" t="n">
-        <v>1.518</v>
+        <v>2.846</v>
       </c>
       <c r="S28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29">
@@ -2840,61 +2885,61 @@
         <v>45</v>
       </c>
       <c r="B29" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.5686708E8</v>
+        <v>1.28566958E8</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" t="n">
         <v>0.09082</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01973068675946177</v>
+        <v>0.01951665955024066</v>
       </c>
       <c r="G29" t="n">
-        <v>3.34</v>
+        <v>3.369</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.005358</v>
+        <v>-0.01723</v>
       </c>
       <c r="I29" t="n">
-        <v>0.009804080783020915</v>
+        <v>0.011175866856758808</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.801</v>
+        <v>-1.458</v>
       </c>
       <c r="K29" t="n">
-        <v>0.3906404996924922</v>
+        <v>0.4895916665957459</v>
       </c>
       <c r="L29" t="n">
-        <v>7.411224584917851E-40</v>
+        <v>3.126151725638979E-23</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1927</v>
+        <v>0.1184</v>
       </c>
       <c r="N29" t="n">
-        <v>0.06075360071633615</v>
+        <v>0.05394441583704471</v>
       </c>
       <c r="O29" t="n">
-        <v>2.984</v>
+        <v>2.496</v>
       </c>
       <c r="P29" t="n">
-        <v>0.1384</v>
+        <v>0.07596</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.08925805285799147</v>
+        <v>0.08721238444166057</v>
       </c>
       <c r="R29" t="n">
-        <v>3.872</v>
+        <v>1.518</v>
       </c>
       <c r="S29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30">
@@ -2902,61 +2947,61 @@
         <v>46</v>
       </c>
       <c r="B30" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C30" t="n">
-        <v>8.8717623E7</v>
+        <v>1.5686708E8</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" t="n">
-        <v>0.09548</v>
+        <v>0.09082</v>
       </c>
       <c r="F30" t="n">
-        <v>0.020738852427268004</v>
+        <v>0.01973068675946177</v>
       </c>
       <c r="G30" t="n">
-        <v>3.309</v>
+        <v>3.34</v>
       </c>
       <c r="H30" t="n">
-        <v>0.006532</v>
+        <v>-0.005358</v>
       </c>
       <c r="I30" t="n">
-        <v>0.011233877335986894</v>
+        <v>0.009804080783020915</v>
       </c>
       <c r="J30" t="n">
-        <v>-1.512</v>
+        <v>-1.801</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7617742447733449</v>
+        <v>0.3906404996924922</v>
       </c>
       <c r="L30" t="n">
-        <v>1.2366039114459147E-10</v>
+        <v>7.411224584917851E-40</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1265</v>
+        <v>0.1927</v>
       </c>
       <c r="N30" t="n">
-        <v>0.04516635916254486</v>
+        <v>0.06075360071633615</v>
       </c>
       <c r="O30" t="n">
-        <v>4.467</v>
+        <v>2.984</v>
       </c>
       <c r="P30" t="n">
-        <v>0.1497</v>
+        <v>0.1384</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1019803902718557</v>
+        <v>0.08925805285799147</v>
       </c>
       <c r="R30" t="n">
-        <v>1.738</v>
+        <v>3.872</v>
       </c>
       <c r="S30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
@@ -2964,61 +3009,61 @@
         <v>47</v>
       </c>
       <c r="B31" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.6623818E7</v>
+        <v>8.8717623E7</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.05599</v>
+        <v>0.09548</v>
       </c>
       <c r="F31" t="n">
-        <v>0.014546477236774545</v>
+        <v>0.020738852427268004</v>
       </c>
       <c r="G31" t="n">
-        <v>3.307</v>
+        <v>3.309</v>
       </c>
       <c r="H31" t="n">
-        <v>0.03694</v>
+        <v>0.006532</v>
       </c>
       <c r="I31" t="n">
-        <v>0.012887978895078932</v>
+        <v>0.011233877335986894</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.196</v>
+        <v>-1.512</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3234192325759246</v>
+        <v>0.7617742447733449</v>
       </c>
       <c r="L31" t="n">
-        <v>2.292706370135646E-44</v>
+        <v>1.2366039114459147E-10</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0439</v>
+        <v>0.1265</v>
       </c>
       <c r="N31" t="n">
-        <v>0.04403407771260799</v>
+        <v>0.04516635916254486</v>
       </c>
       <c r="O31" t="n">
-        <v>1.949</v>
+        <v>4.467</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.09847</v>
+        <v>0.1497</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0884929375713113</v>
+        <v>0.1019803902718557</v>
       </c>
       <c r="R31" t="n">
-        <v>3.183</v>
+        <v>1.738</v>
       </c>
       <c r="S31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32">
@@ -3026,61 +3071,61 @@
         <v>48</v>
       </c>
       <c r="B32" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C32" t="n">
-        <v>9.9474813E7</v>
+        <v>1.6623818E7</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1349</v>
+        <v>-0.05599</v>
       </c>
       <c r="F32" t="n">
-        <v>0.027678511520672494</v>
+        <v>0.014546477236774545</v>
       </c>
       <c r="G32" t="n">
-        <v>3.303</v>
+        <v>3.307</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00551</v>
+        <v>0.03694</v>
       </c>
       <c r="I32" t="n">
-        <v>0.006848357467305573</v>
+        <v>0.012887978895078932</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.888</v>
+        <v>-1.196</v>
       </c>
       <c r="K32" t="n">
-        <v>0.19021040980976828</v>
+        <v>0.3234192325759246</v>
       </c>
       <c r="L32" t="n">
-        <v>2.7248700990057968E-164</v>
+        <v>2.292706370135646E-44</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1985</v>
+        <v>-0.0439</v>
       </c>
       <c r="N32" t="n">
-        <v>0.05952310475773252</v>
+        <v>0.04403407771260799</v>
       </c>
       <c r="O32" t="n">
-        <v>3.126</v>
+        <v>1.949</v>
       </c>
       <c r="P32" t="n">
-        <v>0.1366</v>
+        <v>-0.09847</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.09417536832951598</v>
+        <v>0.0884929375713113</v>
       </c>
       <c r="R32" t="n">
-        <v>2.302</v>
+        <v>3.183</v>
       </c>
       <c r="S32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33">
@@ -3088,61 +3133,61 @@
         <v>49</v>
       </c>
       <c r="B33" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C33" t="n">
-        <v>1.45556707E8</v>
+        <v>9.9474813E7</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1826</v>
+        <v>0.1349</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03720215047547655</v>
+        <v>0.027678511520672494</v>
       </c>
       <c r="G33" t="n">
-        <v>3.254</v>
+        <v>3.303</v>
       </c>
       <c r="H33" t="n">
-        <v>0.003095</v>
+        <v>0.00551</v>
       </c>
       <c r="I33" t="n">
-        <v>0.00638983567863838</v>
+        <v>0.006848357467305573</v>
       </c>
       <c r="J33" t="n">
-        <v>-1.84</v>
+        <v>-1.888</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7727871634544663</v>
+        <v>0.19021040980976828</v>
       </c>
       <c r="L33" t="n">
-        <v>2.1737354340251176E-11</v>
+        <v>2.7248700990057968E-164</v>
       </c>
       <c r="M33" t="n">
-        <v>0.09878</v>
+        <v>0.1985</v>
       </c>
       <c r="N33" t="n">
-        <v>0.04812483766206386</v>
+        <v>0.05952310475773252</v>
       </c>
       <c r="O33" t="n">
-        <v>2.959</v>
+        <v>3.126</v>
       </c>
       <c r="P33" t="n">
-        <v>0.07549</v>
+        <v>0.1366</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.09344517108978934</v>
+        <v>0.09417536832951598</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3544</v>
+        <v>2.302</v>
       </c>
       <c r="S33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34">
@@ -3150,61 +3195,61 @@
         <v>50</v>
       </c>
       <c r="B34" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.8727628E7</v>
+        <v>1.45556707E8</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.1409</v>
+        <v>0.1826</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02938366893361004</v>
+        <v>0.03720215047547655</v>
       </c>
       <c r="G34" t="n">
         <v>3.254</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.02896</v>
+        <v>0.003095</v>
       </c>
       <c r="I34" t="n">
-        <v>0.024801209647918387</v>
+        <v>0.00638983567863838</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.264</v>
+        <v>-1.84</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8238325072488946</v>
+        <v>0.7727871634544663</v>
       </c>
       <c r="L34" t="n">
-        <v>2.0776108840866374E-8</v>
+        <v>2.1737354340251176E-11</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.06924</v>
+        <v>0.09878</v>
       </c>
       <c r="N34" t="n">
-        <v>0.06582552696332936</v>
+        <v>0.04812483766206386</v>
       </c>
       <c r="O34" t="n">
-        <v>0.4115</v>
+        <v>2.959</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.0755</v>
+        <v>0.07549</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.08698275691193054</v>
+        <v>0.09344517108978934</v>
       </c>
       <c r="R34" t="n">
-        <v>1.716</v>
+        <v>0.3544</v>
       </c>
       <c r="S34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35">
@@ -3212,61 +3257,61 @@
         <v>51</v>
       </c>
       <c r="B35" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.5205117E7</v>
+        <v>1.8727628E7</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1349</v>
+        <v>-0.1409</v>
       </c>
       <c r="F35" t="n">
-        <v>0.028951683888851786</v>
+        <v>0.02938366893361004</v>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>3.254</v>
       </c>
       <c r="H35" t="n">
-        <v>0.05952</v>
+        <v>-0.02896</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02871759042816789</v>
+        <v>0.024801209647918387</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.103</v>
+        <v>-1.264</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5898304841223451</v>
+        <v>0.8238325072488946</v>
       </c>
       <c r="L35" t="n">
-        <v>1.48979024857379E-13</v>
+        <v>2.0776108840866374E-8</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.04301</v>
+        <v>-0.06924</v>
       </c>
       <c r="N35" t="n">
-        <v>0.043520110293977884</v>
+        <v>0.06582552696332936</v>
       </c>
       <c r="O35" t="n">
-        <v>2.608</v>
+        <v>0.4115</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.1537</v>
+        <v>-0.0755</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.11353413583587978</v>
+        <v>0.08698275691193054</v>
       </c>
       <c r="R35" t="n">
-        <v>1.235</v>
+        <v>1.716</v>
       </c>
       <c r="S35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36">
@@ -3274,61 +3319,61 @@
         <v>52</v>
       </c>
       <c r="B36" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="C36" t="n">
-        <v>1.1931682E8</v>
+        <v>2.5205117E7</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1076</v>
+        <v>-0.1349</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02389979079406345</v>
+        <v>0.028951683888851786</v>
       </c>
       <c r="G36" t="n">
-        <v>3.194</v>
+        <v>3.2</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01006</v>
+        <v>0.05952</v>
       </c>
       <c r="I36" t="n">
-        <v>0.010634848376916336</v>
+        <v>0.02871759042816789</v>
       </c>
       <c r="J36" t="n">
-        <v>-1.784</v>
+        <v>-1.103</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2983957104249322</v>
+        <v>0.5898304841223451</v>
       </c>
       <c r="L36" t="n">
-        <v>8.778772823918281E-63</v>
+        <v>1.48979024857379E-13</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1165</v>
+        <v>-0.04301</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0787273777030583</v>
+        <v>0.043520110293977884</v>
       </c>
       <c r="O36" t="n">
-        <v>1.039</v>
+        <v>2.608</v>
       </c>
       <c r="P36" t="n">
-        <v>0.05796</v>
+        <v>-0.1537</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.08309632964216891</v>
+        <v>0.11353413583587978</v>
       </c>
       <c r="R36" t="n">
-        <v>1.045</v>
+        <v>1.235</v>
       </c>
       <c r="S36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37">
@@ -3336,61 +3381,61 @@
         <v>53</v>
       </c>
       <c r="B37" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="C37" t="n">
-        <v>7.5407991E7</v>
+        <v>1.1931682E8</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1299</v>
+        <v>0.1076</v>
       </c>
       <c r="F37" t="n">
-        <v>0.028282503425262763</v>
+        <v>0.02389979079406345</v>
       </c>
       <c r="G37" t="n">
-        <v>3.178</v>
+        <v>3.194</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.003233</v>
+        <v>0.01006</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0069390201037322265</v>
+        <v>0.010634848376916336</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.778</v>
+        <v>-1.784</v>
       </c>
       <c r="K37" t="n">
-        <v>0.40024992192379</v>
+        <v>0.2983957104249322</v>
       </c>
       <c r="L37" t="n">
-        <v>1.6300826330754876E-35</v>
+        <v>8.778772823918281E-63</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0798</v>
+        <v>0.1165</v>
       </c>
       <c r="N37" t="n">
-        <v>0.05728001396647874</v>
+        <v>0.0787273777030583</v>
       </c>
       <c r="O37" t="n">
-        <v>1.26</v>
+        <v>1.039</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1595</v>
+        <v>0.05796</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.08996666049153987</v>
+        <v>0.08309632964216891</v>
       </c>
       <c r="R37" t="n">
-        <v>3.711</v>
+        <v>1.045</v>
       </c>
       <c r="S37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38">
@@ -3398,61 +3443,61 @@
         <v>54</v>
       </c>
       <c r="B38" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.3302315E8</v>
+        <v>7.5407991E7</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" t="n">
-        <v>0.08867</v>
+        <v>0.1299</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02077739155909615</v>
+        <v>0.028282503425262763</v>
       </c>
       <c r="G38" t="n">
-        <v>3.155</v>
+        <v>3.178</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.004237</v>
+        <v>-0.003233</v>
       </c>
       <c r="I38" t="n">
-        <v>0.005111751167652823</v>
+        <v>0.0069390201037322265</v>
       </c>
       <c r="J38" t="n">
-        <v>-1.934</v>
+        <v>-1.778</v>
       </c>
       <c r="K38" t="n">
-        <v>0.12316655390161729</v>
+        <v>0.40024992192379</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0</v>
+        <v>1.6300826330754876E-35</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0471</v>
+        <v>0.0798</v>
       </c>
       <c r="N38" t="n">
-        <v>0.05023942674832188</v>
+        <v>0.05728001396647874</v>
       </c>
       <c r="O38" t="n">
-        <v>0.5098</v>
+        <v>1.26</v>
       </c>
       <c r="P38" t="n">
-        <v>0.1794</v>
+        <v>0.1595</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0924716172671377</v>
+        <v>0.08996666049153987</v>
       </c>
       <c r="R38" t="n">
-        <v>3.447</v>
+        <v>3.711</v>
       </c>
       <c r="S38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="T38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39">
@@ -3460,61 +3505,61 @@
         <v>55</v>
       </c>
       <c r="B39" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.25053815E8</v>
+        <v>1.3302315E8</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.1003</v>
+        <v>0.08867</v>
       </c>
       <c r="F39" t="n">
-        <v>0.023069460331789297</v>
+        <v>0.02077739155909615</v>
       </c>
       <c r="G39" t="n">
-        <v>3.138</v>
+        <v>3.155</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.01684</v>
+        <v>-0.004237</v>
       </c>
       <c r="I39" t="n">
-        <v>0.007893034904268447</v>
+        <v>0.005111751167652823</v>
       </c>
       <c r="J39" t="n">
-        <v>-1.694</v>
+        <v>-1.934</v>
       </c>
       <c r="K39" t="n">
-        <v>0.15116216457830975</v>
+        <v>0.12316655390161729</v>
       </c>
       <c r="L39" t="n">
-        <v>1.6362819837483483E-224</v>
+        <v>0.0</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.04654</v>
+        <v>0.0471</v>
       </c>
       <c r="N39" t="n">
-        <v>0.043783558557979274</v>
+        <v>0.05023942674832188</v>
       </c>
       <c r="O39" t="n">
-        <v>2.828</v>
+        <v>0.5098</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.1396</v>
+        <v>0.1794</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.09957409301620578</v>
+        <v>0.0924716172671377</v>
       </c>
       <c r="R39" t="n">
-        <v>1.79</v>
+        <v>3.447</v>
       </c>
       <c r="S39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40">
@@ -3522,61 +3567,61 @@
         <v>56</v>
       </c>
       <c r="B40" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="C40" t="n">
-        <v>9.2498796E7</v>
+        <v>1.25053815E8</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.0455</v>
+        <v>-0.1003</v>
       </c>
       <c r="F40" t="n">
-        <v>0.013845576911057192</v>
+        <v>0.023069460331789297</v>
       </c>
       <c r="G40" t="n">
-        <v>3.075</v>
+        <v>3.138</v>
       </c>
       <c r="H40" t="n">
-        <v>0.002038</v>
+        <v>-0.01684</v>
       </c>
       <c r="I40" t="n">
-        <v>0.002510179276466125</v>
+        <v>0.007893034904268447</v>
       </c>
       <c r="J40" t="n">
-        <v>-2.016</v>
+        <v>-1.694</v>
       </c>
       <c r="K40" t="n">
-        <v>0.07401351227985334</v>
+        <v>0.15116216457830975</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0</v>
+        <v>1.6362819837483483E-224</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.1635</v>
+        <v>-0.04654</v>
       </c>
       <c r="N40" t="n">
-        <v>0.05616048432839589</v>
+        <v>0.043783558557979274</v>
       </c>
       <c r="O40" t="n">
-        <v>2.99</v>
+        <v>2.828</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.06435</v>
+        <v>-0.1396</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.08501764522732913</v>
+        <v>0.09957409301620578</v>
       </c>
       <c r="R40" t="n">
-        <v>1.203</v>
+        <v>1.79</v>
       </c>
       <c r="S40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T40" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41">
@@ -3584,61 +3629,61 @@
         <v>57</v>
       </c>
       <c r="B41" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.24591732E8</v>
+        <v>9.2498796E7</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.1158</v>
+        <v>-0.0455</v>
       </c>
       <c r="F41" t="n">
-        <v>0.026823497162003315</v>
+        <v>0.013845576911057192</v>
       </c>
       <c r="G41" t="n">
-        <v>3.069</v>
+        <v>3.075</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01644</v>
+        <v>0.002038</v>
       </c>
       <c r="I41" t="n">
-        <v>0.014570518178843195</v>
+        <v>0.002510179276466125</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.533</v>
+        <v>-2.016</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5875372328627353</v>
+        <v>0.07401351227985334</v>
       </c>
       <c r="L41" t="n">
-        <v>2.387606992417704E-15</v>
+        <v>0.0</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.05355</v>
+        <v>-0.1635</v>
       </c>
       <c r="N41" t="n">
-        <v>0.050089919145472776</v>
+        <v>0.05616048432839589</v>
       </c>
       <c r="O41" t="n">
-        <v>0.8945</v>
+        <v>2.99</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.0689</v>
+        <v>-0.06435</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.08580209787645054</v>
+        <v>0.08501764522732913</v>
       </c>
       <c r="R41" t="n">
-        <v>0.8638</v>
+        <v>1.203</v>
       </c>
       <c r="S41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="T41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42">
@@ -3646,61 +3691,61 @@
         <v>58</v>
       </c>
       <c r="B42" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="C42" t="n">
-        <v>4.8674158E7</v>
+        <v>1.24591732E8</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07234</v>
+        <v>-0.1158</v>
       </c>
       <c r="F42" t="n">
-        <v>0.018422811946062958</v>
+        <v>0.026823497162003315</v>
       </c>
       <c r="G42" t="n">
-        <v>3.068</v>
+        <v>3.069</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.01728</v>
+        <v>0.01644</v>
       </c>
       <c r="I42" t="n">
-        <v>0.008067837380611982</v>
+        <v>0.014570518178843195</v>
       </c>
       <c r="J42" t="n">
-        <v>-1.763</v>
+        <v>-1.533</v>
       </c>
       <c r="K42" t="n">
-        <v>0.17152259326397792</v>
+        <v>0.5875372328627353</v>
       </c>
       <c r="L42" t="n">
-        <v>7.764994902479933E-175</v>
+        <v>2.387606992417704E-15</v>
       </c>
       <c r="M42" t="n">
-        <v>0.09895</v>
+        <v>-0.05355</v>
       </c>
       <c r="N42" t="n">
-        <v>0.05141011573610781</v>
+        <v>0.050089919145472776</v>
       </c>
       <c r="O42" t="n">
-        <v>2.382</v>
+        <v>0.8945</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0494</v>
+        <v>-0.0689</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.07974333827975852</v>
+        <v>0.08580209787645054</v>
       </c>
       <c r="R42" t="n">
-        <v>0.06716</v>
+        <v>0.8638</v>
       </c>
       <c r="S42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="T42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43">
@@ -3708,61 +3753,61 @@
         <v>59</v>
       </c>
       <c r="B43" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.75227702E8</v>
+        <v>4.8674158E7</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.1231</v>
+        <v>0.07234</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0285709642819419</v>
+        <v>0.018422811946062958</v>
       </c>
       <c r="G43" t="n">
-        <v>3.046</v>
+        <v>3.068</v>
       </c>
       <c r="H43" t="n">
-        <v>0.03891</v>
+        <v>-0.01728</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02349042358068496</v>
+        <v>0.008067837380611982</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.9525</v>
+        <v>-1.763</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5258326730053963</v>
+        <v>0.17152259326397792</v>
       </c>
       <c r="L43" t="n">
-        <v>1.43413419727847E-14</v>
+        <v>7.764994902479933E-175</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.03562</v>
+        <v>0.09895</v>
       </c>
       <c r="N43" t="n">
-        <v>0.04308131845707603</v>
+        <v>0.05141011573610781</v>
       </c>
       <c r="O43" t="n">
-        <v>2.604</v>
+        <v>2.382</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.07143</v>
+        <v>0.0494</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.08627282306729044</v>
+        <v>0.07974333827975852</v>
       </c>
       <c r="R43" t="n">
-        <v>2.147</v>
+        <v>0.06716</v>
       </c>
       <c r="S43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="T43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44">
@@ -3770,61 +3815,61 @@
         <v>60</v>
       </c>
       <c r="B44" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="C44" t="n">
-        <v>5.851858E7</v>
+        <v>1.75227702E8</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1192</v>
+        <v>-0.1231</v>
       </c>
       <c r="F44" t="n">
-        <v>0.027838821814150108</v>
+        <v>0.0285709642819419</v>
       </c>
       <c r="G44" t="n">
-        <v>3.041</v>
+        <v>3.046</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.007153</v>
+        <v>0.03891</v>
       </c>
       <c r="I44" t="n">
-        <v>0.007910752176626443</v>
+        <v>0.02349042358068496</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.783</v>
+        <v>-0.9525</v>
       </c>
       <c r="K44" t="n">
-        <v>0.327566787083184</v>
+        <v>0.5258326730053963</v>
       </c>
       <c r="L44" t="n">
-        <v>2.169856364871642E-49</v>
+        <v>1.43413419727847E-14</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04381</v>
+        <v>-0.03562</v>
       </c>
       <c r="N44" t="n">
-        <v>0.04517742799230607</v>
+        <v>0.04308131845707603</v>
       </c>
       <c r="O44" t="n">
-        <v>1.169</v>
+        <v>2.604</v>
       </c>
       <c r="P44" t="n">
-        <v>0.1496</v>
+        <v>-0.07143</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.1041633332799983</v>
+        <v>0.08627282306729044</v>
       </c>
       <c r="R44" t="n">
-        <v>1.643</v>
+        <v>2.147</v>
       </c>
       <c r="S44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45">
@@ -3832,61 +3877,61 @@
         <v>61</v>
       </c>
       <c r="B45" t="n">
-        <v>22.0</v>
+        <v>16.0</v>
       </c>
       <c r="C45" t="n">
-        <v>3.2143389E7</v>
+        <v>5.851858E7</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1625</v>
+        <v>0.1192</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03691882988394946</v>
+        <v>0.027838821814150108</v>
       </c>
       <c r="G45" t="n">
-        <v>3.036</v>
+        <v>3.041</v>
       </c>
       <c r="H45" t="n">
-        <v>0.007298</v>
+        <v>-0.007153</v>
       </c>
       <c r="I45" t="n">
-        <v>0.006058877783880444</v>
+        <v>0.007910752176626443</v>
       </c>
       <c r="J45" t="n">
-        <v>-1.818</v>
+        <v>-1.783</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1947562579225633</v>
+        <v>0.327566787083184</v>
       </c>
       <c r="L45" t="n">
-        <v>2.0716636209832785E-137</v>
+        <v>2.169856364871642E-49</v>
       </c>
       <c r="M45" t="n">
-        <v>0.04351</v>
+        <v>0.04381</v>
       </c>
       <c r="N45" t="n">
-        <v>0.04708502946797421</v>
+        <v>0.04517742799230607</v>
       </c>
       <c r="O45" t="n">
-        <v>0.6932</v>
+        <v>1.169</v>
       </c>
       <c r="P45" t="n">
-        <v>0.1281</v>
+        <v>0.1496</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.10009995004993759</v>
+        <v>0.1041633332799983</v>
       </c>
       <c r="R45" t="n">
-        <v>1.525</v>
+        <v>1.643</v>
       </c>
       <c r="S45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46">
@@ -3894,61 +3939,61 @@
         <v>62</v>
       </c>
       <c r="B46" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.33390781E8</v>
+        <v>3.2143389E7</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09183</v>
+        <v>0.1625</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02240758800049662</v>
+        <v>0.03691882988394946</v>
       </c>
       <c r="G46" t="n">
-        <v>3.033</v>
+        <v>3.036</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.01196</v>
+        <v>0.007298</v>
       </c>
       <c r="I46" t="n">
-        <v>0.015601281998605115</v>
+        <v>0.006058877783880444</v>
       </c>
       <c r="J46" t="n">
-        <v>-1.398</v>
+        <v>-1.818</v>
       </c>
       <c r="K46" t="n">
-        <v>0.6331666447310692</v>
+        <v>0.1947562579225633</v>
       </c>
       <c r="L46" t="n">
-        <v>1.2967508526824455E-12</v>
+        <v>2.0716636209832785E-137</v>
       </c>
       <c r="M46" t="n">
-        <v>0.05151</v>
+        <v>0.04351</v>
       </c>
       <c r="N46" t="n">
-        <v>0.04684015371452148</v>
+        <v>0.04708502946797421</v>
       </c>
       <c r="O46" t="n">
-        <v>1.358</v>
+        <v>0.6932</v>
       </c>
       <c r="P46" t="n">
-        <v>0.1908</v>
+        <v>0.1281</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.10232301793829188</v>
+        <v>0.10009995004993759</v>
       </c>
       <c r="R46" t="n">
-        <v>2.385</v>
+        <v>1.525</v>
       </c>
       <c r="S46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47">
@@ -3956,61 +4001,61 @@
         <v>63</v>
       </c>
       <c r="B47" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C47" t="n">
-        <v>1.1752494E7</v>
+        <v>2.33390781E8</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09486</v>
+        <v>0.09183</v>
       </c>
       <c r="F47" t="n">
-        <v>0.023021728866442676</v>
+        <v>0.02240758800049662</v>
       </c>
       <c r="G47" t="n">
-        <v>3.032</v>
+        <v>3.033</v>
       </c>
       <c r="H47" t="n">
-        <v>-3.562E-4</v>
+        <v>-0.01196</v>
       </c>
       <c r="I47" t="n">
-        <v>0.003142133033466279</v>
+        <v>0.015601281998605115</v>
       </c>
       <c r="J47" t="n">
-        <v>-1.954</v>
+        <v>-1.398</v>
       </c>
       <c r="K47" t="n">
-        <v>0.17938784797192925</v>
+        <v>0.6331666447310692</v>
       </c>
       <c r="L47" t="n">
-        <v>2.5258859057339574E-170</v>
+        <v>1.2967508526824455E-12</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1593</v>
+        <v>0.05151</v>
       </c>
       <c r="N47" t="n">
-        <v>0.05478138369920935</v>
+        <v>0.04684015371452148</v>
       </c>
       <c r="O47" t="n">
-        <v>3.063</v>
+        <v>1.358</v>
       </c>
       <c r="P47" t="n">
-        <v>0.08422</v>
+        <v>0.1908</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.08816461875378354</v>
+        <v>0.10232301793829188</v>
       </c>
       <c r="R47" t="n">
-        <v>2.746</v>
+        <v>2.385</v>
       </c>
       <c r="S47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T47" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48">
@@ -4018,61 +4063,61 @@
         <v>64</v>
       </c>
       <c r="B48" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C48" t="n">
-        <v>9.9473224E7</v>
+        <v>1.1752494E7</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1233</v>
+        <v>0.09486</v>
       </c>
       <c r="F48" t="n">
-        <v>0.028929223978530774</v>
+        <v>0.023021728866442676</v>
       </c>
       <c r="G48" t="n">
-        <v>3.022</v>
+        <v>3.032</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.001133</v>
+        <v>-3.562E-4</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0034102785809959867</v>
+        <v>0.003142133033466279</v>
       </c>
       <c r="J48" t="n">
-        <v>-1.997</v>
+        <v>-1.954</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1881488772222678</v>
+        <v>0.17938784797192925</v>
       </c>
       <c r="L48" t="n">
-        <v>4.507347795487369E-157</v>
+        <v>2.5258859057339574E-170</v>
       </c>
       <c r="M48" t="n">
-        <v>0.05074</v>
+        <v>0.1593</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0500199960015992</v>
+        <v>0.05478138369920935</v>
       </c>
       <c r="O48" t="n">
-        <v>0.7596</v>
+        <v>3.063</v>
       </c>
       <c r="P48" t="n">
-        <v>0.114</v>
+        <v>0.08422</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.10084641788382967</v>
+        <v>0.08816461875378354</v>
       </c>
       <c r="R48" t="n">
-        <v>1.133</v>
+        <v>2.746</v>
       </c>
       <c r="S48" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="T48" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49">
@@ -4080,61 +4125,61 @@
         <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="C49" t="n">
-        <v>1.0460998E8</v>
+        <v>9.9473224E7</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06931</v>
+        <v>0.1233</v>
       </c>
       <c r="F49" t="n">
-        <v>0.018212632978237935</v>
+        <v>0.028929223978530774</v>
       </c>
       <c r="G49" t="n">
-        <v>3.014</v>
+        <v>3.022</v>
       </c>
       <c r="H49" t="n">
-        <v>0.004624</v>
+        <v>-0.001133</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0049497474683058325</v>
+        <v>0.0034102785809959867</v>
       </c>
       <c r="J49" t="n">
-        <v>-1.961</v>
+        <v>-1.997</v>
       </c>
       <c r="K49" t="n">
-        <v>0.13881642554107204</v>
+        <v>0.1881488772222678</v>
       </c>
       <c r="L49" t="n">
-        <v>1.379219580119884E-281</v>
+        <v>4.507347795487369E-157</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1534</v>
+        <v>0.05074</v>
       </c>
       <c r="N49" t="n">
-        <v>0.05979130371550699</v>
+        <v>0.0500199960015992</v>
       </c>
       <c r="O49" t="n">
-        <v>2.566</v>
+        <v>0.7596</v>
       </c>
       <c r="P49" t="n">
-        <v>0.126</v>
+        <v>0.114</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.09389888178247918</v>
+        <v>0.10084641788382967</v>
       </c>
       <c r="R49" t="n">
-        <v>2.142</v>
+        <v>1.133</v>
       </c>
       <c r="S49" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="T49" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50">
@@ -4142,61 +4187,61 @@
         <v>66</v>
       </c>
       <c r="B50" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="C50" t="n">
-        <v>1.08918822E8</v>
+        <v>1.0460998E8</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.134</v>
+        <v>0.06931</v>
       </c>
       <c r="F50" t="n">
-        <v>0.03131453336711247</v>
+        <v>0.018212632978237935</v>
       </c>
       <c r="G50" t="n">
-        <v>3.01</v>
+        <v>3.014</v>
       </c>
       <c r="H50" t="n">
-        <v>0.001224</v>
+        <v>0.004624</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0070192592201741635</v>
+        <v>0.0049497474683058325</v>
       </c>
       <c r="J50" t="n">
-        <v>-1.875</v>
+        <v>-1.961</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4106093033529562</v>
+        <v>0.13881642554107204</v>
       </c>
       <c r="L50" t="n">
-        <v>6.1373012301921576E-33</v>
+        <v>1.379219580119884E-281</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.168</v>
+        <v>0.1534</v>
       </c>
       <c r="N50" t="n">
-        <v>0.05520869496736904</v>
+        <v>0.05979130371550699</v>
       </c>
       <c r="O50" t="n">
-        <v>3.129</v>
+        <v>2.566</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.08011</v>
+        <v>0.126</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.09144397191723465</v>
+        <v>0.09389888178247918</v>
       </c>
       <c r="R50" t="n">
-        <v>0.7248</v>
+        <v>2.142</v>
       </c>
       <c r="S50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T50" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51">
@@ -4204,61 +4249,61 @@
         <v>67</v>
       </c>
       <c r="B51" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="C51" t="n">
-        <v>1.13514933E8</v>
+        <v>1.08918822E8</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08906</v>
+        <v>-0.134</v>
       </c>
       <c r="F51" t="n">
-        <v>0.022160776159692603</v>
+        <v>0.03131453336711247</v>
       </c>
       <c r="G51" t="n">
-        <v>2.999</v>
+        <v>3.01</v>
       </c>
       <c r="H51" t="n">
-        <v>0.002743</v>
+        <v>0.001224</v>
       </c>
       <c r="I51" t="n">
-        <v>0.009418067742376883</v>
+        <v>0.0070192592201741635</v>
       </c>
       <c r="J51" t="n">
-        <v>-2.034</v>
+        <v>-1.875</v>
       </c>
       <c r="K51" t="n">
-        <v>0.44777226354476224</v>
+        <v>0.4106093033529562</v>
       </c>
       <c r="L51" t="n">
-        <v>1.2956079856360856E-29</v>
+        <v>6.1373012301921576E-33</v>
       </c>
       <c r="M51" t="n">
-        <v>0.05847</v>
+        <v>-0.168</v>
       </c>
       <c r="N51" t="n">
-        <v>0.055856960175075764</v>
+        <v>0.05520869496736904</v>
       </c>
       <c r="O51" t="n">
-        <v>0.5919</v>
+        <v>3.129</v>
       </c>
       <c r="P51" t="n">
-        <v>0.1229</v>
+        <v>-0.08011</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.09812746812182611</v>
+        <v>0.09144397191723465</v>
       </c>
       <c r="R51" t="n">
-        <v>1.543</v>
+        <v>0.7248</v>
       </c>
       <c r="S51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T51" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52">
@@ -4266,61 +4311,123 @@
         <v>68</v>
       </c>
       <c r="B52" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.13514933E8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.08906</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.022160776159692603</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.002743</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.009418067742376883</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-2.034</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.44777226354476224</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.2956079856360856E-29</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.05847</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.055856960175075764</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.5919</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.1229</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.09812746812182611</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.543</v>
+      </c>
+      <c r="S52" t="s">
+        <v>120</v>
+      </c>
+      <c r="T52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="n">
         <v>11.0</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C53" t="n">
         <v>1.24629925E8</v>
       </c>
-      <c r="D52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" t="n">
+      <c r="D53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.1042</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F53" t="n">
         <v>0.025793410011086166</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G53" t="n">
         <v>2.947</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H53" t="n">
         <v>-0.02276</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I53" t="n">
         <v>0.018226354544998845</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J53" t="n">
         <v>-1.46</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K53" t="n">
         <v>0.4158124577258358</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L53" t="n">
         <v>1.5135346863553378E-26</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M53" t="n">
         <v>0.1126</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N53" t="n">
         <v>0.04904079934095691</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O53" t="n">
         <v>3.078</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P53" t="n">
         <v>0.1088</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q53" t="n">
         <v>0.10124228365658294</v>
       </c>
-      <c r="R52" t="n">
+      <c r="R53" t="n">
         <v>0.9532</v>
       </c>
-      <c r="S52" t="s">
-        <v>119</v>
-      </c>
-      <c r="T52" t="s">
-        <v>169</v>
+      <c r="S53" t="s">
+        <v>121</v>
+      </c>
+      <c r="T53" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4400,7 +4507,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B2" t="n">
         <v>12.0</v>
@@ -4409,7 +4516,7 @@
         <v>2944163.0</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E2" t="n">
         <v>0.1766</v>
@@ -4454,15 +4561,15 @@
         <v>2.313</v>
       </c>
       <c r="S2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="T2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B3" t="n">
         <v>12.0</v>
@@ -4471,7 +4578,7 @@
         <v>2944163.0</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E3" t="n">
         <v>0.1766</v>
@@ -4516,15 +4623,15 @@
         <v>2.313</v>
       </c>
       <c r="S3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="T3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B4" t="n">
         <v>19.0</v>
@@ -4533,7 +4640,7 @@
         <v>4.9220235E7</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E4" t="n">
         <v>0.1244</v>
@@ -4578,15 +4685,15 @@
         <v>4.023</v>
       </c>
       <c r="S4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="T4" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -4595,7 +4702,7 @@
         <v>4.3814358E7</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E5" t="n">
         <v>0.131</v>
@@ -4640,15 +4747,15 @@
         <v>1.392</v>
       </c>
       <c r="S5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="T5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B6" t="n">
         <v>12.0</v>
@@ -4657,7 +4764,7 @@
         <v>5.0497732E7</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E6" t="n">
         <v>0.1918</v>
@@ -4702,15 +4809,15 @@
         <v>3.203</v>
       </c>
       <c r="S6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="T6" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B7" t="n">
         <v>6.0</v>
@@ -4719,7 +4826,7 @@
         <v>3.088156E7</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E7" t="n">
         <v>0.2224</v>
@@ -4764,15 +4871,15 @@
         <v>2.341</v>
       </c>
       <c r="S7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="T7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B8" t="n">
         <v>19.0</v>
@@ -4781,7 +4888,7 @@
         <v>5.4927903E7</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E8" t="n">
         <v>0.03631</v>
@@ -4826,15 +4933,15 @@
         <v>1.052</v>
       </c>
       <c r="S8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="T8" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -4843,7 +4950,7 @@
         <v>2.5246922E7</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E9" t="n">
         <v>0.04075</v>
@@ -4888,15 +4995,15 @@
         <v>1.299</v>
       </c>
       <c r="S9" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="T9" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B10" t="n">
         <v>2.0</v>
@@ -4905,7 +5012,7 @@
         <v>2.11179707E8</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E10" t="n">
         <v>0.1145</v>
@@ -4950,15 +5057,15 @@
         <v>2.093</v>
       </c>
       <c r="S10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="T10" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B11" t="n">
         <v>2.0</v>
@@ -4967,7 +5074,7 @@
         <v>6.8545995E7</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E11" t="n">
         <v>0.1302</v>
@@ -5012,15 +5119,15 @@
         <v>3.212</v>
       </c>
       <c r="S11" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="T11" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B12" t="n">
         <v>10.0</v>
@@ -5029,7 +5136,7 @@
         <v>1.04679468E8</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E12" t="n">
         <v>0.1168</v>
@@ -5074,15 +5181,15 @@
         <v>2.215</v>
       </c>
       <c r="S12" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="T12" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B13" t="n">
         <v>19.0</v>
@@ -5091,7 +5198,7 @@
         <v>3.8307803E7</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E13" t="n">
         <v>0.1303</v>
@@ -5136,15 +5243,15 @@
         <v>2.216</v>
       </c>
       <c r="S13" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="T13" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -5153,7 +5260,7 @@
         <v>6.8546038E7</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E14" t="n">
         <v>0.1009</v>
@@ -5198,15 +5305,15 @@
         <v>3.528</v>
       </c>
       <c r="S14" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="T14" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -5215,7 +5322,7 @@
         <v>1.60370982E8</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E15" t="n">
         <v>0.1379</v>
@@ -5260,754 +5367,878 @@
         <v>2.215</v>
       </c>
       <c r="S15" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="T15" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B16" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C16" t="n">
-        <v>1870798.0</v>
+        <v>1956121.0</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1126</v>
+        <v>-0.101</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02257653649256236</v>
+        <v>0.02029531965749739</v>
       </c>
       <c r="G16" t="n">
-        <v>3.426</v>
+        <v>3.479</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0231</v>
+        <v>-0.1914</v>
       </c>
       <c r="I16" t="n">
-        <v>0.021883783950679095</v>
+        <v>0.045902069670114</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.363</v>
+        <v>2.316</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6761656601750787</v>
+        <v>0.9250405396521819</v>
       </c>
       <c r="L16" t="n">
-        <v>7.074553566049011E-13</v>
+        <v>0.10433297394123225</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.1963</v>
+        <v>-0.08093</v>
       </c>
       <c r="N16" t="n">
-        <v>0.05028916384272063</v>
+        <v>0.047286361670147554</v>
       </c>
       <c r="O16" t="n">
-        <v>4.062</v>
+        <v>2.646</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.2667</v>
+        <v>-0.2239</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.09601562372864116</v>
+        <v>0.09488940931421166</v>
       </c>
       <c r="R16" t="n">
-        <v>3.872</v>
+        <v>3.582</v>
       </c>
       <c r="S16" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="T16" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B17" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="C17" t="n">
-        <v>5.0497778E7</v>
+        <v>1870798.0</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05623</v>
+        <v>-0.1126</v>
       </c>
       <c r="F17" t="n">
-        <v>0.014429137188342205</v>
+        <v>0.02257653649256236</v>
       </c>
       <c r="G17" t="n">
-        <v>3.347</v>
+        <v>3.426</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02159</v>
+        <v>0.0231</v>
       </c>
       <c r="I17" t="n">
-        <v>0.007901898506055365</v>
+        <v>0.021883783950679095</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.7</v>
+        <v>-1.363</v>
       </c>
       <c r="K17" t="n">
-        <v>0.12565826673959815</v>
+        <v>0.6761656601750787</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0</v>
+        <v>7.074553566049011E-13</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08528</v>
+        <v>-0.1963</v>
       </c>
       <c r="N17" t="n">
-        <v>0.05520869496736904</v>
+        <v>0.05028916384272063</v>
       </c>
       <c r="O17" t="n">
-        <v>1.594</v>
+        <v>4.062</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1035</v>
+        <v>-0.2667</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.10430723848324239</v>
+        <v>0.09601562372864116</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6008</v>
+        <v>3.872</v>
       </c>
       <c r="S17" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="T17" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B18" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C18" t="n">
-        <v>3.3048558E7</v>
+        <v>2.1882587E7</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03974</v>
+        <v>0.129</v>
       </c>
       <c r="F18" t="n">
-        <v>0.012373358476985948</v>
+        <v>0.02548921340488953</v>
       </c>
       <c r="G18" t="n">
-        <v>3.337</v>
+        <v>3.405</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.08906</v>
+        <v>-0.1644</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05243090691567332</v>
+        <v>0.1173882447266335</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.9453</v>
+        <v>-0.3414</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7974333827975851</v>
+        <v>1.4778362561528933</v>
       </c>
       <c r="L18" t="n">
-        <v>3.9345678412884354E-8</v>
+        <v>0.005621442249357344</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1102</v>
+        <v>0.1284</v>
       </c>
       <c r="N18" t="n">
-        <v>0.06083584469702052</v>
+        <v>0.04910193478876367</v>
       </c>
       <c r="O18" t="n">
-        <v>1.763</v>
+        <v>3.349</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1142</v>
+        <v>0.1943</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.10315037566582101</v>
+        <v>0.09565563234854496</v>
       </c>
       <c r="R18" t="n">
-        <v>0.9524</v>
+        <v>3.071</v>
       </c>
       <c r="S18" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="T18" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B19" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0881571E7</v>
+        <v>5.0497778E7</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02482</v>
+        <v>0.05623</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01089495295997188</v>
+        <v>0.014429137188342205</v>
       </c>
       <c r="G19" t="n">
-        <v>3.336</v>
+        <v>3.347</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.001768</v>
+        <v>0.02159</v>
       </c>
       <c r="I19" t="n">
-        <v>0.004491102314577124</v>
+        <v>0.007901898506055365</v>
       </c>
       <c r="J19" t="n">
-        <v>-2.006</v>
+        <v>-1.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.19049934383089093</v>
+        <v>0.12565826673959815</v>
       </c>
       <c r="L19" t="n">
-        <v>2.493942700868699E-173</v>
+        <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.08841</v>
+        <v>0.08528</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04610856753359401</v>
+        <v>0.05520869496736904</v>
       </c>
       <c r="O19" t="n">
-        <v>3.243</v>
+        <v>1.594</v>
       </c>
       <c r="P19" t="n">
-        <v>0.04974</v>
+        <v>0.1035</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.07961783719745218</v>
+        <v>0.10430723848324239</v>
       </c>
       <c r="R19" t="n">
-        <v>0.6649</v>
+        <v>0.6008</v>
       </c>
       <c r="S19" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="T19" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B20" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.6495749E7</v>
+        <v>3.3048558E7</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2005</v>
+        <v>0.03974</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03957271787481876</v>
+        <v>0.012373358476985948</v>
       </c>
       <c r="G20" t="n">
-        <v>3.309</v>
+        <v>3.337</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.01889</v>
+        <v>-0.08906</v>
       </c>
       <c r="I20" t="n">
-        <v>0.023922792479140056</v>
+        <v>0.05243090691567332</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.461</v>
+        <v>-0.9453</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5616048432839589</v>
+        <v>0.7974333827975851</v>
       </c>
       <c r="L20" t="n">
-        <v>1.0023850171481608E-17</v>
+        <v>3.9345678412884354E-8</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1504</v>
+        <v>0.1102</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06428841264178173</v>
+        <v>0.06083584469702052</v>
       </c>
       <c r="O20" t="n">
-        <v>2.242</v>
+        <v>1.763</v>
       </c>
       <c r="P20" t="n">
-        <v>0.138</v>
+        <v>0.1142</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.09119210492142399</v>
+        <v>0.10315037566582101</v>
       </c>
       <c r="R20" t="n">
-        <v>3.051</v>
+        <v>0.9524</v>
       </c>
       <c r="S20" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="T20" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B21" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.14055137E8</v>
+        <v>3.0881571E7</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1305</v>
+        <v>0.02482</v>
       </c>
       <c r="F21" t="n">
-        <v>0.027939219745726617</v>
+        <v>0.01089495295997188</v>
       </c>
       <c r="G21" t="n">
-        <v>3.215</v>
+        <v>3.336</v>
       </c>
       <c r="H21" t="n">
-        <v>-6.157E-4</v>
+        <v>-0.001768</v>
       </c>
       <c r="I21" t="n">
-        <v>0.005349766350038102</v>
+        <v>0.004491102314577124</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.993</v>
+        <v>-2.006</v>
       </c>
       <c r="K21" t="n">
-        <v>0.11067971810589328</v>
+        <v>0.19049934383089093</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0</v>
+        <v>2.493942700868699E-173</v>
       </c>
       <c r="M21" t="n">
-        <v>0.08165</v>
+        <v>0.08841</v>
       </c>
       <c r="N21" t="n">
-        <v>0.04579301256742124</v>
+        <v>0.04610856753359401</v>
       </c>
       <c r="O21" t="n">
-        <v>3.161</v>
+        <v>3.243</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1131</v>
+        <v>0.04974</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.09060353193998565</v>
+        <v>0.07961783719745218</v>
       </c>
       <c r="R21" t="n">
-        <v>2.537</v>
+        <v>0.6649</v>
       </c>
       <c r="S21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="T21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B22" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.49908781E8</v>
+        <v>7.6495749E7</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1223</v>
+        <v>0.2005</v>
       </c>
       <c r="F22" t="n">
-        <v>0.027210292170426982</v>
+        <v>0.03957271787481876</v>
       </c>
       <c r="G22" t="n">
-        <v>3.145</v>
+        <v>3.309</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.006499</v>
+        <v>-0.01889</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01131370849898476</v>
+        <v>0.023922792479140056</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.679</v>
+        <v>-1.461</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6240192304729077</v>
+        <v>0.5616048432839589</v>
       </c>
       <c r="L22" t="n">
-        <v>5.354945651869252E-15</v>
+        <v>1.0023850171481608E-17</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05728</v>
+        <v>0.1504</v>
       </c>
       <c r="N22" t="n">
-        <v>0.044170125650715555</v>
+        <v>0.06428841264178173</v>
       </c>
       <c r="O22" t="n">
-        <v>3.169</v>
+        <v>2.242</v>
       </c>
       <c r="P22" t="n">
-        <v>0.06243</v>
+        <v>0.138</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.08600581375697808</v>
+        <v>0.09119210492142399</v>
       </c>
       <c r="R22" t="n">
-        <v>2.369</v>
+        <v>3.051</v>
       </c>
       <c r="S22" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="T22" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B23" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.55292208E8</v>
+        <v>1.14055137E8</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1212</v>
+        <v>0.1305</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02720845456838738</v>
+        <v>0.027939219745726617</v>
       </c>
       <c r="G23" t="n">
-        <v>3.127</v>
+        <v>3.215</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.02209</v>
+        <v>-6.157E-4</v>
       </c>
       <c r="I23" t="n">
-        <v>0.014415269681833914</v>
+        <v>0.005349766350038102</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.189</v>
+        <v>-1.993</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4388621651498338</v>
+        <v>0.11067971810589328</v>
       </c>
       <c r="L23" t="n">
-        <v>3.997282752257597E-23</v>
+        <v>0.0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09246</v>
+        <v>0.08165</v>
       </c>
       <c r="N23" t="n">
-        <v>0.05417564028232615</v>
+        <v>0.04579301256742124</v>
       </c>
       <c r="O23" t="n">
-        <v>1.887</v>
+        <v>3.161</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1005</v>
+        <v>0.1131</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.08927485648266258</v>
+        <v>0.09060353193998565</v>
       </c>
       <c r="R23" t="n">
-        <v>2.906</v>
+        <v>2.537</v>
       </c>
       <c r="S23" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="T23" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B24" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C24" t="n">
-        <v>8.2224946E7</v>
+        <v>1.49908781E8</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1381</v>
+        <v>0.1223</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03111751918132292</v>
+        <v>0.027210292170426982</v>
       </c>
       <c r="G24" t="n">
-        <v>3.085</v>
+        <v>3.145</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.00516</v>
+        <v>-0.006499</v>
       </c>
       <c r="I24" t="n">
-        <v>0.004960846701924985</v>
+        <v>0.01131370849898476</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.821</v>
+        <v>-1.679</v>
       </c>
       <c r="K24" t="n">
-        <v>0.21847196616499792</v>
+        <v>0.6240192304729077</v>
       </c>
       <c r="L24" t="n">
-        <v>5.594361927716673E-112</v>
+        <v>5.354945651869252E-15</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0856</v>
+        <v>0.05728</v>
       </c>
       <c r="N24" t="n">
-        <v>0.07132320800412724</v>
+        <v>0.044170125650715555</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6473</v>
+        <v>3.169</v>
       </c>
       <c r="P24" t="n">
-        <v>0.2595</v>
+        <v>0.06243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.09609890738192604</v>
+        <v>0.08600581375697808</v>
       </c>
       <c r="R24" t="n">
-        <v>3.665</v>
+        <v>2.369</v>
       </c>
       <c r="S24" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="T24" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B25" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1525085.0</v>
+        <v>1.55292208E8</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.03818</v>
+        <v>0.1212</v>
       </c>
       <c r="F25" t="n">
-        <v>0.012817956155331474</v>
+        <v>0.02720845456838738</v>
       </c>
       <c r="G25" t="n">
-        <v>3.06</v>
+        <v>3.127</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.005206</v>
+        <v>-0.02209</v>
       </c>
       <c r="I25" t="n">
-        <v>0.010397114984456024</v>
+        <v>0.014415269681833914</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.67</v>
+        <v>-1.189</v>
       </c>
       <c r="K25" t="n">
-        <v>0.47947888378947406</v>
+        <v>0.4388621651498338</v>
       </c>
       <c r="L25" t="n">
-        <v>2.9553554080775115E-23</v>
+        <v>3.997282752257597E-23</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.09022</v>
+        <v>0.09246</v>
       </c>
       <c r="N25" t="n">
-        <v>0.07891134265744057</v>
+        <v>0.05417564028232615</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4769</v>
+        <v>1.887</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.05921</v>
+        <v>0.1005</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.083916625289629</v>
+        <v>0.08927485648266258</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4708</v>
+        <v>2.906</v>
       </c>
       <c r="S25" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="T25" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B26" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.4280512E7</v>
+        <v>8.2224946E7</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1701</v>
+        <v>0.1381</v>
       </c>
       <c r="F26" t="n">
-        <v>0.038379682124790974</v>
+        <v>0.03111751918132292</v>
       </c>
       <c r="G26" t="n">
-        <v>3.045</v>
+        <v>3.085</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0604</v>
+        <v>-0.00516</v>
       </c>
       <c r="I26" t="n">
-        <v>0.022297981971469975</v>
+        <v>0.004960846701924985</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.087</v>
+        <v>-1.821</v>
       </c>
       <c r="K26" t="n">
-        <v>0.41340053217188777</v>
+        <v>0.21847196616499792</v>
       </c>
       <c r="L26" t="n">
-        <v>8.002301752783277E-24</v>
+        <v>5.594361927716673E-112</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09515</v>
+        <v>0.0856</v>
       </c>
       <c r="N26" t="n">
-        <v>0.05950630218724736</v>
+        <v>0.07132320800412724</v>
       </c>
       <c r="O26" t="n">
-        <v>1.519</v>
+        <v>0.6473</v>
       </c>
       <c r="P26" t="n">
-        <v>0.2165</v>
+        <v>0.2595</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.09902524930541705</v>
+        <v>0.09609890738192604</v>
       </c>
       <c r="R26" t="n">
-        <v>2.991</v>
+        <v>3.665</v>
       </c>
       <c r="S26" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="T26" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B27" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1525085.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.03818</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.012817956155331474</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.005206</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.010397114984456024</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.47947888378947406</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.9553554080775115E-23</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.09022</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.07891134265744057</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.4769</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.05921</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.083916625289629</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.4708</v>
+      </c>
+      <c r="S27" t="s">
+        <v>223</v>
+      </c>
+      <c r="T27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.4280512E7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1701</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.038379682124790974</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.0604</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.022297981971469975</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-1.087</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.41340053217188777</v>
+      </c>
+      <c r="L28" t="n">
+        <v>8.002301752783277E-24</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.09515</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.05950630218724736</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.519</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.2165</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.09902524930541705</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="S28" t="s">
+        <v>224</v>
+      </c>
+      <c r="T28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" t="n">
         <v>6.0</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C29" t="n">
         <v>3.1088434E7</v>
       </c>
-      <c r="D27" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" t="n">
         <v>-0.08715</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F29" t="n">
         <v>0.021494185260204676</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G29" t="n">
         <v>3.032</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H29" t="n">
         <v>0.02542</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I29" t="n">
         <v>0.01138859078200635</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J29" t="n">
         <v>-1.617</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K29" t="n">
         <v>0.293393933134276</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L29" t="n">
         <v>7.539938266456881E-57</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M29" t="n">
         <v>-0.047</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N29" t="n">
         <v>0.047031904065219385</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O29" t="n">
         <v>0.9663</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P29" t="n">
         <v>-0.1426</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q29" t="n">
         <v>0.10765686229869417</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R29" t="n">
         <v>1.294</v>
       </c>
-      <c r="S27" t="s">
-        <v>218</v>
-      </c>
-      <c r="T27" t="s">
-        <v>241</v>
+      <c r="S29" t="s">
+        <v>225</v>
+      </c>
+      <c r="T29" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -6087,7 +6318,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B2" t="n">
         <v>11.0</v>
@@ -6096,7 +6327,7 @@
         <v>1.19232263E8</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E2" t="n">
         <v>0.1482</v>
@@ -6141,15 +6372,15 @@
         <v>0.5487</v>
       </c>
       <c r="S2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="T2" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B3" t="n">
         <v>16.0</v>
@@ -6158,7 +6389,7 @@
         <v>8.853726E7</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E3" t="n">
         <v>0.218</v>
@@ -6203,15 +6434,15 @@
         <v>3.915</v>
       </c>
       <c r="S3" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="T3" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B4" t="n">
         <v>2.0</v>
@@ -6220,7 +6451,7 @@
         <v>9.9439848E7</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E4" t="n">
         <v>-0.1851</v>
@@ -6265,15 +6496,15 @@
         <v>0.9517</v>
       </c>
       <c r="S4" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="T4" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B5" t="n">
         <v>6.0</v>
@@ -6282,7 +6513,7 @@
         <v>7.6073316E7</v>
       </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E5" t="n">
         <v>0.05982</v>
@@ -6327,15 +6558,15 @@
         <v>1.804</v>
       </c>
       <c r="S5" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="T5" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B6" t="n">
         <v>3.0</v>
@@ -6344,7 +6575,7 @@
         <v>1.59706543E8</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E6" t="n">
         <v>0.03187</v>
@@ -6389,15 +6620,15 @@
         <v>0.2126</v>
       </c>
       <c r="S6" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="T6" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B7" t="n">
         <v>6.0</v>
@@ -6406,7 +6637,7 @@
         <v>1.67530343E8</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E7" t="n">
         <v>-0.1525</v>
@@ -6451,15 +6682,15 @@
         <v>1.058</v>
       </c>
       <c r="S7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="T7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B8" t="n">
         <v>10.0</v>
@@ -6468,7 +6699,7 @@
         <v>1.34983444E8</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E8" t="n">
         <v>0.05227</v>
@@ -6513,1746 +6744,1870 @@
         <v>1.258</v>
       </c>
       <c r="S8" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="T8" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B9" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0336433E7</v>
+        <v>4.1220106E7</v>
       </c>
       <c r="D9" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04631</v>
+        <v>-0.1088</v>
       </c>
       <c r="F9" t="n">
-        <v>0.012581732790041282</v>
+        <v>0.02049146163649631</v>
       </c>
       <c r="G9" t="n">
-        <v>3.567</v>
+        <v>3.604</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.006496</v>
+        <v>0.1007</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005885575587824865</v>
+        <v>0.05830094338859364</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.79</v>
+        <v>0.6621</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1981161275615895</v>
+        <v>1.4149204924659193</v>
       </c>
       <c r="L9" t="n">
-        <v>2.5243752501640203E-161</v>
+        <v>0.018799573101976833</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.08104</v>
+        <v>-0.142</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05420332093147061</v>
+        <v>0.04843552415324934</v>
       </c>
       <c r="O9" t="n">
-        <v>1.574</v>
+        <v>3.71</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.1204</v>
+        <v>-0.0723</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.09041017641836566</v>
+        <v>0.08741853350405737</v>
       </c>
       <c r="R9" t="n">
-        <v>2.846</v>
+        <v>1.002</v>
       </c>
       <c r="S9" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="T9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B10" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="C10" t="n">
-        <v>4.9295011E7</v>
+        <v>6.0336433E7</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1425</v>
+        <v>-0.04631</v>
       </c>
       <c r="F10" t="n">
-        <v>0.026023066690918653</v>
+        <v>0.012581732790041282</v>
       </c>
       <c r="G10" t="n">
-        <v>3.556</v>
+        <v>3.567</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007307</v>
+        <v>-0.006496</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006903622237637283</v>
+        <v>0.005885575587824865</v>
       </c>
       <c r="J10" t="n">
-        <v>-1.679</v>
+        <v>-1.79</v>
       </c>
       <c r="K10" t="n">
-        <v>0.34525353003264136</v>
+        <v>0.1981161275615895</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1190769845216754E-52</v>
+        <v>2.5243752501640203E-161</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06408</v>
+        <v>-0.08104</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05703507692639679</v>
+        <v>0.05420332093147061</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7364</v>
+        <v>1.574</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2063</v>
+        <v>-0.1204</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0926120942425988</v>
+        <v>0.09041017641836566</v>
       </c>
       <c r="R10" t="n">
-        <v>3.801</v>
+        <v>2.846</v>
       </c>
       <c r="S10" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="T10" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B11" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.27215669E8</v>
+        <v>4.9295011E7</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1972</v>
+        <v>0.1425</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03497141690009142</v>
+        <v>0.026023066690918653</v>
       </c>
       <c r="G11" t="n">
-        <v>3.542</v>
+        <v>3.556</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.003761</v>
+        <v>0.007307</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0047265209192385894</v>
+        <v>0.006903622237637283</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.869</v>
+        <v>-1.679</v>
       </c>
       <c r="K11" t="n">
-        <v>0.18066543665017945</v>
+        <v>0.34525353003264136</v>
       </c>
       <c r="L11" t="n">
-        <v>2.174476231900717E-197</v>
+        <v>3.1190769845216754E-52</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.1391</v>
+        <v>0.06408</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05429548784199291</v>
+        <v>0.05703507692639679</v>
       </c>
       <c r="O11" t="n">
-        <v>2.821</v>
+        <v>0.7364</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1463</v>
+        <v>0.2063</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.11627553482998906</v>
+        <v>0.0926120942425988</v>
       </c>
       <c r="R11" t="n">
-        <v>1.02</v>
+        <v>3.801</v>
       </c>
       <c r="S11" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="T11" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B12" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.9439883E7</v>
+        <v>1.27215669E8</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1029</v>
+        <v>-0.1972</v>
       </c>
       <c r="F12" t="n">
-        <v>0.020774984957876625</v>
+        <v>0.03497141690009142</v>
       </c>
       <c r="G12" t="n">
-        <v>3.455</v>
+        <v>3.542</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007829</v>
+        <v>-0.003761</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006541406576570517</v>
+        <v>0.0047265209192385894</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.811</v>
+        <v>-1.869</v>
       </c>
       <c r="K12" t="n">
-        <v>0.16278820596099705</v>
+        <v>0.18066543665017945</v>
       </c>
       <c r="L12" t="n">
-        <v>7.215935579520763E-230</v>
+        <v>2.174476231900717E-197</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1783</v>
+        <v>-0.1391</v>
       </c>
       <c r="N12" t="n">
-        <v>0.05308483775994799</v>
+        <v>0.05429548784199291</v>
       </c>
       <c r="O12" t="n">
-        <v>3.479</v>
+        <v>2.821</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.2142</v>
+        <v>-0.1463</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.09202716990106781</v>
+        <v>0.11627553482998906</v>
       </c>
       <c r="R12" t="n">
-        <v>3.956</v>
+        <v>1.02</v>
       </c>
       <c r="S12" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="T12" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B13" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.25248264E8</v>
+        <v>9.9439883E7</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02957</v>
+        <v>-0.1029</v>
       </c>
       <c r="F13" t="n">
-        <v>0.011202678251204039</v>
+        <v>0.020774984957876625</v>
       </c>
       <c r="G13" t="n">
-        <v>3.434</v>
+        <v>3.455</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.001168</v>
+        <v>0.007829</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0033823069050575526</v>
+        <v>0.006541406576570517</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.033</v>
+        <v>-1.811</v>
       </c>
       <c r="K13" t="n">
-        <v>0.16330952207388275</v>
+        <v>0.16278820596099705</v>
       </c>
       <c r="L13" t="n">
-        <v>5.331532443154775E-246</v>
+        <v>7.215935579520763E-230</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1067</v>
+        <v>-0.1783</v>
       </c>
       <c r="N13" t="n">
-        <v>0.049949974974968704</v>
+        <v>0.05308483775994799</v>
       </c>
       <c r="O13" t="n">
-        <v>2.77</v>
+        <v>3.479</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.1886</v>
+        <v>-0.2142</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.11832159566199232</v>
+        <v>0.09202716990106781</v>
       </c>
       <c r="R13" t="n">
-        <v>1.539</v>
+        <v>3.956</v>
       </c>
       <c r="S13" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="T13" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.7756507E7</v>
+        <v>1.25248264E8</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1063</v>
+        <v>-0.02957</v>
       </c>
       <c r="F14" t="n">
-        <v>0.021593980642762464</v>
+        <v>0.011202678251204039</v>
       </c>
       <c r="G14" t="n">
-        <v>3.421</v>
+        <v>3.434</v>
       </c>
       <c r="H14" t="n">
-        <v>0.006129</v>
+        <v>-0.001168</v>
       </c>
       <c r="I14" t="n">
-        <v>0.016105899540230593</v>
+        <v>0.0033823069050575526</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.704</v>
+        <v>-2.033</v>
       </c>
       <c r="K14" t="n">
-        <v>0.841486779456457</v>
+        <v>0.16330952207388275</v>
       </c>
       <c r="L14" t="n">
-        <v>5.631073136190338E-10</v>
+        <v>5.331532443154775E-246</v>
       </c>
       <c r="M14" t="n">
         <v>-0.1067</v>
       </c>
       <c r="N14" t="n">
-        <v>0.058838762733422596</v>
+        <v>0.049949974974968704</v>
       </c>
       <c r="O14" t="n">
-        <v>1.83</v>
+        <v>2.77</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1599</v>
+        <v>-0.1886</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09527853903162033</v>
+        <v>0.11832159566199232</v>
       </c>
       <c r="R14" t="n">
-        <v>2.779</v>
+        <v>1.539</v>
       </c>
       <c r="S14" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="T14" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B15" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.3796038E7</v>
+        <v>1.57932921E8</v>
       </c>
       <c r="D15" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1383</v>
+        <v>-0.09692</v>
       </c>
       <c r="F15" t="n">
-        <v>0.026933250824956127</v>
+        <v>0.020107212636265626</v>
       </c>
       <c r="G15" t="n">
-        <v>3.416</v>
+        <v>3.421</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.02218</v>
+        <v>-0.03915</v>
       </c>
       <c r="I15" t="n">
-        <v>0.015607690412101338</v>
+        <v>0.037841775856849</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.498</v>
+        <v>-0.09182</v>
       </c>
       <c r="K15" t="n">
-        <v>0.327414110874898</v>
+        <v>1.7798876369029593</v>
       </c>
       <c r="L15" t="n">
-        <v>3.2288059435839505E-51</v>
+        <v>0.024212542679743713</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.03609</v>
+        <v>-0.1229</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04319722213291035</v>
+        <v>0.052057660339281484</v>
       </c>
       <c r="O15" t="n">
-        <v>2.162</v>
+        <v>2.796</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.124</v>
+        <v>-0.3975</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.11970797801316335</v>
+        <v>0.10222524150130435</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4898</v>
+        <v>4.102</v>
       </c>
       <c r="S15" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="T15" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B16" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="C16" t="n">
-        <v>3.5547548E7</v>
+        <v>1.7756507E7</v>
       </c>
       <c r="D16" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.158</v>
+        <v>-0.1063</v>
       </c>
       <c r="F16" t="n">
-        <v>0.030993547715613325</v>
+        <v>0.021593980642762464</v>
       </c>
       <c r="G16" t="n">
-        <v>3.364</v>
+        <v>3.421</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07028</v>
+        <v>0.006129</v>
       </c>
       <c r="I16" t="n">
-        <v>0.013903237033151668</v>
+        <v>0.016105899540230593</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.322</v>
+        <v>-1.704</v>
       </c>
       <c r="K16" t="n">
-        <v>0.13674794331177342</v>
+        <v>0.841486779456457</v>
       </c>
       <c r="L16" t="n">
-        <v>1.1997942182313467E-257</v>
+        <v>5.631073136190338E-10</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.1166</v>
+        <v>-0.1067</v>
       </c>
       <c r="N16" t="n">
-        <v>0.05616048432839589</v>
+        <v>0.058838762733422596</v>
       </c>
       <c r="O16" t="n">
-        <v>2.253</v>
+        <v>1.83</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.1967</v>
+        <v>-0.1599</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.10672394295564609</v>
+        <v>0.09527853903162033</v>
       </c>
       <c r="R16" t="n">
-        <v>2.154</v>
+        <v>2.779</v>
       </c>
       <c r="S16" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="T16" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B17" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.9460097E7</v>
+        <v>3.3796038E7</v>
       </c>
       <c r="D17" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.08947</v>
+        <v>-0.1383</v>
       </c>
       <c r="F17" t="n">
-        <v>0.019449935732541637</v>
+        <v>0.026933250824956127</v>
       </c>
       <c r="G17" t="n">
-        <v>3.349</v>
+        <v>3.416</v>
       </c>
       <c r="H17" t="n">
-        <v>0.008154</v>
+        <v>-0.02218</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00779615289742319</v>
+        <v>0.015607690412101338</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.905</v>
+        <v>-1.498</v>
       </c>
       <c r="K17" t="n">
-        <v>0.13251415018781956</v>
+        <v>0.327414110874898</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0</v>
+        <v>3.2288059435839505E-51</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.1045</v>
+        <v>-0.03609</v>
       </c>
       <c r="N17" t="n">
-        <v>0.05072474741188959</v>
+        <v>0.04319722213291035</v>
       </c>
       <c r="O17" t="n">
-        <v>2.615</v>
+        <v>2.162</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.1915</v>
+        <v>-0.124</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.11497825881443849</v>
+        <v>0.11970797801316335</v>
       </c>
       <c r="R17" t="n">
-        <v>1.732</v>
+        <v>0.4898</v>
       </c>
       <c r="S17" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="T17" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B18" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.9586547E7</v>
+        <v>3.5547548E7</v>
       </c>
       <c r="D18" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05587</v>
+        <v>-0.158</v>
       </c>
       <c r="F18" t="n">
-        <v>0.014394443372357265</v>
+        <v>0.030993547715613325</v>
       </c>
       <c r="G18" t="n">
-        <v>3.344</v>
+        <v>3.364</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001414</v>
+        <v>0.07028</v>
       </c>
       <c r="I18" t="n">
-        <v>0.005394441583704471</v>
+        <v>0.013903237033151668</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.941</v>
+        <v>-1.322</v>
       </c>
       <c r="K18" t="n">
-        <v>0.07331439149307589</v>
+        <v>0.13674794331177342</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0</v>
+        <v>1.1997942182313467E-257</v>
       </c>
       <c r="M18" t="n">
-        <v>0.07524</v>
+        <v>-0.1166</v>
       </c>
       <c r="N18" t="n">
-        <v>0.051048996072400876</v>
+        <v>0.05616048432839589</v>
       </c>
       <c r="O18" t="n">
-        <v>1.741</v>
+        <v>2.253</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0909</v>
+        <v>-0.1967</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.09615612304996494</v>
+        <v>0.10672394295564609</v>
       </c>
       <c r="R18" t="n">
-        <v>0.741</v>
+        <v>2.154</v>
       </c>
       <c r="S18" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="T18" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B19" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.5382629E7</v>
+        <v>1.9460097E7</v>
       </c>
       <c r="D19" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1425</v>
+        <v>-0.08947</v>
       </c>
       <c r="F19" t="n">
-        <v>0.028663565723754607</v>
+        <v>0.019449935732541637</v>
       </c>
       <c r="G19" t="n">
-        <v>3.333</v>
+        <v>3.349</v>
       </c>
       <c r="H19" t="n">
-        <v>4.958E-4</v>
+        <v>0.008154</v>
       </c>
       <c r="I19" t="n">
-        <v>0.006110646446980876</v>
+        <v>0.00779615289742319</v>
       </c>
       <c r="J19" t="n">
-        <v>-2.087</v>
+        <v>-1.905</v>
       </c>
       <c r="K19" t="n">
-        <v>0.25663203229526904</v>
+        <v>0.13251415018781956</v>
       </c>
       <c r="L19" t="n">
-        <v>2.6195104867510604E-99</v>
+        <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.03818</v>
+        <v>-0.1045</v>
       </c>
       <c r="N19" t="n">
-        <v>0.043566041821583926</v>
+        <v>0.05072474741188959</v>
       </c>
       <c r="O19" t="n">
-        <v>1.224</v>
+        <v>2.615</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.07319</v>
+        <v>-0.1915</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.09525229656024048</v>
+        <v>0.11497825881443849</v>
       </c>
       <c r="R19" t="n">
-        <v>0.062</v>
+        <v>1.732</v>
       </c>
       <c r="S19" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="T19" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B20" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.5088477E7</v>
+        <v>1.9586547E7</v>
       </c>
       <c r="D20" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1394</v>
+        <v>0.05587</v>
       </c>
       <c r="F20" t="n">
-        <v>0.028215244106688145</v>
+        <v>0.014394443372357265</v>
       </c>
       <c r="G20" t="n">
-        <v>3.325</v>
+        <v>3.344</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.04179</v>
+        <v>0.001414</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01570350279396288</v>
+        <v>0.005394441583704471</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.229</v>
+        <v>-1.941</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2368543856465402</v>
+        <v>0.07331439149307589</v>
       </c>
       <c r="L20" t="n">
-        <v>1.0998929495343961E-82</v>
+        <v>0.0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08379</v>
+        <v>0.07524</v>
       </c>
       <c r="N20" t="n">
-        <v>0.05097057974949863</v>
+        <v>0.051048996072400876</v>
       </c>
       <c r="O20" t="n">
-        <v>2.027</v>
+        <v>1.741</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0804</v>
+        <v>0.0909</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.08772684879784523</v>
+        <v>0.09615612304996494</v>
       </c>
       <c r="R20" t="n">
-        <v>1.561</v>
+        <v>0.741</v>
       </c>
       <c r="S20" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="T20" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.1001312E8</v>
+        <v>1.5382629E7</v>
       </c>
       <c r="D21" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1194</v>
+        <v>-0.1425</v>
       </c>
       <c r="F21" t="n">
-        <v>0.024831431694527804</v>
+        <v>0.028663565723754607</v>
       </c>
       <c r="G21" t="n">
-        <v>3.313</v>
+        <v>3.333</v>
       </c>
       <c r="H21" t="n">
-        <v>0.002719</v>
+        <v>4.958E-4</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00674240313241503</v>
+        <v>0.006110646446980876</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.878</v>
+        <v>-2.087</v>
       </c>
       <c r="K21" t="n">
-        <v>0.24095642759636024</v>
+        <v>0.25663203229526904</v>
       </c>
       <c r="L21" t="n">
-        <v>3.0585059176033527E-103</v>
+        <v>2.6195104867510604E-99</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.02019</v>
+        <v>-0.03818</v>
       </c>
       <c r="N21" t="n">
-        <v>0.04260281680828158</v>
+        <v>0.043566041821583926</v>
       </c>
       <c r="O21" t="n">
-        <v>2.868</v>
+        <v>1.224</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.2194</v>
+        <v>-0.07319</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.11666190466471907</v>
+        <v>0.09525229656024048</v>
       </c>
       <c r="R21" t="n">
-        <v>1.962</v>
+        <v>0.062</v>
       </c>
       <c r="S21" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="T21" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B22" t="n">
         <v>12.0</v>
       </c>
       <c r="C22" t="n">
-        <v>9.6268227E7</v>
+        <v>4.5088477E7</v>
       </c>
       <c r="D22" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07239</v>
+        <v>0.1394</v>
       </c>
       <c r="F22" t="n">
-        <v>0.017575551200460258</v>
+        <v>0.028215244106688145</v>
       </c>
       <c r="G22" t="n">
-        <v>3.206</v>
+        <v>3.325</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01651</v>
+        <v>-0.04179</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01189537725337032</v>
+        <v>0.01570350279396288</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.637</v>
+        <v>-1.229</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3971145930332956</v>
+        <v>0.2368543856465402</v>
       </c>
       <c r="L22" t="n">
-        <v>1.6429673703994467E-34</v>
+        <v>1.0998929495343961E-82</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1111</v>
+        <v>0.08379</v>
       </c>
       <c r="N22" t="n">
-        <v>0.056258332716140814</v>
+        <v>0.05097057974949863</v>
       </c>
       <c r="O22" t="n">
-        <v>2.125</v>
+        <v>2.027</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1596</v>
+        <v>0.0804</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.09394679345246436</v>
+        <v>0.08772684879784523</v>
       </c>
       <c r="R22" t="n">
-        <v>2.78</v>
+        <v>1.561</v>
       </c>
       <c r="S22" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="T22" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B23" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C23" t="n">
-        <v>9.6268227E7</v>
+        <v>1.1001312E8</v>
       </c>
       <c r="D23" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07239</v>
+        <v>-0.1194</v>
       </c>
       <c r="F23" t="n">
-        <v>0.017575551200460258</v>
+        <v>0.024831431694527804</v>
       </c>
       <c r="G23" t="n">
-        <v>3.206</v>
+        <v>3.313</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01651</v>
+        <v>0.002719</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01189537725337032</v>
+        <v>0.00674240313241503</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.637</v>
+        <v>-1.878</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3971145930332956</v>
+        <v>0.24095642759636024</v>
       </c>
       <c r="L23" t="n">
-        <v>1.6429673703994467E-34</v>
+        <v>3.0585059176033527E-103</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1111</v>
+        <v>-0.02019</v>
       </c>
       <c r="N23" t="n">
-        <v>0.056258332716140814</v>
+        <v>0.04260281680828158</v>
       </c>
       <c r="O23" t="n">
-        <v>2.125</v>
+        <v>2.868</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1596</v>
+        <v>-0.2194</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.09394679345246436</v>
+        <v>0.11666190466471907</v>
       </c>
       <c r="R23" t="n">
-        <v>2.78</v>
+        <v>1.962</v>
       </c>
       <c r="S23" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="T23" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B24" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.29694683E8</v>
+        <v>9.6268227E7</v>
       </c>
       <c r="D24" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.08605</v>
+        <v>0.07239</v>
       </c>
       <c r="F24" t="n">
-        <v>0.019924858845171277</v>
+        <v>0.017575551200460258</v>
       </c>
       <c r="G24" t="n">
-        <v>3.205</v>
+        <v>3.206</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02865</v>
+        <v>0.01651</v>
       </c>
       <c r="I24" t="n">
-        <v>0.009795407086997457</v>
+        <v>0.01189537725337032</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.564</v>
+        <v>-1.637</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1981665965797465</v>
+        <v>0.3971145930332956</v>
       </c>
       <c r="L24" t="n">
-        <v>2.86526648862361E-128</v>
+        <v>1.6429673703994467E-34</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.06193</v>
+        <v>0.1111</v>
       </c>
       <c r="N24" t="n">
-        <v>0.05117616632769594</v>
+        <v>0.056258332716140814</v>
       </c>
       <c r="O24" t="n">
-        <v>1.202</v>
+        <v>2.125</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.08151</v>
+        <v>0.1596</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.08870738413458036</v>
+        <v>0.09394679345246436</v>
       </c>
       <c r="R24" t="n">
-        <v>1.649</v>
+        <v>2.78</v>
       </c>
       <c r="S24" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="T24" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B25" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.5969138E7</v>
+        <v>9.6268227E7</v>
       </c>
       <c r="D25" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1141</v>
+        <v>0.07239</v>
       </c>
       <c r="F25" t="n">
-        <v>0.025479403446705733</v>
+        <v>0.017575551200460258</v>
       </c>
       <c r="G25" t="n">
-        <v>3.16</v>
+        <v>3.206</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.02513</v>
+        <v>0.01651</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01609347693943108</v>
+        <v>0.01189537725337032</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.209</v>
+        <v>-1.637</v>
       </c>
       <c r="K25" t="n">
-        <v>0.544426303552648</v>
+        <v>0.3971145930332956</v>
       </c>
       <c r="L25" t="n">
-        <v>5.077898998646446E-16</v>
+        <v>1.6429673703994467E-34</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06398</v>
+        <v>0.1111</v>
       </c>
       <c r="N25" t="n">
-        <v>0.04565084884205331</v>
+        <v>0.056258332716140814</v>
       </c>
       <c r="O25" t="n">
-        <v>2.532</v>
+        <v>2.125</v>
       </c>
       <c r="P25" t="n">
-        <v>0.2444</v>
+        <v>0.1596</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.09927235264664577</v>
+        <v>0.09394679345246436</v>
       </c>
       <c r="R25" t="n">
-        <v>3.216</v>
+        <v>2.78</v>
       </c>
       <c r="S25" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="T25" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.44503739E8</v>
+        <v>1.29694683E8</v>
       </c>
       <c r="D26" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.166</v>
+        <v>-0.08605</v>
       </c>
       <c r="F26" t="n">
-        <v>0.035763109484495334</v>
+        <v>0.019924858845171277</v>
       </c>
       <c r="G26" t="n">
-        <v>3.148</v>
+        <v>3.205</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.008854</v>
+        <v>0.02865</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0058309518948453</v>
+        <v>0.009795407086997457</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.766</v>
+        <v>-1.564</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2083026644092677</v>
+        <v>0.1981665965797465</v>
       </c>
       <c r="L26" t="n">
-        <v>2.4023945536293923E-123</v>
+        <v>2.86526648862361E-128</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.02339</v>
+        <v>-0.06193</v>
       </c>
       <c r="N26" t="n">
-        <v>0.03903844259188627</v>
+        <v>0.05117616632769594</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5529</v>
+        <v>1.202</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.1695</v>
+        <v>-0.08151</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.1046900186264192</v>
+        <v>0.08870738413458036</v>
       </c>
       <c r="R26" t="n">
-        <v>1.933</v>
+        <v>1.649</v>
       </c>
       <c r="S26" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="T26" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B27" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="C27" t="n">
-        <v>2.3299298E7</v>
+        <v>3.5969138E7</v>
       </c>
       <c r="D27" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1499</v>
+        <v>0.1141</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03290896534380867</v>
+        <v>0.025479403446705733</v>
       </c>
       <c r="G27" t="n">
-        <v>3.125</v>
+        <v>3.16</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.01219</v>
+        <v>-0.02513</v>
       </c>
       <c r="I27" t="n">
-        <v>0.015378556499229699</v>
+        <v>0.01609347693943108</v>
       </c>
       <c r="J27" t="n">
-        <v>-1.424</v>
+        <v>-1.209</v>
       </c>
       <c r="K27" t="n">
-        <v>0.72691127381545</v>
+        <v>0.544426303552648</v>
       </c>
       <c r="L27" t="n">
-        <v>1.9499139797888754E-10</v>
+        <v>5.077898998646446E-16</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04218</v>
+        <v>0.06398</v>
       </c>
       <c r="N27" t="n">
-        <v>0.043714985988788785</v>
+        <v>0.04565084884205331</v>
       </c>
       <c r="O27" t="n">
-        <v>2.117</v>
+        <v>2.532</v>
       </c>
       <c r="P27" t="n">
-        <v>0.2262</v>
+        <v>0.2444</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.10339245620450266</v>
+        <v>0.09927235264664577</v>
       </c>
       <c r="R27" t="n">
-        <v>2.697</v>
+        <v>3.216</v>
       </c>
       <c r="S27" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="T27" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.64544496E8</v>
+        <v>1.44503739E8</v>
       </c>
       <c r="D28" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07738</v>
+        <v>-0.166</v>
       </c>
       <c r="F28" t="n">
-        <v>0.019049934383089093</v>
+        <v>0.035763109484495334</v>
       </c>
       <c r="G28" t="n">
-        <v>3.111</v>
+        <v>3.148</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001695</v>
+        <v>-0.008854</v>
       </c>
       <c r="I28" t="n">
-        <v>0.010358571330062849</v>
+        <v>0.0058309518948453</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.876</v>
+        <v>-1.766</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3361547262794322</v>
+        <v>0.2083026644092677</v>
       </c>
       <c r="L28" t="n">
-        <v>4.322392975917821E-50</v>
+        <v>2.4023945536293923E-123</v>
       </c>
       <c r="M28" t="n">
-        <v>0.153</v>
+        <v>-0.02339</v>
       </c>
       <c r="N28" t="n">
-        <v>0.05330103188494572</v>
+        <v>0.03903844259188627</v>
       </c>
       <c r="O28" t="n">
-        <v>3.123</v>
+        <v>0.5529</v>
       </c>
       <c r="P28" t="n">
-        <v>0.1006</v>
+        <v>-0.1695</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.09518403227432636</v>
+        <v>0.1046900186264192</v>
       </c>
       <c r="R28" t="n">
-        <v>1.224</v>
+        <v>1.933</v>
       </c>
       <c r="S28" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="T28" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B29" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.3913162E8</v>
+        <v>2.3299298E7</v>
       </c>
       <c r="D29" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.1731</v>
+        <v>0.1499</v>
       </c>
       <c r="F29" t="n">
-        <v>0.037841775856849</v>
+        <v>0.03290896534380867</v>
       </c>
       <c r="G29" t="n">
-        <v>3.111</v>
+        <v>3.125</v>
       </c>
       <c r="H29" t="n">
-        <v>0.00134</v>
+        <v>-0.01219</v>
       </c>
       <c r="I29" t="n">
-        <v>0.007744029958619736</v>
+        <v>0.015378556499229699</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.748</v>
+        <v>-1.424</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6244197306299666</v>
+        <v>0.72691127381545</v>
       </c>
       <c r="L29" t="n">
-        <v>3.579950294376328E-15</v>
+        <v>1.9499139797888754E-10</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.005725</v>
+        <v>0.04218</v>
       </c>
       <c r="N29" t="n">
-        <v>0.04132795663954365</v>
+        <v>0.043714985988788785</v>
       </c>
       <c r="O29" t="n">
-        <v>2.136</v>
+        <v>2.117</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.211</v>
+        <v>0.2262</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.11545561917897283</v>
+        <v>0.10339245620450266</v>
       </c>
       <c r="R29" t="n">
-        <v>1.916</v>
+        <v>2.697</v>
       </c>
       <c r="S29" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="T29" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B30" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="C30" t="n">
-        <v>8.3876612E7</v>
+        <v>1.64544496E8</v>
       </c>
       <c r="D30" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04521</v>
+        <v>0.07738</v>
       </c>
       <c r="F30" t="n">
-        <v>0.013769531582446804</v>
+        <v>0.019049934383089093</v>
       </c>
       <c r="G30" t="n">
-        <v>3.085</v>
+        <v>3.111</v>
       </c>
       <c r="H30" t="n">
-        <v>8.194E-4</v>
+        <v>0.001695</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0033406586176980132</v>
+        <v>0.010358571330062849</v>
       </c>
       <c r="J30" t="n">
-        <v>-1.984</v>
+        <v>-1.876</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1061602562167217</v>
+        <v>0.3361547262794322</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0</v>
+        <v>4.322392975917821E-50</v>
       </c>
       <c r="M30" t="n">
-        <v>0.09267</v>
+        <v>0.153</v>
       </c>
       <c r="N30" t="n">
-        <v>0.05854912467321779</v>
+        <v>0.05330103188494572</v>
       </c>
       <c r="O30" t="n">
-        <v>1.523</v>
+        <v>3.123</v>
       </c>
       <c r="P30" t="n">
-        <v>0.1825</v>
+        <v>0.1006</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.08902246907382427</v>
+        <v>0.09518403227432636</v>
       </c>
       <c r="R30" t="n">
-        <v>4.252</v>
+        <v>1.224</v>
       </c>
       <c r="S30" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="T30" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B31" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.196631E7</v>
+        <v>1.3913162E8</v>
       </c>
       <c r="D31" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.008565</v>
+        <v>-0.1731</v>
       </c>
       <c r="F31" t="n">
-        <v>0.009970456358662828</v>
+        <v>0.037841775856849</v>
       </c>
       <c r="G31" t="n">
-        <v>3.067</v>
+        <v>3.111</v>
       </c>
       <c r="H31" t="n">
-        <v>0.005266</v>
+        <v>0.00134</v>
       </c>
       <c r="I31" t="n">
-        <v>0.011832159566199232</v>
+        <v>0.007744029958619736</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.759</v>
+        <v>-1.748</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5902541825349482</v>
+        <v>0.6244197306299666</v>
       </c>
       <c r="L31" t="n">
-        <v>1.4654243415546782E-16</v>
+        <v>3.579950294376328E-15</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.05966</v>
+        <v>-0.005725</v>
       </c>
       <c r="N31" t="n">
-        <v>0.04753945729601885</v>
+        <v>0.04132795663954365</v>
       </c>
       <c r="O31" t="n">
-        <v>1.687</v>
+        <v>2.136</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.243</v>
+        <v>-0.211</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.09789279850938985</v>
+        <v>0.11545561917897283</v>
       </c>
       <c r="R31" t="n">
-        <v>3.365</v>
+        <v>1.916</v>
       </c>
       <c r="S31" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="T31" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B32" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="C32" t="n">
-        <v>7811409.0</v>
+        <v>8.3876612E7</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.1156</v>
+        <v>0.04521</v>
       </c>
       <c r="F32" t="n">
-        <v>0.026979621939530584</v>
+        <v>0.013769531582446804</v>
       </c>
       <c r="G32" t="n">
-        <v>3.052</v>
+        <v>3.085</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06299</v>
+        <v>8.194E-4</v>
       </c>
       <c r="I32" t="n">
-        <v>0.035972211497209895</v>
+        <v>0.0033406586176980132</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.8718</v>
+        <v>-1.984</v>
       </c>
       <c r="K32" t="n">
-        <v>0.7281483365359012</v>
+        <v>0.1061602562167217</v>
       </c>
       <c r="L32" t="n">
-        <v>3.5477242884276203E-8</v>
+        <v>0.0</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.05209</v>
+        <v>0.09267</v>
       </c>
       <c r="N32" t="n">
-        <v>0.04778074926160116</v>
+        <v>0.05854912467321779</v>
       </c>
       <c r="O32" t="n">
-        <v>1.197</v>
+        <v>1.523</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.2403</v>
+        <v>0.1825</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.09197825830053535</v>
+        <v>0.08902246907382427</v>
       </c>
       <c r="R32" t="n">
-        <v>4.276</v>
+        <v>4.252</v>
       </c>
       <c r="S32" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="T32" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B33" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="C33" t="n">
-        <v>9.5546539E7</v>
+        <v>2.196631E7</v>
       </c>
       <c r="D33" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.06901</v>
+        <v>-0.008565</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01830027322200409</v>
+        <v>0.009970456358662828</v>
       </c>
       <c r="G33" t="n">
-        <v>2.991</v>
+        <v>3.067</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02073</v>
+        <v>0.005266</v>
       </c>
       <c r="I33" t="n">
-        <v>0.017618172436436194</v>
+        <v>0.011832159566199232</v>
       </c>
       <c r="J33" t="n">
-        <v>-1.374</v>
+        <v>-1.759</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6754998149518622</v>
+        <v>0.5902541825349482</v>
       </c>
       <c r="L33" t="n">
-        <v>5.1704410649818374E-11</v>
+        <v>1.4654243415546782E-16</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.1045</v>
+        <v>-0.05966</v>
       </c>
       <c r="N33" t="n">
-        <v>0.057113921245174545</v>
+        <v>0.04753945729601885</v>
       </c>
       <c r="O33" t="n">
-        <v>1.917</v>
+        <v>1.687</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.06916</v>
+        <v>-0.243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0934826187052973</v>
+        <v>0.09789279850938985</v>
       </c>
       <c r="R33" t="n">
-        <v>0.01701</v>
+        <v>3.365</v>
       </c>
       <c r="S33" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="T33" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B34" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="C34" t="n">
-        <v>5.8515388E7</v>
+        <v>7811409.0</v>
       </c>
       <c r="D34" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E34" t="n">
-        <v>0.103</v>
+        <v>-0.1156</v>
       </c>
       <c r="F34" t="n">
-        <v>0.025211108662651076</v>
+        <v>0.026979621939530584</v>
       </c>
       <c r="G34" t="n">
-        <v>2.978</v>
+        <v>3.052</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.01051</v>
+        <v>0.06299</v>
       </c>
       <c r="I34" t="n">
-        <v>0.005891519328662174</v>
+        <v>0.035972211497209895</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.847</v>
+        <v>-0.8718</v>
       </c>
       <c r="K34" t="n">
-        <v>0.09993998198919189</v>
+        <v>0.7281483365359012</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0</v>
+        <v>3.5477242884276203E-8</v>
       </c>
       <c r="M34" t="n">
-        <v>0.05437</v>
+        <v>-0.05209</v>
       </c>
       <c r="N34" t="n">
-        <v>0.04773887304912004</v>
+        <v>0.04778074926160116</v>
       </c>
       <c r="O34" t="n">
-        <v>1.329</v>
+        <v>1.197</v>
       </c>
       <c r="P34" t="n">
-        <v>0.1932</v>
+        <v>-0.2403</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.09857484466130291</v>
+        <v>0.09197825830053535</v>
       </c>
       <c r="R34" t="n">
-        <v>2.663</v>
+        <v>4.276</v>
       </c>
       <c r="S34" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="T34" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B35" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.28830453E8</v>
+        <v>9.5546539E7</v>
       </c>
       <c r="D35" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1407</v>
+        <v>-0.06901</v>
       </c>
       <c r="F35" t="n">
-        <v>0.033436506994600976</v>
+        <v>0.01830027322200409</v>
       </c>
       <c r="G35" t="n">
-        <v>2.964</v>
+        <v>2.991</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03463</v>
+        <v>0.02073</v>
       </c>
       <c r="I35" t="n">
-        <v>0.014163332941084171</v>
+        <v>0.017618172436436194</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.488</v>
+        <v>-1.374</v>
       </c>
       <c r="K35" t="n">
-        <v>0.22954302428956538</v>
+        <v>0.6754998149518622</v>
       </c>
       <c r="L35" t="n">
-        <v>4.247945565932094E-84</v>
+        <v>5.1704410649818374E-11</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.05064</v>
+        <v>-0.1045</v>
       </c>
       <c r="N35" t="n">
-        <v>0.04436214602563767</v>
+        <v>0.057113921245174545</v>
       </c>
       <c r="O35" t="n">
-        <v>2.424</v>
+        <v>1.917</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.08236</v>
+        <v>-0.06916</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0952732911156112</v>
+        <v>0.0934826187052973</v>
       </c>
       <c r="R35" t="n">
-        <v>0.4306</v>
+        <v>0.01701</v>
       </c>
       <c r="S35" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="T35" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B36" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.8515388E7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>287</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.025211108662651076</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.978</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.01051</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.005891519328662174</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-1.847</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.09993998198919189</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.05437</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.04773887304912004</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.329</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.09857484466130291</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.663</v>
+      </c>
+      <c r="S36" t="s">
+        <v>321</v>
+      </c>
+      <c r="T36" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.28830453E8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>287</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.1407</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.033436506994600976</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.964</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.03463</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.014163332941084171</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1.488</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.22954302428956538</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.247945565932094E-84</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.05064</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.04436214602563767</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.424</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-0.08236</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.0952732911156112</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.4306</v>
+      </c>
+      <c r="S37" t="s">
+        <v>322</v>
+      </c>
+      <c r="T37" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38" t="n">
         <v>6.0</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C38" t="n">
         <v>3.0852823E7</v>
       </c>
-      <c r="D36" t="s">
-        <v>276</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D38" t="s">
+        <v>287</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.115</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F38" t="n">
         <v>0.028122944369322354</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G38" t="n">
         <v>2.945</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H38" t="n">
         <v>-0.01358</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I38" t="n">
         <v>0.009176600677810929</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J38" t="n">
         <v>-1.732</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K38" t="n">
         <v>0.17461385970191484</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L38" t="n">
         <v>2.428111325942304E-158</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M38" t="n">
         <v>0.08541</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N38" t="n">
         <v>0.04498888751680797</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O38" t="n">
         <v>3.719</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P38" t="n">
         <v>0.08226</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q38" t="n">
         <v>0.08746427842267951</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R38" t="n">
         <v>2.25</v>
       </c>
-      <c r="S36" t="s">
-        <v>310</v>
-      </c>
-      <c r="T36" t="s">
-        <v>344</v>
+      <c r="S38" t="s">
+        <v>323</v>
+      </c>
+      <c r="T38" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/table_replication.xlsx
+++ b/table_replication.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="318">
   <si>
     <t>cg</t>
   </si>
@@ -121,9 +121,6 @@
     <t>cg20914659</t>
   </si>
   <si>
-    <t>cg22136383</t>
-  </si>
-  <si>
     <t>cg07935902</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>cg04635642</t>
   </si>
   <si>
-    <t>cg02269797</t>
-  </si>
-  <si>
     <t>cg07262247</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>cg00447052</t>
   </si>
   <si>
-    <t>cg24480695</t>
-  </si>
-  <si>
     <t>cg03942471</t>
   </si>
   <si>
@@ -274,9 +265,6 @@
     <t>ENSG00000164626</t>
   </si>
   <si>
-    <t>ENSG00000185823</t>
-  </si>
-  <si>
     <t>ENSG00000109667</t>
   </si>
   <si>
@@ -298,9 +286,6 @@
     <t>ENSG00000175604</t>
   </si>
   <si>
-    <t>ENSG00000170242</t>
-  </si>
-  <si>
     <t>ENSG00000072682</t>
   </si>
   <si>
@@ -328,9 +313,6 @@
     <t>ENSG00000170616</t>
   </si>
   <si>
-    <t>ENSG00000179057</t>
-  </si>
-  <si>
     <t>ENSG00000167037</t>
   </si>
   <si>
@@ -427,9 +409,6 @@
     <t>KCNK5</t>
   </si>
   <si>
-    <t>NPAP1</t>
-  </si>
-  <si>
     <t>SLC2A9</t>
   </si>
   <si>
@@ -451,9 +430,6 @@
     <t>RP11-276H1.3</t>
   </si>
   <si>
-    <t>USP47</t>
-  </si>
-  <si>
     <t>P4HA2</t>
   </si>
   <si>
@@ -481,9 +457,6 @@
     <t>SCRT1</t>
   </si>
   <si>
-    <t>IGSF22</t>
-  </si>
-  <si>
     <t>SGSM1</t>
   </si>
   <si>
@@ -550,12 +523,6 @@
     <t>cg15080939</t>
   </si>
   <si>
-    <t>cg14814062</t>
-  </si>
-  <si>
-    <t>cg08544331</t>
-  </si>
-  <si>
     <t>cg10727812</t>
   </si>
   <si>
@@ -583,12 +550,6 @@
     <t>cg08781728</t>
   </si>
   <si>
-    <t>cg06168149</t>
-  </si>
-  <si>
-    <t>cg01132696</t>
-  </si>
-  <si>
     <t>cg18261909</t>
   </si>
   <si>
@@ -607,9 +568,6 @@
     <t>cg16988611</t>
   </si>
   <si>
-    <t>cg17390817</t>
-  </si>
-  <si>
     <t>cg08202399</t>
   </si>
   <si>
@@ -637,12 +595,6 @@
     <t>ENSG00000213780</t>
   </si>
   <si>
-    <t>ENSG00000167614</t>
-  </si>
-  <si>
-    <t>ENSG00000020633</t>
-  </si>
-  <si>
     <t>ENSG00000168530</t>
   </si>
   <si>
@@ -667,9 +619,6 @@
     <t>ENSG00000158806</t>
   </si>
   <si>
-    <t>ENSG00000223865</t>
-  </si>
-  <si>
     <t>ENSG00000182704</t>
   </si>
   <si>
@@ -685,9 +634,6 @@
     <t>ENSG00000108219</t>
   </si>
   <si>
-    <t>ENSG00000164880</t>
-  </si>
-  <si>
     <t>ENSG00000186260</t>
   </si>
   <si>
@@ -712,12 +658,6 @@
     <t>GTF2H4</t>
   </si>
   <si>
-    <t>TTYH1</t>
-  </si>
-  <si>
-    <t>RUNX3</t>
-  </si>
-  <si>
     <t>MYL1</t>
   </si>
   <si>
@@ -742,9 +682,6 @@
     <t>NPM2</t>
   </si>
   <si>
-    <t>HLA-DPB1</t>
-  </si>
-  <si>
     <t>TSKU</t>
   </si>
   <si>
@@ -760,9 +697,6 @@
     <t>TSPAN14</t>
   </si>
   <si>
-    <t>INTS1</t>
-  </si>
-  <si>
     <t>MKL2</t>
   </si>
   <si>
@@ -781,9 +715,6 @@
     <t>cg15698244</t>
   </si>
   <si>
-    <t>cg13775495</t>
-  </si>
-  <si>
     <t>cg20143758</t>
   </si>
   <si>
@@ -808,9 +739,6 @@
     <t>cg05046717</t>
   </si>
   <si>
-    <t>cg09383172</t>
-  </si>
-  <si>
     <t>cg18423210</t>
   </si>
   <si>
@@ -835,9 +763,6 @@
     <t>cg16275483</t>
   </si>
   <si>
-    <t>cg21703750</t>
-  </si>
-  <si>
     <t>cg21217577</t>
   </si>
   <si>
@@ -859,15 +784,6 @@
     <t>cg15642758</t>
   </si>
   <si>
-    <t>cg07499899</t>
-  </si>
-  <si>
-    <t>cg20010635</t>
-  </si>
-  <si>
-    <t>cg18450582</t>
-  </si>
-  <si>
     <t>cg02884024</t>
   </si>
   <si>
@@ -892,9 +808,6 @@
     <t>ENSG00000118407</t>
   </si>
   <si>
-    <t>ENSG00000168811</t>
-  </si>
-  <si>
     <t>ENSG00000112486</t>
   </si>
   <si>
@@ -916,9 +829,6 @@
     <t>ENSG00000144909</t>
   </si>
   <si>
-    <t>ENSG00000155093</t>
-  </si>
-  <si>
     <t>ENSG00000130477</t>
   </si>
   <si>
@@ -943,12 +853,6 @@
     <t>ENSG00000143028</t>
   </si>
   <si>
-    <t>ENSG00000139343</t>
-  </si>
-  <si>
-    <t>ENSG00000165972</t>
-  </si>
-  <si>
     <t>ENSG00000170893</t>
   </si>
   <si>
@@ -970,15 +874,6 @@
     <t>ENSG00000166503</t>
   </si>
   <si>
-    <t>ENSG00000076864</t>
-  </si>
-  <si>
-    <t>ENSG00000171735</t>
-  </si>
-  <si>
-    <t>ENSG00000158560</t>
-  </si>
-  <si>
     <t>ENSG00000196227</t>
   </si>
   <si>
@@ -1000,9 +895,6 @@
     <t>FILIP1</t>
   </si>
   <si>
-    <t>IL12A</t>
-  </si>
-  <si>
     <t>CCR6</t>
   </si>
   <si>
@@ -1024,9 +916,6 @@
     <t>OSBPL11</t>
   </si>
   <si>
-    <t>PTPRN2</t>
-  </si>
-  <si>
     <t>UNC13A</t>
   </si>
   <si>
@@ -1051,12 +940,6 @@
     <t>SYPL2</t>
   </si>
   <si>
-    <t>SNRPF</t>
-  </si>
-  <si>
-    <t>CCDC38</t>
-  </si>
-  <si>
     <t>TRH</t>
   </si>
   <si>
@@ -1076,15 +959,6 @@
   </si>
   <si>
     <t>HDGFRP3</t>
-  </si>
-  <si>
-    <t>RAP1GAP</t>
-  </si>
-  <si>
-    <t>CAMTA1</t>
-  </si>
-  <si>
-    <t>DYNC1I1</t>
   </si>
   <si>
     <t>FAM217B</t>
@@ -1217,7 +1091,7 @@
         <v>3.5689475E7</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
         <v>0.06617</v>
@@ -1241,7 +1115,7 @@
         <v>0.7014271166700072</v>
       </c>
       <c r="L2" t="n">
-        <v>3.426298928237112E-20</v>
+        <v>6.685894082664055E-11</v>
       </c>
       <c r="M2" t="n">
         <v>0.154</v>
@@ -1262,10 +1136,10 @@
         <v>1.987</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
@@ -1279,7 +1153,7 @@
         <v>3.6982447E7</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3" t="n">
         <v>0.1637</v>
@@ -1324,10 +1198,10 @@
         <v>4.034</v>
       </c>
       <c r="S3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
@@ -1341,7 +1215,7 @@
         <v>5207312.0</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E4" t="n">
         <v>0.03497</v>
@@ -1365,7 +1239,7 @@
         <v>0.1559166443969341</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>4.842860262074915E-14</v>
       </c>
       <c r="M4" t="n">
         <v>0.1562</v>
@@ -1386,10 +1260,10 @@
         <v>1.509</v>
       </c>
       <c r="S4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
@@ -1403,7 +1277,7 @@
         <v>4.5297445E7</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
         <v>0.108</v>
@@ -1427,7 +1301,7 @@
         <v>0.5045790324617145</v>
       </c>
       <c r="L5" t="n">
-        <v>1.062673129439519E-28</v>
+        <v>8.040231179769711E-25</v>
       </c>
       <c r="M5" t="n">
         <v>0.1338</v>
@@ -1448,10 +1322,10 @@
         <v>3.226</v>
       </c>
       <c r="S5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6">
@@ -1465,7 +1339,7 @@
         <v>1.97402549E8</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
         <v>0.1422</v>
@@ -1489,7 +1363,7 @@
         <v>0.1445683229480096</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0</v>
+        <v>8.85196964363727E-190</v>
       </c>
       <c r="M6" t="n">
         <v>0.1327</v>
@@ -1510,10 +1384,10 @@
         <v>2.094</v>
       </c>
       <c r="S6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -1527,7 +1401,7 @@
         <v>2.9692082E7</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
         <v>0.1749</v>
@@ -1572,10 +1446,10 @@
         <v>1.7</v>
       </c>
       <c r="S7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
@@ -1589,7 +1463,7 @@
         <v>5.5141971E7</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
         <v>0.1087</v>
@@ -1634,10 +1508,10 @@
         <v>2.907</v>
       </c>
       <c r="S8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
@@ -1651,7 +1525,7 @@
         <v>5.6148763E7</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
         <v>0.1393</v>
@@ -1675,7 +1549,7 @@
         <v>0.11721774609674084</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0</v>
+        <v>1.1600377421093058E-62</v>
       </c>
       <c r="M9" t="n">
         <v>0.1041</v>
@@ -1696,10 +1570,10 @@
         <v>0.4829</v>
       </c>
       <c r="S9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
@@ -1713,7 +1587,7 @@
         <v>2432720.0</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
         <v>0.1627</v>
@@ -1758,10 +1632,10 @@
         <v>3.567</v>
       </c>
       <c r="S10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -1775,7 +1649,7 @@
         <v>3.8073472E7</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
         <v>0.1672</v>
@@ -1799,7 +1673,7 @@
         <v>0.26201145013147803</v>
       </c>
       <c r="L11" t="n">
-        <v>1.6142930229886355E-100</v>
+        <v>2.5958546258479245E-87</v>
       </c>
       <c r="M11" t="n">
         <v>0.1239</v>
@@ -1820,10 +1694,10 @@
         <v>0.5703</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -1837,7 +1711,7 @@
         <v>1.7167148E8</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
         <v>0.138</v>
@@ -1882,10 +1756,10 @@
         <v>3.339</v>
       </c>
       <c r="S12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -1899,7 +1773,7 @@
         <v>1.26339578E8</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
         <v>0.1544</v>
@@ -1944,10 +1818,10 @@
         <v>2.821</v>
       </c>
       <c r="S13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
@@ -1961,7 +1835,7 @@
         <v>3.8146969E7</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
         <v>0.06666</v>
@@ -1985,7 +1859,7 @@
         <v>0.5323532661682466</v>
       </c>
       <c r="L14" t="n">
-        <v>2.006230890505179E-25</v>
+        <v>1.7762804726071245E-16</v>
       </c>
       <c r="M14" t="n">
         <v>0.1477</v>
@@ -2006,10 +1880,10 @@
         <v>2.22</v>
       </c>
       <c r="S14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -2023,7 +1897,7 @@
         <v>1.03346811E8</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v>0.1126</v>
@@ -2047,7 +1921,7 @@
         <v>0.49101934788763674</v>
       </c>
       <c r="L15" t="n">
-        <v>1.7294149650012644E-25</v>
+        <v>8.87219982414663E-12</v>
       </c>
       <c r="M15" t="n">
         <v>0.1326</v>
@@ -2068,10 +1942,10 @@
         <v>2.005</v>
       </c>
       <c r="S15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -2085,7 +1959,7 @@
         <v>3.9171734E7</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>0.07928</v>
@@ -2109,7 +1983,7 @@
         <v>0.29320641193534636</v>
       </c>
       <c r="L16" t="n">
-        <v>3.862068230134338E-78</v>
+        <v>5.069934810304751E-47</v>
       </c>
       <c r="M16" t="n">
         <v>0.06363</v>
@@ -2130,10 +2004,10 @@
         <v>4.01</v>
       </c>
       <c r="S16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="T16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
@@ -2141,61 +2015,61 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.4920631E7</v>
+        <v>1.0024364E7</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1196</v>
+        <v>0.1638</v>
       </c>
       <c r="F17" t="n">
-        <v>0.022483327155917113</v>
+        <v>0.02954149623834243</v>
       </c>
       <c r="G17" t="n">
-        <v>3.558</v>
+        <v>3.544</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.02437</v>
+        <v>3.729E-4</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02836194633659686</v>
+        <v>0.005809475019311125</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.9878</v>
+        <v>-1.926</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8116033513977132</v>
+        <v>0.2959053902854762</v>
       </c>
       <c r="L17" t="n">
-        <v>1.0655207471995281E-8</v>
+        <v>1.347456106006236E-76</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06494</v>
+        <v>0.09816</v>
       </c>
       <c r="N17" t="n">
-        <v>0.046162755550335166</v>
+        <v>0.04789572005931219</v>
       </c>
       <c r="O17" t="n">
-        <v>2.347</v>
+        <v>2.982</v>
       </c>
       <c r="P17" t="n">
-        <v>0.09023</v>
+        <v>0.1178</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.09485251709891519</v>
+        <v>0.0892468486838611</v>
       </c>
       <c r="R17" t="n">
-        <v>0.8271</v>
+        <v>3.386</v>
       </c>
       <c r="S17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="T17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
@@ -2203,61 +2077,61 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0024364E7</v>
+        <v>7.3103395E7</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1638</v>
+        <v>-0.1381</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02954149623834243</v>
+        <v>0.0254911749434976</v>
       </c>
       <c r="G18" t="n">
-        <v>3.544</v>
+        <v>3.541</v>
       </c>
       <c r="H18" t="n">
-        <v>3.729E-4</v>
+        <v>0.01827</v>
       </c>
       <c r="I18" t="n">
-        <v>0.005809475019311125</v>
+        <v>0.01846347746227671</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.926</v>
+        <v>-1.267</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2959053902854762</v>
+        <v>0.6252199612936234</v>
       </c>
       <c r="L18" t="n">
-        <v>1.347456106006236E-76</v>
+        <v>7.351373376203855E-15</v>
       </c>
       <c r="M18" t="n">
-        <v>0.09816</v>
+        <v>-0.1266</v>
       </c>
       <c r="N18" t="n">
-        <v>0.04789572005931219</v>
+        <v>0.05015974481593781</v>
       </c>
       <c r="O18" t="n">
-        <v>2.982</v>
+        <v>3.104</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1178</v>
+        <v>-0.05405</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0892468486838611</v>
+        <v>0.08215838362577492</v>
       </c>
       <c r="R18" t="n">
-        <v>3.386</v>
+        <v>0.02322</v>
       </c>
       <c r="S18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
@@ -2265,61 +2139,61 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="C19" t="n">
-        <v>7.3103395E7</v>
+        <v>1.19528656E8</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1381</v>
+        <v>0.1092</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0254911749434976</v>
+        <v>0.02140794245134268</v>
       </c>
       <c r="G19" t="n">
-        <v>3.541</v>
+        <v>3.499</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01827</v>
+        <v>-0.002753</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01846347746227671</v>
+        <v>0.006557438524302001</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.267</v>
+        <v>-1.865</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6252199612936234</v>
+        <v>0.2314087293081227</v>
       </c>
       <c r="L19" t="n">
-        <v>7.351373376203855E-15</v>
+        <v>2.3709400907640973E-65</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.1266</v>
+        <v>0.2072</v>
       </c>
       <c r="N19" t="n">
-        <v>0.05015974481593781</v>
+        <v>0.06514598989960933</v>
       </c>
       <c r="O19" t="n">
-        <v>3.104</v>
+        <v>2.867</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.05405</v>
+        <v>0.098</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.08215838362577492</v>
+        <v>0.09992497185388646</v>
       </c>
       <c r="R19" t="n">
-        <v>0.02322</v>
+        <v>0.7442</v>
       </c>
       <c r="S19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20">
@@ -2327,61 +2201,61 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>3.0</v>
+        <v>20.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.19528656E8</v>
+        <v>1187652.0</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1092</v>
+        <v>0.1511</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02140794245134268</v>
+        <v>0.028085583490467133</v>
       </c>
       <c r="G20" t="n">
-        <v>3.499</v>
+        <v>3.498</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.002753</v>
+        <v>-0.007987</v>
       </c>
       <c r="I20" t="n">
-        <v>0.006557438524302001</v>
+        <v>0.006153860576906175</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.865</v>
+        <v>-1.883</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2314087293081227</v>
+        <v>0.1432131278898691</v>
       </c>
       <c r="L20" t="n">
-        <v>3.6429687975691996E-119</v>
+        <v>2.33576759024371E-147</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2072</v>
+        <v>0.1694</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06514598989960933</v>
+        <v>0.052230259428802384</v>
       </c>
       <c r="O20" t="n">
-        <v>2.867</v>
+        <v>3.466</v>
       </c>
       <c r="P20" t="n">
-        <v>0.098</v>
+        <v>0.2233</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.09992497185388646</v>
+        <v>0.09565563234854496</v>
       </c>
       <c r="R20" t="n">
-        <v>0.7442</v>
+        <v>3.38</v>
       </c>
       <c r="S20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="T20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21">
@@ -2389,61 +2263,61 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1187652.0</v>
+        <v>4.384224E7</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1511</v>
+        <v>-0.1415</v>
       </c>
       <c r="F21" t="n">
-        <v>0.028085583490467133</v>
+        <v>0.02661766330841233</v>
       </c>
       <c r="G21" t="n">
-        <v>3.498</v>
+        <v>3.49</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.007987</v>
+        <v>0.001745</v>
       </c>
       <c r="I21" t="n">
-        <v>0.006153860576906175</v>
+        <v>0.00301778064146485</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.883</v>
+        <v>-2.166</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1432131278898691</v>
+        <v>0.1672423391369542</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0</v>
+        <v>5.1515754898764646E-251</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1694</v>
+        <v>-0.07936</v>
       </c>
       <c r="N21" t="n">
-        <v>0.052230259428802384</v>
+        <v>0.049061186288144314</v>
       </c>
       <c r="O21" t="n">
-        <v>3.466</v>
+        <v>2.188</v>
       </c>
       <c r="P21" t="n">
-        <v>0.2233</v>
+        <v>-0.08156</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.09565563234854496</v>
+        <v>0.08848728722251575</v>
       </c>
       <c r="R21" t="n">
-        <v>3.38</v>
+        <v>1.432</v>
       </c>
       <c r="S21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T21" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22">
@@ -2451,66 +2325,66 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.384224E7</v>
+        <v>1.2183938E7</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.1415</v>
+        <v>0.1491</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02661766330841233</v>
+        <v>0.028071337695236398</v>
       </c>
       <c r="G22" t="n">
-        <v>3.49</v>
+        <v>3.472</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001745</v>
+        <v>2.959E-4</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00301778064146485</v>
+        <v>0.004492215489043241</v>
       </c>
       <c r="J22" t="n">
-        <v>-2.166</v>
+        <v>-1.977</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1672423391369542</v>
+        <v>0.06691786009728644</v>
       </c>
       <c r="L22" t="n">
-        <v>5.1515754898764646E-251</v>
+        <v>1.3028995253751472E-240</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.07936</v>
+        <v>0.05722</v>
       </c>
       <c r="N22" t="n">
-        <v>0.049061186288144314</v>
+        <v>0.05136146415358503</v>
       </c>
       <c r="O22" t="n">
-        <v>2.188</v>
+        <v>0.9442</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.08156</v>
+        <v>0.2457</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.08848728722251575</v>
+        <v>0.1072846680565308</v>
       </c>
       <c r="R22" t="n">
-        <v>1.432</v>
+        <v>2.69</v>
       </c>
       <c r="S22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="T22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="n">
         <v>16.0</v>
@@ -2519,7 +2393,7 @@
         <v>1.2183938E7</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E23" t="n">
         <v>0.1491</v>
@@ -2543,7 +2417,7 @@
         <v>0.06691786009728644</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0</v>
+        <v>1.3028995253751472E-240</v>
       </c>
       <c r="M23" t="n">
         <v>0.05722</v>
@@ -2564,10 +2438,10 @@
         <v>2.69</v>
       </c>
       <c r="S23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T23" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24">
@@ -2575,185 +2449,185 @@
         <v>41</v>
       </c>
       <c r="B24" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.2183938E7</v>
+        <v>1.3159373E8</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1491</v>
+        <v>0.08884</v>
       </c>
       <c r="F24" t="n">
-        <v>0.028071337695236398</v>
+        <v>0.018865312083291917</v>
       </c>
       <c r="G24" t="n">
-        <v>3.472</v>
+        <v>3.418</v>
       </c>
       <c r="H24" t="n">
-        <v>2.959E-4</v>
+        <v>-0.03046</v>
       </c>
       <c r="I24" t="n">
-        <v>0.004492215489043241</v>
+        <v>0.019616319736382764</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.977</v>
+        <v>-1.377</v>
       </c>
       <c r="K24" t="n">
-        <v>0.06691786009728644</v>
+        <v>0.4449719092257398</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0</v>
+        <v>1.1893653494877349E-9</v>
       </c>
       <c r="M24" t="n">
-        <v>0.05722</v>
+        <v>0.06078</v>
       </c>
       <c r="N24" t="n">
-        <v>0.05136146415358503</v>
+        <v>0.04650806381693394</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9442</v>
+        <v>2.001</v>
       </c>
       <c r="P24" t="n">
-        <v>0.2457</v>
+        <v>0.3113</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1072846680565308</v>
+        <v>0.09622369770487933</v>
       </c>
       <c r="R24" t="n">
-        <v>2.69</v>
+        <v>4.078</v>
       </c>
       <c r="S24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.1959303E7</v>
+        <v>1.3159373E8</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.09594</v>
+        <v>0.08884</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01972561786104557</v>
+        <v>0.018865312083291917</v>
       </c>
       <c r="G25" t="n">
-        <v>3.452</v>
+        <v>3.418</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.03028</v>
+        <v>-0.03046</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02428991560298224</v>
+        <v>0.019616319736382764</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.179</v>
+        <v>-1.377</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8413679337840253</v>
+        <v>0.4449719092257398</v>
       </c>
       <c r="L25" t="n">
-        <v>1.854959678113864E-8</v>
+        <v>1.1893653494877349E-9</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.1569</v>
+        <v>0.06078</v>
       </c>
       <c r="N25" t="n">
-        <v>0.05381449618829484</v>
+        <v>0.04650806381693394</v>
       </c>
       <c r="O25" t="n">
-        <v>3.131</v>
+        <v>2.001</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.1642</v>
+        <v>0.3113</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.102810505299799</v>
+        <v>0.09622369770487933</v>
       </c>
       <c r="R25" t="n">
-        <v>1.963</v>
+        <v>4.078</v>
       </c>
       <c r="S25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="T25" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.3159373E8</v>
+        <v>1.55661849E8</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08884</v>
+        <v>0.2221</v>
       </c>
       <c r="F26" t="n">
-        <v>0.018865312083291917</v>
+        <v>0.04172529209005013</v>
       </c>
       <c r="G26" t="n">
-        <v>3.418</v>
+        <v>3.401</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.03046</v>
+        <v>-0.2567</v>
       </c>
       <c r="I26" t="n">
-        <v>0.019616319736382764</v>
+        <v>0.03093056740507681</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.377</v>
+        <v>3.113</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4449719092257398</v>
+        <v>0.5724508712544685</v>
       </c>
       <c r="L26" t="n">
-        <v>2.2354403820550244E-27</v>
+        <v>0.307447003824568</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06078</v>
+        <v>0.1198</v>
       </c>
       <c r="N26" t="n">
-        <v>0.04650806381693394</v>
+        <v>0.048166378315169185</v>
       </c>
       <c r="O26" t="n">
-        <v>2.001</v>
+        <v>3.384</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3113</v>
+        <v>0.1857</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.09622369770487933</v>
+        <v>0.09691233151668574</v>
       </c>
       <c r="R26" t="n">
-        <v>4.078</v>
+        <v>2.846</v>
       </c>
       <c r="S26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27">
@@ -2761,61 +2635,61 @@
         <v>43</v>
       </c>
       <c r="B27" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.3159373E8</v>
+        <v>1.28566958E8</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E27" t="n">
-        <v>0.08884</v>
+        <v>0.09082</v>
       </c>
       <c r="F27" t="n">
-        <v>0.018865312083291917</v>
+        <v>0.01951665955024066</v>
       </c>
       <c r="G27" t="n">
-        <v>3.418</v>
+        <v>3.369</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.03046</v>
+        <v>-0.01723</v>
       </c>
       <c r="I27" t="n">
-        <v>0.019616319736382764</v>
+        <v>0.011175866856758808</v>
       </c>
       <c r="J27" t="n">
-        <v>-1.377</v>
+        <v>-1.458</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4449719092257398</v>
+        <v>0.4895916665957459</v>
       </c>
       <c r="L27" t="n">
-        <v>2.2354403820550244E-27</v>
+        <v>4.117383420510449E-22</v>
       </c>
       <c r="M27" t="n">
-        <v>0.06078</v>
+        <v>0.1184</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04650806381693394</v>
+        <v>0.05394441583704471</v>
       </c>
       <c r="O27" t="n">
-        <v>2.001</v>
+        <v>2.496</v>
       </c>
       <c r="P27" t="n">
-        <v>0.3113</v>
+        <v>0.07596</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.09622369770487933</v>
+        <v>0.08721238444166057</v>
       </c>
       <c r="R27" t="n">
-        <v>4.078</v>
+        <v>1.518</v>
       </c>
       <c r="S27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="T27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28">
@@ -2823,61 +2697,61 @@
         <v>44</v>
       </c>
       <c r="B28" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.55661849E8</v>
+        <v>1.5686708E8</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2221</v>
+        <v>0.09082</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04172529209005013</v>
+        <v>0.01973068675946177</v>
       </c>
       <c r="G28" t="n">
-        <v>3.401</v>
+        <v>3.34</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.2567</v>
+        <v>-0.005358</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03093056740507681</v>
+        <v>0.009804080783020915</v>
       </c>
       <c r="J28" t="n">
-        <v>3.113</v>
+        <v>-1.801</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5724508712544685</v>
+        <v>0.3906404996924922</v>
       </c>
       <c r="L28" t="n">
-        <v>0.307447003824568</v>
+        <v>1.0197190835596339E-22</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1198</v>
+        <v>0.1927</v>
       </c>
       <c r="N28" t="n">
-        <v>0.048166378315169185</v>
+        <v>0.06075360071633615</v>
       </c>
       <c r="O28" t="n">
-        <v>3.384</v>
+        <v>2.984</v>
       </c>
       <c r="P28" t="n">
-        <v>0.1857</v>
+        <v>0.1384</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.09691233151668574</v>
+        <v>0.08925805285799147</v>
       </c>
       <c r="R28" t="n">
-        <v>2.846</v>
+        <v>3.872</v>
       </c>
       <c r="S28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T28" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29">
@@ -2885,61 +2759,61 @@
         <v>45</v>
       </c>
       <c r="B29" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.28566958E8</v>
+        <v>8.8717623E7</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09082</v>
+        <v>0.09548</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01951665955024066</v>
+        <v>0.020738852427268004</v>
       </c>
       <c r="G29" t="n">
-        <v>3.369</v>
+        <v>3.309</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.01723</v>
+        <v>0.006532</v>
       </c>
       <c r="I29" t="n">
-        <v>0.011175866856758808</v>
+        <v>0.011233877335986894</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.458</v>
+        <v>-1.512</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4895916665957459</v>
+        <v>0.7617742447733449</v>
       </c>
       <c r="L29" t="n">
-        <v>3.126151725638979E-23</v>
+        <v>1.2366039114459147E-10</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1184</v>
+        <v>0.1265</v>
       </c>
       <c r="N29" t="n">
-        <v>0.05394441583704471</v>
+        <v>0.04516635916254486</v>
       </c>
       <c r="O29" t="n">
-        <v>2.496</v>
+        <v>4.467</v>
       </c>
       <c r="P29" t="n">
-        <v>0.07596</v>
+        <v>0.1497</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.08721238444166057</v>
+        <v>0.1019803902718557</v>
       </c>
       <c r="R29" t="n">
-        <v>1.518</v>
+        <v>1.738</v>
       </c>
       <c r="S29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="T29" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30">
@@ -2947,61 +2821,61 @@
         <v>46</v>
       </c>
       <c r="B30" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.5686708E8</v>
+        <v>1.6623818E7</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E30" t="n">
-        <v>0.09082</v>
+        <v>-0.05599</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01973068675946177</v>
+        <v>0.014546477236774545</v>
       </c>
       <c r="G30" t="n">
-        <v>3.34</v>
+        <v>3.307</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.005358</v>
+        <v>0.03694</v>
       </c>
       <c r="I30" t="n">
-        <v>0.009804080783020915</v>
+        <v>0.012887978895078932</v>
       </c>
       <c r="J30" t="n">
-        <v>-1.801</v>
+        <v>-1.196</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3906404996924922</v>
+        <v>0.3234192325759246</v>
       </c>
       <c r="L30" t="n">
-        <v>7.411224584917851E-40</v>
+        <v>5.570779392716078E-13</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1927</v>
+        <v>-0.0439</v>
       </c>
       <c r="N30" t="n">
-        <v>0.06075360071633615</v>
+        <v>0.04403407771260799</v>
       </c>
       <c r="O30" t="n">
-        <v>2.984</v>
+        <v>1.949</v>
       </c>
       <c r="P30" t="n">
-        <v>0.1384</v>
+        <v>-0.09847</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.08925805285799147</v>
+        <v>0.0884929375713113</v>
       </c>
       <c r="R30" t="n">
-        <v>3.872</v>
+        <v>3.183</v>
       </c>
       <c r="S30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T30" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31">
@@ -3012,58 +2886,58 @@
         <v>10.0</v>
       </c>
       <c r="C31" t="n">
-        <v>8.8717623E7</v>
+        <v>9.9474813E7</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E31" t="n">
-        <v>0.09548</v>
+        <v>0.1349</v>
       </c>
       <c r="F31" t="n">
-        <v>0.020738852427268004</v>
+        <v>0.027678511520672494</v>
       </c>
       <c r="G31" t="n">
-        <v>3.309</v>
+        <v>3.303</v>
       </c>
       <c r="H31" t="n">
-        <v>0.006532</v>
+        <v>0.00551</v>
       </c>
       <c r="I31" t="n">
-        <v>0.011233877335986894</v>
+        <v>0.006848357467305573</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.512</v>
+        <v>-1.888</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7617742447733449</v>
+        <v>0.19021040980976828</v>
       </c>
       <c r="L31" t="n">
-        <v>1.2366039114459147E-10</v>
+        <v>1.2880321933473155E-79</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1265</v>
+        <v>0.1985</v>
       </c>
       <c r="N31" t="n">
-        <v>0.04516635916254486</v>
+        <v>0.05952310475773252</v>
       </c>
       <c r="O31" t="n">
-        <v>4.467</v>
+        <v>3.126</v>
       </c>
       <c r="P31" t="n">
-        <v>0.1497</v>
+        <v>0.1366</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.1019803902718557</v>
+        <v>0.09417536832951598</v>
       </c>
       <c r="R31" t="n">
-        <v>1.738</v>
+        <v>2.302</v>
       </c>
       <c r="S31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T31" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32">
@@ -3071,61 +2945,61 @@
         <v>48</v>
       </c>
       <c r="B32" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.6623818E7</v>
+        <v>1.45556707E8</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.05599</v>
+        <v>0.1826</v>
       </c>
       <c r="F32" t="n">
-        <v>0.014546477236774545</v>
+        <v>0.03720215047547655</v>
       </c>
       <c r="G32" t="n">
-        <v>3.307</v>
+        <v>3.254</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03694</v>
+        <v>0.003095</v>
       </c>
       <c r="I32" t="n">
-        <v>0.012887978895078932</v>
+        <v>0.00638983567863838</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.196</v>
+        <v>-1.84</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3234192325759246</v>
+        <v>0.7727871634544663</v>
       </c>
       <c r="L32" t="n">
-        <v>2.292706370135646E-44</v>
+        <v>2.1737354340251176E-11</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0439</v>
+        <v>0.09878</v>
       </c>
       <c r="N32" t="n">
-        <v>0.04403407771260799</v>
+        <v>0.04812483766206386</v>
       </c>
       <c r="O32" t="n">
-        <v>1.949</v>
+        <v>2.959</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.09847</v>
+        <v>0.07549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0884929375713113</v>
+        <v>0.09344517108978934</v>
       </c>
       <c r="R32" t="n">
-        <v>3.183</v>
+        <v>0.3544</v>
       </c>
       <c r="S32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T32" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33">
@@ -3133,61 +3007,61 @@
         <v>49</v>
       </c>
       <c r="B33" t="n">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="C33" t="n">
-        <v>9.9474813E7</v>
+        <v>2.5205117E7</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1349</v>
+        <v>-0.1349</v>
       </c>
       <c r="F33" t="n">
-        <v>0.027678511520672494</v>
+        <v>0.028951683888851786</v>
       </c>
       <c r="G33" t="n">
-        <v>3.303</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00551</v>
+        <v>0.05952</v>
       </c>
       <c r="I33" t="n">
-        <v>0.006848357467305573</v>
+        <v>0.02871759042816789</v>
       </c>
       <c r="J33" t="n">
-        <v>-1.888</v>
+        <v>-1.103</v>
       </c>
       <c r="K33" t="n">
-        <v>0.19021040980976828</v>
+        <v>0.5898304841223451</v>
       </c>
       <c r="L33" t="n">
-        <v>2.7248700990057968E-164</v>
+        <v>1.287231200911252E-11</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1985</v>
+        <v>-0.04301</v>
       </c>
       <c r="N33" t="n">
-        <v>0.05952310475773252</v>
+        <v>0.043520110293977884</v>
       </c>
       <c r="O33" t="n">
-        <v>3.126</v>
+        <v>2.608</v>
       </c>
       <c r="P33" t="n">
-        <v>0.1366</v>
+        <v>-0.1537</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.09417536832951598</v>
+        <v>0.11353413583587978</v>
       </c>
       <c r="R33" t="n">
-        <v>2.302</v>
+        <v>1.235</v>
       </c>
       <c r="S33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T33" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34">
@@ -3195,61 +3069,61 @@
         <v>50</v>
       </c>
       <c r="B34" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.45556707E8</v>
+        <v>1.1931682E8</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1826</v>
+        <v>0.1076</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03720215047547655</v>
+        <v>0.02389979079406345</v>
       </c>
       <c r="G34" t="n">
-        <v>3.254</v>
+        <v>3.194</v>
       </c>
       <c r="H34" t="n">
-        <v>0.003095</v>
+        <v>0.01006</v>
       </c>
       <c r="I34" t="n">
-        <v>0.00638983567863838</v>
+        <v>0.010634848376916336</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.84</v>
+        <v>-1.784</v>
       </c>
       <c r="K34" t="n">
-        <v>0.7727871634544663</v>
+        <v>0.2983957104249322</v>
       </c>
       <c r="L34" t="n">
-        <v>2.1737354340251176E-11</v>
+        <v>4.654705912062372E-20</v>
       </c>
       <c r="M34" t="n">
-        <v>0.09878</v>
+        <v>0.1165</v>
       </c>
       <c r="N34" t="n">
-        <v>0.04812483766206386</v>
+        <v>0.0787273777030583</v>
       </c>
       <c r="O34" t="n">
-        <v>2.959</v>
+        <v>1.039</v>
       </c>
       <c r="P34" t="n">
-        <v>0.07549</v>
+        <v>0.05796</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.09344517108978934</v>
+        <v>0.08309632964216891</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3544</v>
+        <v>1.045</v>
       </c>
       <c r="S34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T34" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35">
@@ -3257,61 +3131,61 @@
         <v>51</v>
       </c>
       <c r="B35" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.8727628E7</v>
+        <v>7.5407991E7</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1409</v>
+        <v>0.1299</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02938366893361004</v>
+        <v>0.028282503425262763</v>
       </c>
       <c r="G35" t="n">
-        <v>3.254</v>
+        <v>3.178</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.02896</v>
+        <v>-0.003233</v>
       </c>
       <c r="I35" t="n">
-        <v>0.024801209647918387</v>
+        <v>0.0069390201037322265</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.264</v>
+        <v>-1.778</v>
       </c>
       <c r="K35" t="n">
-        <v>0.8238325072488946</v>
+        <v>0.40024992192379</v>
       </c>
       <c r="L35" t="n">
-        <v>2.0776108840866374E-8</v>
+        <v>1.6300826330754876E-35</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.06924</v>
+        <v>0.0798</v>
       </c>
       <c r="N35" t="n">
-        <v>0.06582552696332936</v>
+        <v>0.05728001396647874</v>
       </c>
       <c r="O35" t="n">
-        <v>0.4115</v>
+        <v>1.26</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.0755</v>
+        <v>0.1595</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.08698275691193054</v>
+        <v>0.08996666049153987</v>
       </c>
       <c r="R35" t="n">
-        <v>1.716</v>
+        <v>3.711</v>
       </c>
       <c r="S35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T35" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36">
@@ -3319,61 +3193,61 @@
         <v>52</v>
       </c>
       <c r="B36" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="C36" t="n">
-        <v>2.5205117E7</v>
+        <v>1.3302315E8</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.1349</v>
+        <v>0.08867</v>
       </c>
       <c r="F36" t="n">
-        <v>0.028951683888851786</v>
+        <v>0.02077739155909615</v>
       </c>
       <c r="G36" t="n">
-        <v>3.2</v>
+        <v>3.155</v>
       </c>
       <c r="H36" t="n">
-        <v>0.05952</v>
+        <v>-0.004237</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02871759042816789</v>
+        <v>0.005111751167652823</v>
       </c>
       <c r="J36" t="n">
-        <v>-1.103</v>
+        <v>-1.934</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5898304841223451</v>
+        <v>0.12316655390161729</v>
       </c>
       <c r="L36" t="n">
-        <v>1.48979024857379E-13</v>
+        <v>8.116113010711017E-74</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.04301</v>
+        <v>0.0471</v>
       </c>
       <c r="N36" t="n">
-        <v>0.043520110293977884</v>
+        <v>0.05023942674832188</v>
       </c>
       <c r="O36" t="n">
-        <v>2.608</v>
+        <v>0.5098</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.1537</v>
+        <v>0.1794</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.11353413583587978</v>
+        <v>0.0924716172671377</v>
       </c>
       <c r="R36" t="n">
-        <v>1.235</v>
+        <v>3.447</v>
       </c>
       <c r="S36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T36" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37">
@@ -3384,58 +3258,58 @@
         <v>3.0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.1931682E8</v>
+        <v>1.25053815E8</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1076</v>
+        <v>-0.1003</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02389979079406345</v>
+        <v>0.023069460331789297</v>
       </c>
       <c r="G37" t="n">
-        <v>3.194</v>
+        <v>3.138</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01006</v>
+        <v>-0.01684</v>
       </c>
       <c r="I37" t="n">
-        <v>0.010634848376916336</v>
+        <v>0.007893034904268447</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.784</v>
+        <v>-1.694</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2983957104249322</v>
+        <v>0.15116216457830975</v>
       </c>
       <c r="L37" t="n">
-        <v>8.778772823918281E-63</v>
+        <v>3.938571579588408E-26</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1165</v>
+        <v>-0.04654</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0787273777030583</v>
+        <v>0.043783558557979274</v>
       </c>
       <c r="O37" t="n">
-        <v>1.039</v>
+        <v>2.828</v>
       </c>
       <c r="P37" t="n">
-        <v>0.05796</v>
+        <v>-0.1396</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.08309632964216891</v>
+        <v>0.09957409301620578</v>
       </c>
       <c r="R37" t="n">
-        <v>1.045</v>
+        <v>1.79</v>
       </c>
       <c r="S37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T37" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38">
@@ -3443,61 +3317,61 @@
         <v>54</v>
       </c>
       <c r="B38" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C38" t="n">
-        <v>7.5407991E7</v>
+        <v>9.2498796E7</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1299</v>
+        <v>-0.0455</v>
       </c>
       <c r="F38" t="n">
-        <v>0.028282503425262763</v>
+        <v>0.013845576911057192</v>
       </c>
       <c r="G38" t="n">
-        <v>3.178</v>
+        <v>3.075</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.003233</v>
+        <v>0.002038</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0069390201037322265</v>
+        <v>0.002510179276466125</v>
       </c>
       <c r="J38" t="n">
-        <v>-1.778</v>
+        <v>-2.016</v>
       </c>
       <c r="K38" t="n">
-        <v>0.40024992192379</v>
+        <v>0.07401351227985334</v>
       </c>
       <c r="L38" t="n">
-        <v>1.6300826330754876E-35</v>
+        <v>5.537002820298339E-80</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0798</v>
+        <v>-0.1635</v>
       </c>
       <c r="N38" t="n">
-        <v>0.05728001396647874</v>
+        <v>0.05616048432839589</v>
       </c>
       <c r="O38" t="n">
-        <v>1.26</v>
+        <v>2.99</v>
       </c>
       <c r="P38" t="n">
-        <v>0.1595</v>
+        <v>-0.06435</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.08996666049153987</v>
+        <v>0.08501764522732913</v>
       </c>
       <c r="R38" t="n">
-        <v>3.711</v>
+        <v>1.203</v>
       </c>
       <c r="S38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T38" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39">
@@ -3505,61 +3379,61 @@
         <v>55</v>
       </c>
       <c r="B39" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.3302315E8</v>
+        <v>1.24591732E8</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08867</v>
+        <v>-0.1158</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02077739155909615</v>
+        <v>0.026823497162003315</v>
       </c>
       <c r="G39" t="n">
-        <v>3.155</v>
+        <v>3.069</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.004237</v>
+        <v>0.01644</v>
       </c>
       <c r="I39" t="n">
-        <v>0.005111751167652823</v>
+        <v>0.014570518178843195</v>
       </c>
       <c r="J39" t="n">
-        <v>-1.934</v>
+        <v>-1.533</v>
       </c>
       <c r="K39" t="n">
-        <v>0.12316655390161729</v>
+        <v>0.5875372328627353</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0</v>
+        <v>2.387606992417704E-15</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0471</v>
+        <v>-0.05355</v>
       </c>
       <c r="N39" t="n">
-        <v>0.05023942674832188</v>
+        <v>0.050089919145472776</v>
       </c>
       <c r="O39" t="n">
-        <v>0.5098</v>
+        <v>0.8945</v>
       </c>
       <c r="P39" t="n">
-        <v>0.1794</v>
+        <v>-0.0689</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0924716172671377</v>
+        <v>0.08580209787645054</v>
       </c>
       <c r="R39" t="n">
-        <v>3.447</v>
+        <v>0.8638</v>
       </c>
       <c r="S39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T39" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40">
@@ -3567,61 +3441,61 @@
         <v>56</v>
       </c>
       <c r="B40" t="n">
-        <v>3.0</v>
+        <v>17.0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.25053815E8</v>
+        <v>4.8674158E7</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.1003</v>
+        <v>0.07234</v>
       </c>
       <c r="F40" t="n">
-        <v>0.023069460331789297</v>
+        <v>0.018422811946062958</v>
       </c>
       <c r="G40" t="n">
-        <v>3.138</v>
+        <v>3.068</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.01684</v>
+        <v>-0.01728</v>
       </c>
       <c r="I40" t="n">
-        <v>0.007893034904268447</v>
+        <v>0.008067837380611982</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.694</v>
+        <v>-1.763</v>
       </c>
       <c r="K40" t="n">
-        <v>0.15116216457830975</v>
+        <v>0.17152259326397792</v>
       </c>
       <c r="L40" t="n">
-        <v>1.6362819837483483E-224</v>
+        <v>1.143083901077185E-28</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.04654</v>
+        <v>0.09895</v>
       </c>
       <c r="N40" t="n">
-        <v>0.043783558557979274</v>
+        <v>0.05141011573610781</v>
       </c>
       <c r="O40" t="n">
-        <v>2.828</v>
+        <v>2.382</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.1396</v>
+        <v>0.0494</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.09957409301620578</v>
+        <v>0.07974333827975852</v>
       </c>
       <c r="R40" t="n">
-        <v>1.79</v>
+        <v>0.06716</v>
       </c>
       <c r="S40" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T40" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41">
@@ -3629,61 +3503,61 @@
         <v>57</v>
       </c>
       <c r="B41" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="C41" t="n">
-        <v>9.2498796E7</v>
+        <v>1.75227702E8</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.0455</v>
+        <v>-0.1231</v>
       </c>
       <c r="F41" t="n">
-        <v>0.013845576911057192</v>
+        <v>0.0285709642819419</v>
       </c>
       <c r="G41" t="n">
-        <v>3.075</v>
+        <v>3.046</v>
       </c>
       <c r="H41" t="n">
-        <v>0.002038</v>
+        <v>0.03891</v>
       </c>
       <c r="I41" t="n">
-        <v>0.002510179276466125</v>
+        <v>0.02349042358068496</v>
       </c>
       <c r="J41" t="n">
-        <v>-2.016</v>
+        <v>-0.9525</v>
       </c>
       <c r="K41" t="n">
-        <v>0.07401351227985334</v>
+        <v>0.5258326730053963</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0</v>
+        <v>5.316712068186554E-12</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.1635</v>
+        <v>-0.03562</v>
       </c>
       <c r="N41" t="n">
-        <v>0.05616048432839589</v>
+        <v>0.04308131845707603</v>
       </c>
       <c r="O41" t="n">
-        <v>2.99</v>
+        <v>2.604</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.06435</v>
+        <v>-0.07143</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.08501764522732913</v>
+        <v>0.08627282306729044</v>
       </c>
       <c r="R41" t="n">
-        <v>1.203</v>
+        <v>2.147</v>
       </c>
       <c r="S41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T41" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42">
@@ -3691,61 +3565,61 @@
         <v>58</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="C42" t="n">
-        <v>1.24591732E8</v>
+        <v>5.851858E7</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.1158</v>
+        <v>0.1192</v>
       </c>
       <c r="F42" t="n">
-        <v>0.026823497162003315</v>
+        <v>0.027838821814150108</v>
       </c>
       <c r="G42" t="n">
-        <v>3.069</v>
+        <v>3.041</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01644</v>
+        <v>-0.007153</v>
       </c>
       <c r="I42" t="n">
-        <v>0.014570518178843195</v>
+        <v>0.007910752176626443</v>
       </c>
       <c r="J42" t="n">
-        <v>-1.533</v>
+        <v>-1.783</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5875372328627353</v>
+        <v>0.327566787083184</v>
       </c>
       <c r="L42" t="n">
-        <v>2.387606992417704E-15</v>
+        <v>2.169856364871642E-49</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.05355</v>
+        <v>0.04381</v>
       </c>
       <c r="N42" t="n">
-        <v>0.050089919145472776</v>
+        <v>0.04517742799230607</v>
       </c>
       <c r="O42" t="n">
-        <v>0.8945</v>
+        <v>1.169</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.0689</v>
+        <v>0.1496</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.08580209787645054</v>
+        <v>0.1041633332799983</v>
       </c>
       <c r="R42" t="n">
-        <v>0.8638</v>
+        <v>1.643</v>
       </c>
       <c r="S42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="T42" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43">
@@ -3753,61 +3627,61 @@
         <v>59</v>
       </c>
       <c r="B43" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="C43" t="n">
-        <v>4.8674158E7</v>
+        <v>3.2143389E7</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E43" t="n">
-        <v>0.07234</v>
+        <v>0.1625</v>
       </c>
       <c r="F43" t="n">
-        <v>0.018422811946062958</v>
+        <v>0.03691882988394946</v>
       </c>
       <c r="G43" t="n">
-        <v>3.068</v>
+        <v>3.036</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.01728</v>
+        <v>0.007298</v>
       </c>
       <c r="I43" t="n">
-        <v>0.008067837380611982</v>
+        <v>0.006058877783880444</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.763</v>
+        <v>-1.818</v>
       </c>
       <c r="K43" t="n">
-        <v>0.17152259326397792</v>
+        <v>0.1947562579225633</v>
       </c>
       <c r="L43" t="n">
-        <v>7.764994902479933E-175</v>
+        <v>2.0716636209832785E-137</v>
       </c>
       <c r="M43" t="n">
-        <v>0.09895</v>
+        <v>0.04351</v>
       </c>
       <c r="N43" t="n">
-        <v>0.05141011573610781</v>
+        <v>0.04708502946797421</v>
       </c>
       <c r="O43" t="n">
-        <v>2.382</v>
+        <v>0.6932</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0494</v>
+        <v>0.1281</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.07974333827975852</v>
+        <v>0.10009995004993759</v>
       </c>
       <c r="R43" t="n">
-        <v>0.06716</v>
+        <v>1.525</v>
       </c>
       <c r="S43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T43" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44">
@@ -3815,61 +3689,61 @@
         <v>60</v>
       </c>
       <c r="B44" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.75227702E8</v>
+        <v>2.33390781E8</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.1231</v>
+        <v>0.09183</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0285709642819419</v>
+        <v>0.02240758800049662</v>
       </c>
       <c r="G44" t="n">
-        <v>3.046</v>
+        <v>3.033</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03891</v>
+        <v>-0.01196</v>
       </c>
       <c r="I44" t="n">
-        <v>0.02349042358068496</v>
+        <v>0.015601281998605115</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.9525</v>
+        <v>-1.398</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5258326730053963</v>
+        <v>0.6331666447310692</v>
       </c>
       <c r="L44" t="n">
-        <v>1.43413419727847E-14</v>
+        <v>2.878457233844459E-11</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.03562</v>
+        <v>0.05151</v>
       </c>
       <c r="N44" t="n">
-        <v>0.04308131845707603</v>
+        <v>0.04684015371452148</v>
       </c>
       <c r="O44" t="n">
-        <v>2.604</v>
+        <v>1.358</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.07143</v>
+        <v>0.1908</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.08627282306729044</v>
+        <v>0.10232301793829188</v>
       </c>
       <c r="R44" t="n">
-        <v>2.147</v>
+        <v>2.385</v>
       </c>
       <c r="S44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="T44" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45">
@@ -3877,61 +3751,61 @@
         <v>61</v>
       </c>
       <c r="B45" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="C45" t="n">
-        <v>5.851858E7</v>
+        <v>1.1752494E7</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1192</v>
+        <v>0.09486</v>
       </c>
       <c r="F45" t="n">
-        <v>0.027838821814150108</v>
+        <v>0.023021728866442676</v>
       </c>
       <c r="G45" t="n">
-        <v>3.041</v>
+        <v>3.032</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.007153</v>
+        <v>-3.562E-4</v>
       </c>
       <c r="I45" t="n">
-        <v>0.007910752176626443</v>
+        <v>0.003142133033466279</v>
       </c>
       <c r="J45" t="n">
-        <v>-1.783</v>
+        <v>-1.954</v>
       </c>
       <c r="K45" t="n">
-        <v>0.327566787083184</v>
+        <v>0.17938784797192925</v>
       </c>
       <c r="L45" t="n">
-        <v>2.169856364871642E-49</v>
+        <v>2.5258859057339574E-170</v>
       </c>
       <c r="M45" t="n">
-        <v>0.04381</v>
+        <v>0.1593</v>
       </c>
       <c r="N45" t="n">
-        <v>0.04517742799230607</v>
+        <v>0.05478138369920935</v>
       </c>
       <c r="O45" t="n">
-        <v>1.169</v>
+        <v>3.063</v>
       </c>
       <c r="P45" t="n">
-        <v>0.1496</v>
+        <v>0.08422</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.1041633332799983</v>
+        <v>0.08816461875378354</v>
       </c>
       <c r="R45" t="n">
-        <v>1.643</v>
+        <v>2.746</v>
       </c>
       <c r="S45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="T45" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46">
@@ -3939,61 +3813,61 @@
         <v>62</v>
       </c>
       <c r="B46" t="n">
-        <v>22.0</v>
+        <v>10.0</v>
       </c>
       <c r="C46" t="n">
-        <v>3.2143389E7</v>
+        <v>9.9473224E7</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1625</v>
+        <v>0.1233</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03691882988394946</v>
+        <v>0.028929223978530774</v>
       </c>
       <c r="G46" t="n">
-        <v>3.036</v>
+        <v>3.022</v>
       </c>
       <c r="H46" t="n">
-        <v>0.007298</v>
+        <v>-0.001133</v>
       </c>
       <c r="I46" t="n">
-        <v>0.006058877783880444</v>
+        <v>0.0034102785809959867</v>
       </c>
       <c r="J46" t="n">
-        <v>-1.818</v>
+        <v>-1.997</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1947562579225633</v>
+        <v>0.1881488772222678</v>
       </c>
       <c r="L46" t="n">
-        <v>2.0716636209832785E-137</v>
+        <v>4.507347795487369E-157</v>
       </c>
       <c r="M46" t="n">
-        <v>0.04351</v>
+        <v>0.05074</v>
       </c>
       <c r="N46" t="n">
-        <v>0.04708502946797421</v>
+        <v>0.0500199960015992</v>
       </c>
       <c r="O46" t="n">
-        <v>0.6932</v>
+        <v>0.7596</v>
       </c>
       <c r="P46" t="n">
-        <v>0.1281</v>
+        <v>0.114</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.10009995004993759</v>
+        <v>0.10084641788382967</v>
       </c>
       <c r="R46" t="n">
-        <v>1.525</v>
+        <v>1.133</v>
       </c>
       <c r="S46" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="T46" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47">
@@ -4001,61 +3875,61 @@
         <v>63</v>
       </c>
       <c r="B47" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="C47" t="n">
-        <v>2.33390781E8</v>
+        <v>1.0460998E8</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09183</v>
+        <v>0.06931</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02240758800049662</v>
+        <v>0.018212632978237935</v>
       </c>
       <c r="G47" t="n">
-        <v>3.033</v>
+        <v>3.014</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.01196</v>
+        <v>0.004624</v>
       </c>
       <c r="I47" t="n">
-        <v>0.015601281998605115</v>
+        <v>0.0049497474683058325</v>
       </c>
       <c r="J47" t="n">
-        <v>-1.398</v>
+        <v>-1.961</v>
       </c>
       <c r="K47" t="n">
-        <v>0.6331666447310692</v>
+        <v>0.13881642554107204</v>
       </c>
       <c r="L47" t="n">
-        <v>1.2967508526824455E-12</v>
+        <v>4.980879019050621E-39</v>
       </c>
       <c r="M47" t="n">
-        <v>0.05151</v>
+        <v>0.1534</v>
       </c>
       <c r="N47" t="n">
-        <v>0.04684015371452148</v>
+        <v>0.05979130371550699</v>
       </c>
       <c r="O47" t="n">
-        <v>1.358</v>
+        <v>2.566</v>
       </c>
       <c r="P47" t="n">
-        <v>0.1908</v>
+        <v>0.126</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.10232301793829188</v>
+        <v>0.09389888178247918</v>
       </c>
       <c r="R47" t="n">
-        <v>2.385</v>
+        <v>2.142</v>
       </c>
       <c r="S47" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="T47" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48">
@@ -4063,61 +3937,61 @@
         <v>64</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C48" t="n">
-        <v>1.1752494E7</v>
+        <v>1.08918822E8</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09486</v>
+        <v>-0.134</v>
       </c>
       <c r="F48" t="n">
-        <v>0.023021728866442676</v>
+        <v>0.03131453336711247</v>
       </c>
       <c r="G48" t="n">
-        <v>3.032</v>
+        <v>3.01</v>
       </c>
       <c r="H48" t="n">
-        <v>-3.562E-4</v>
+        <v>0.001224</v>
       </c>
       <c r="I48" t="n">
-        <v>0.003142133033466279</v>
+        <v>0.0070192592201741635</v>
       </c>
       <c r="J48" t="n">
-        <v>-1.954</v>
+        <v>-1.875</v>
       </c>
       <c r="K48" t="n">
-        <v>0.17938784797192925</v>
+        <v>0.4106093033529562</v>
       </c>
       <c r="L48" t="n">
-        <v>2.5258859057339574E-170</v>
+        <v>6.1373012301921576E-33</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1593</v>
+        <v>-0.168</v>
       </c>
       <c r="N48" t="n">
-        <v>0.05478138369920935</v>
+        <v>0.05520869496736904</v>
       </c>
       <c r="O48" t="n">
-        <v>3.063</v>
+        <v>3.129</v>
       </c>
       <c r="P48" t="n">
-        <v>0.08422</v>
+        <v>-0.08011</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.08816461875378354</v>
+        <v>0.09144397191723465</v>
       </c>
       <c r="R48" t="n">
-        <v>2.746</v>
+        <v>0.7248</v>
       </c>
       <c r="S48" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="T48" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49">
@@ -4125,61 +3999,61 @@
         <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="C49" t="n">
-        <v>9.9473224E7</v>
+        <v>1.13514933E8</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1233</v>
+        <v>0.08906</v>
       </c>
       <c r="F49" t="n">
-        <v>0.028929223978530774</v>
+        <v>0.022160776159692603</v>
       </c>
       <c r="G49" t="n">
-        <v>3.022</v>
+        <v>2.999</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.001133</v>
+        <v>0.002743</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0034102785809959867</v>
+        <v>0.009418067742376883</v>
       </c>
       <c r="J49" t="n">
-        <v>-1.997</v>
+        <v>-2.034</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1881488772222678</v>
+        <v>0.44777226354476224</v>
       </c>
       <c r="L49" t="n">
-        <v>4.507347795487369E-157</v>
+        <v>4.9527021206067186E-20</v>
       </c>
       <c r="M49" t="n">
-        <v>0.05074</v>
+        <v>0.05847</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0500199960015992</v>
+        <v>0.055856960175075764</v>
       </c>
       <c r="O49" t="n">
-        <v>0.7596</v>
+        <v>0.5919</v>
       </c>
       <c r="P49" t="n">
-        <v>0.114</v>
+        <v>0.1229</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.10084641788382967</v>
+        <v>0.09812746812182611</v>
       </c>
       <c r="R49" t="n">
-        <v>1.133</v>
+        <v>1.543</v>
       </c>
       <c r="S49" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="T49" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50">
@@ -4187,247 +4061,61 @@
         <v>66</v>
       </c>
       <c r="B50" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C50" t="n">
-        <v>1.0460998E8</v>
+        <v>1.24629925E8</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06931</v>
+        <v>0.1042</v>
       </c>
       <c r="F50" t="n">
-        <v>0.018212632978237935</v>
+        <v>0.025793410011086166</v>
       </c>
       <c r="G50" t="n">
-        <v>3.014</v>
+        <v>2.947</v>
       </c>
       <c r="H50" t="n">
-        <v>0.004624</v>
+        <v>-0.02276</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0049497474683058325</v>
+        <v>0.018226354544998845</v>
       </c>
       <c r="J50" t="n">
-        <v>-1.961</v>
+        <v>-1.46</v>
       </c>
       <c r="K50" t="n">
-        <v>0.13881642554107204</v>
+        <v>0.4158124577258358</v>
       </c>
       <c r="L50" t="n">
-        <v>1.379219580119884E-281</v>
+        <v>3.2668795672797364E-12</v>
       </c>
       <c r="M50" t="n">
-        <v>0.1534</v>
+        <v>0.1126</v>
       </c>
       <c r="N50" t="n">
-        <v>0.05979130371550699</v>
+        <v>0.04904079934095691</v>
       </c>
       <c r="O50" t="n">
-        <v>2.566</v>
+        <v>3.078</v>
       </c>
       <c r="P50" t="n">
-        <v>0.126</v>
+        <v>0.1088</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.09389888178247918</v>
+        <v>0.10124228365658294</v>
       </c>
       <c r="R50" t="n">
-        <v>2.142</v>
+        <v>0.9532</v>
       </c>
       <c r="S50" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T50" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1.08918822E8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-0.134</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.03131453336711247</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.001224</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.0070192592201741635</v>
-      </c>
-      <c r="J51" t="n">
-        <v>-1.875</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.4106093033529562</v>
-      </c>
-      <c r="L51" t="n">
-        <v>6.1373012301921576E-33</v>
-      </c>
-      <c r="M51" t="n">
-        <v>-0.168</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.05520869496736904</v>
-      </c>
-      <c r="O51" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="P51" t="n">
-        <v>-0.08011</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.09144397191723465</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0.7248</v>
-      </c>
-      <c r="S51" t="s">
-        <v>119</v>
-      </c>
-      <c r="T51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.13514933E8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.08906</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.022160776159692603</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.002743</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.009418067742376883</v>
-      </c>
-      <c r="J52" t="n">
-        <v>-2.034</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.44777226354476224</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.2956079856360856E-29</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.05847</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.055856960175075764</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0.5919</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0.1229</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.09812746812182611</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.543</v>
-      </c>
-      <c r="S52" t="s">
-        <v>120</v>
-      </c>
-      <c r="T52" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1.24629925E8</v>
-      </c>
-      <c r="D53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.1042</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.025793410011086166</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2.947</v>
-      </c>
-      <c r="H53" t="n">
-        <v>-0.02276</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.018226354544998845</v>
-      </c>
-      <c r="J53" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.4158124577258358</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.5135346863553378E-26</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.1126</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.04904079934095691</v>
-      </c>
-      <c r="O53" t="n">
-        <v>3.078</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0.1088</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.10124228365658294</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0.9532</v>
-      </c>
-      <c r="S53" t="s">
-        <v>121</v>
-      </c>
-      <c r="T53" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4195,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B2" t="n">
         <v>12.0</v>
@@ -4516,7 +4204,7 @@
         <v>2944163.0</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E2" t="n">
         <v>0.1766</v>
@@ -4561,15 +4249,15 @@
         <v>2.313</v>
       </c>
       <c r="S2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="T2" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B3" t="n">
         <v>12.0</v>
@@ -4578,7 +4266,7 @@
         <v>2944163.0</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E3" t="n">
         <v>0.1766</v>
@@ -4623,15 +4311,15 @@
         <v>2.313</v>
       </c>
       <c r="S3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="T3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B4" t="n">
         <v>19.0</v>
@@ -4640,7 +4328,7 @@
         <v>4.9220235E7</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E4" t="n">
         <v>0.1244</v>
@@ -4685,15 +4373,15 @@
         <v>4.023</v>
       </c>
       <c r="S4" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="T4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -4702,7 +4390,7 @@
         <v>4.3814358E7</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E5" t="n">
         <v>0.131</v>
@@ -4726,7 +4414,7 @@
         <v>0.18780308836651224</v>
       </c>
       <c r="L5" t="n">
-        <v>1.531491757296534E-204</v>
+        <v>2.3400486999186656E-95</v>
       </c>
       <c r="M5" t="n">
         <v>0.2325</v>
@@ -4747,15 +4435,15 @@
         <v>1.392</v>
       </c>
       <c r="S5" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="T5" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B6" t="n">
         <v>12.0</v>
@@ -4764,7 +4452,7 @@
         <v>5.0497732E7</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E6" t="n">
         <v>0.1918</v>
@@ -4788,7 +4476,7 @@
         <v>0.1899210362229524</v>
       </c>
       <c r="L6" t="n">
-        <v>1.820311435051833E-170</v>
+        <v>2.2693264226195462E-69</v>
       </c>
       <c r="M6" t="n">
         <v>0.1928</v>
@@ -4809,15 +4497,15 @@
         <v>3.203</v>
       </c>
       <c r="S6" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="T6" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B7" t="n">
         <v>6.0</v>
@@ -4826,7 +4514,7 @@
         <v>3.088156E7</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E7" t="n">
         <v>0.2224</v>
@@ -4850,7 +4538,7 @@
         <v>0.14251315728731856</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0</v>
+        <v>1.7306961041667991E-203</v>
       </c>
       <c r="M7" t="n">
         <v>0.1641</v>
@@ -4871,1374 +4559,1064 @@
         <v>2.341</v>
       </c>
       <c r="S7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="T7" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0</v>
+        <v>2.0</v>
       </c>
       <c r="C8" t="n">
-        <v>5.4927903E7</v>
+        <v>2.11179707E8</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03631</v>
+        <v>0.1145</v>
       </c>
       <c r="F8" t="n">
-        <v>0.011371015785759863</v>
+        <v>0.021168372634664197</v>
       </c>
       <c r="G8" t="n">
-        <v>3.742</v>
+        <v>3.622</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005035</v>
+        <v>-0.06418</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01708215443086732</v>
+        <v>0.02029039181484675</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.807</v>
+        <v>-1.096</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9349331526906082</v>
+        <v>0.33645207682521444</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4675834363872885E-9</v>
+        <v>1.2953100829668269E-18</v>
       </c>
       <c r="M8" t="n">
-        <v>0.104</v>
+        <v>0.079</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05388877434122992</v>
+        <v>0.04579301256742124</v>
       </c>
       <c r="O8" t="n">
-        <v>2.198</v>
+        <v>3.099</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05439</v>
+        <v>0.1068</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0832946576918352</v>
+        <v>0.0912633551870629</v>
       </c>
       <c r="R8" t="n">
-        <v>1.052</v>
+        <v>2.093</v>
       </c>
       <c r="S8" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="T8" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.5246922E7</v>
+        <v>6.8545995E7</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04075</v>
+        <v>0.1302</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01189537725337032</v>
+        <v>0.0239770723817567</v>
       </c>
       <c r="G9" t="n">
-        <v>3.636</v>
+        <v>3.571</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0157</v>
+        <v>-0.01017</v>
       </c>
       <c r="I9" t="n">
-        <v>0.016099689437998485</v>
+        <v>0.008788629017087933</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.487</v>
+        <v>-1.733</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6761656601750787</v>
+        <v>0.38483762809787714</v>
       </c>
       <c r="L9" t="n">
-        <v>1.7743841846050817E-14</v>
+        <v>1.6255672277175888E-43</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06553</v>
+        <v>0.1744</v>
       </c>
       <c r="N9" t="n">
-        <v>0.044497190922573975</v>
+        <v>0.07236021006050218</v>
       </c>
       <c r="O9" t="n">
-        <v>3.314</v>
+        <v>2.153</v>
       </c>
       <c r="P9" t="n">
-        <v>0.07787</v>
+        <v>0.2138</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.08821564487096378</v>
+        <v>0.09661262857411551</v>
       </c>
       <c r="R9" t="n">
-        <v>1.299</v>
+        <v>3.212</v>
       </c>
       <c r="S9" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="T9" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B10" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.11179707E8</v>
+        <v>1.04679468E8</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1145</v>
+        <v>0.1168</v>
       </c>
       <c r="F10" t="n">
-        <v>0.021168372634664197</v>
+        <v>0.022013632140108094</v>
       </c>
       <c r="G10" t="n">
-        <v>3.622</v>
+        <v>3.563</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.06418</v>
+        <v>-0.02929</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02029039181484675</v>
+        <v>0.015805062480104277</v>
       </c>
       <c r="J10" t="n">
-        <v>-1.096</v>
+        <v>-1.248</v>
       </c>
       <c r="K10" t="n">
-        <v>0.33645207682521444</v>
+        <v>0.4801041553663122</v>
       </c>
       <c r="L10" t="n">
-        <v>5.65325475790135E-45</v>
+        <v>2.3914179647146987E-20</v>
       </c>
       <c r="M10" t="n">
-        <v>0.079</v>
+        <v>0.08891</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04579301256742124</v>
+        <v>0.04786439177509728</v>
       </c>
       <c r="O10" t="n">
-        <v>3.099</v>
+        <v>2.719</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1068</v>
+        <v>0.1648</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0912633551870629</v>
+        <v>0.09947361459201128</v>
       </c>
       <c r="R10" t="n">
-        <v>2.093</v>
+        <v>2.215</v>
       </c>
       <c r="S10" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="T10" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B11" t="n">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.8545995E7</v>
+        <v>3.8307803E7</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1302</v>
+        <v>0.1303</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0239770723817567</v>
+        <v>0.02414539293529927</v>
       </c>
       <c r="G11" t="n">
-        <v>3.571</v>
+        <v>3.554</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.01017</v>
+        <v>-0.005834</v>
       </c>
       <c r="I11" t="n">
-        <v>0.008788629017087933</v>
+        <v>0.004931531202375181</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.733</v>
+        <v>-1.914</v>
       </c>
       <c r="K11" t="n">
-        <v>0.38483762809787714</v>
+        <v>0.10592450141492289</v>
       </c>
       <c r="L11" t="n">
-        <v>1.6255672277175888E-43</v>
+        <v>9.740933246988862E-168</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1744</v>
+        <v>0.1094</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07236021006050218</v>
+        <v>0.04649731175025068</v>
       </c>
       <c r="O11" t="n">
-        <v>2.153</v>
+        <v>3.615</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2138</v>
+        <v>0.06631</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.09661262857411551</v>
+        <v>0.08738993077008357</v>
       </c>
       <c r="R11" t="n">
-        <v>3.212</v>
+        <v>2.216</v>
       </c>
       <c r="S11" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="T11" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B12" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.04679468E8</v>
+        <v>6.8546038E7</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1168</v>
+        <v>0.1009</v>
       </c>
       <c r="F12" t="n">
-        <v>0.022013632140108094</v>
+        <v>0.01997998998998748</v>
       </c>
       <c r="G12" t="n">
-        <v>3.563</v>
+        <v>3.519</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.02929</v>
+        <v>0.008633</v>
       </c>
       <c r="I12" t="n">
-        <v>0.015805062480104277</v>
+        <v>0.012349089035228468</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.248</v>
+        <v>-1.821</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4801041553663122</v>
+        <v>0.3733630940518894</v>
       </c>
       <c r="L12" t="n">
-        <v>6.178568998162246E-24</v>
+        <v>7.924765098973302E-14</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08891</v>
+        <v>0.04353</v>
       </c>
       <c r="N12" t="n">
-        <v>0.04786439177509728</v>
+        <v>0.04433959855479073</v>
       </c>
       <c r="O12" t="n">
-        <v>2.719</v>
+        <v>1.549</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1648</v>
+        <v>0.1212</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.09947361459201128</v>
+        <v>0.08948742928478837</v>
       </c>
       <c r="R12" t="n">
-        <v>2.215</v>
+        <v>3.528</v>
       </c>
       <c r="S12" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="T12" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B13" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.8307803E7</v>
+        <v>1.60370982E8</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1303</v>
+        <v>0.1379</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02414539293529927</v>
+        <v>0.025805038267749186</v>
       </c>
       <c r="G13" t="n">
-        <v>3.554</v>
+        <v>3.51</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.005834</v>
+        <v>-0.005548</v>
       </c>
       <c r="I13" t="n">
-        <v>0.004931531202375181</v>
+        <v>0.018458060569843192</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.914</v>
+        <v>-1.729</v>
       </c>
       <c r="K13" t="n">
-        <v>0.10592450141492289</v>
+        <v>0.6456004956627589</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0</v>
+        <v>7.752286028905954E-15</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1094</v>
+        <v>0.03611</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04649731175025068</v>
+        <v>0.04318564576337837</v>
       </c>
       <c r="O13" t="n">
-        <v>3.615</v>
+        <v>2.401</v>
       </c>
       <c r="P13" t="n">
-        <v>0.06631</v>
+        <v>0.1037</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.08738993077008357</v>
+        <v>0.09036592278065886</v>
       </c>
       <c r="R13" t="n">
-        <v>2.216</v>
+        <v>2.215</v>
       </c>
       <c r="S13" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="T13" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B14" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.8546038E7</v>
+        <v>1956121.0</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1009</v>
+        <v>-0.101</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01997998998998748</v>
+        <v>0.02029531965749739</v>
       </c>
       <c r="G14" t="n">
-        <v>3.519</v>
+        <v>3.479</v>
       </c>
       <c r="H14" t="n">
-        <v>0.008633</v>
+        <v>-0.1914</v>
       </c>
       <c r="I14" t="n">
-        <v>0.012349089035228468</v>
+        <v>0.045902069670114</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.821</v>
+        <v>2.316</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3733630940518894</v>
+        <v>0.9250405396521819</v>
       </c>
       <c r="L14" t="n">
-        <v>1.0564830944365028E-46</v>
+        <v>0.10433297394123225</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04353</v>
+        <v>-0.08093</v>
       </c>
       <c r="N14" t="n">
-        <v>0.04433959855479073</v>
+        <v>0.047286361670147554</v>
       </c>
       <c r="O14" t="n">
-        <v>1.549</v>
+        <v>2.646</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1212</v>
+        <v>-0.2239</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08948742928478837</v>
+        <v>0.09488940931421166</v>
       </c>
       <c r="R14" t="n">
-        <v>3.528</v>
+        <v>3.582</v>
       </c>
       <c r="S14" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="T14" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.60370982E8</v>
+        <v>1870798.0</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1379</v>
+        <v>-0.1126</v>
       </c>
       <c r="F15" t="n">
-        <v>0.025805038267749186</v>
+        <v>0.02257653649256236</v>
       </c>
       <c r="G15" t="n">
-        <v>3.51</v>
+        <v>3.426</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.005548</v>
+        <v>0.0231</v>
       </c>
       <c r="I15" t="n">
-        <v>0.018458060569843192</v>
+        <v>0.021883783950679095</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.729</v>
+        <v>-1.363</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6456004956627589</v>
+        <v>0.6761656601750787</v>
       </c>
       <c r="L15" t="n">
-        <v>2.4304123193549777E-16</v>
+        <v>5.612741954887222E-10</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03611</v>
+        <v>-0.1963</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04318564576337837</v>
+        <v>0.05028916384272063</v>
       </c>
       <c r="O15" t="n">
-        <v>2.401</v>
+        <v>4.062</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1037</v>
+        <v>-0.2667</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.09036592278065886</v>
+        <v>0.09601562372864116</v>
       </c>
       <c r="R15" t="n">
-        <v>2.215</v>
+        <v>3.872</v>
       </c>
       <c r="S15" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="T15" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.1882587E7</v>
+      </c>
+      <c r="D16" t="s">
         <v>186</v>
       </c>
-      <c r="B16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1956121.0</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02548921340488953</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.405</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.1644</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1173882447266335</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.3414</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.4778362561528933</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.012440433891840094</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.1284</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.04910193478876367</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.349</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.1943</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.09565563234854496</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="S16" t="s">
         <v>200</v>
       </c>
-      <c r="E16" t="n">
-        <v>-0.101</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.02029531965749739</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3.479</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.1914</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.045902069670114</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.316</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.9250405396521819</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.10433297394123225</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-0.08093</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.047286361670147554</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.646</v>
-      </c>
-      <c r="P16" t="n">
-        <v>-0.2239</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.09488940931421166</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3.582</v>
-      </c>
-      <c r="S16" t="s">
-        <v>214</v>
-      </c>
       <c r="T16" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B17" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1870798.0</v>
+        <v>3.0881571E7</v>
       </c>
       <c r="D17" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1126</v>
+        <v>0.02482</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02257653649256236</v>
+        <v>0.01089495295997188</v>
       </c>
       <c r="G17" t="n">
-        <v>3.426</v>
+        <v>3.336</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0231</v>
+        <v>-0.001768</v>
       </c>
       <c r="I17" t="n">
-        <v>0.021883783950679095</v>
+        <v>0.004491102314577124</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.363</v>
+        <v>-2.006</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6761656601750787</v>
+        <v>0.19049934383089093</v>
       </c>
       <c r="L17" t="n">
-        <v>7.074553566049011E-13</v>
+        <v>3.216478424032387E-9</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.1963</v>
+        <v>0.08841</v>
       </c>
       <c r="N17" t="n">
-        <v>0.05028916384272063</v>
+        <v>0.04610856753359401</v>
       </c>
       <c r="O17" t="n">
-        <v>4.062</v>
+        <v>3.243</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.2667</v>
+        <v>0.04974</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.09601562372864116</v>
+        <v>0.07961783719745218</v>
       </c>
       <c r="R17" t="n">
-        <v>3.872</v>
+        <v>0.6649</v>
       </c>
       <c r="S17" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="T17" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B18" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="C18" t="n">
-        <v>2.1882587E7</v>
+        <v>7.6495749E7</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E18" t="n">
-        <v>0.129</v>
+        <v>0.2005</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02548921340488953</v>
+        <v>0.03957271787481876</v>
       </c>
       <c r="G18" t="n">
-        <v>3.405</v>
+        <v>3.309</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1644</v>
+        <v>-0.01889</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1173882447266335</v>
+        <v>0.023922792479140056</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.3414</v>
+        <v>-1.461</v>
       </c>
       <c r="K18" t="n">
-        <v>1.4778362561528933</v>
+        <v>0.5616048432839589</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005621442249357344</v>
+        <v>1.0023850171481608E-17</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1284</v>
+        <v>0.1504</v>
       </c>
       <c r="N18" t="n">
-        <v>0.04910193478876367</v>
+        <v>0.06428841264178173</v>
       </c>
       <c r="O18" t="n">
-        <v>3.349</v>
+        <v>2.242</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1943</v>
+        <v>0.138</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.09565563234854496</v>
+        <v>0.09119210492142399</v>
       </c>
       <c r="R18" t="n">
-        <v>3.071</v>
+        <v>3.051</v>
       </c>
       <c r="S18" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="T18" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B19" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="C19" t="n">
-        <v>5.0497778E7</v>
+        <v>1.14055137E8</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05623</v>
+        <v>0.1305</v>
       </c>
       <c r="F19" t="n">
-        <v>0.014429137188342205</v>
+        <v>0.027939219745726617</v>
       </c>
       <c r="G19" t="n">
-        <v>3.347</v>
+        <v>3.215</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02159</v>
+        <v>-6.157E-4</v>
       </c>
       <c r="I19" t="n">
-        <v>0.007901898506055365</v>
+        <v>0.005349766350038102</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.7</v>
+        <v>-1.993</v>
       </c>
       <c r="K19" t="n">
-        <v>0.12565826673959815</v>
+        <v>0.11067971810589328</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0</v>
+        <v>1.193763572380135E-132</v>
       </c>
       <c r="M19" t="n">
-        <v>0.08528</v>
+        <v>0.08165</v>
       </c>
       <c r="N19" t="n">
-        <v>0.05520869496736904</v>
+        <v>0.04579301256742124</v>
       </c>
       <c r="O19" t="n">
-        <v>1.594</v>
+        <v>3.161</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1035</v>
+        <v>0.1131</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.10430723848324239</v>
+        <v>0.09060353193998565</v>
       </c>
       <c r="R19" t="n">
-        <v>0.6008</v>
+        <v>2.537</v>
       </c>
       <c r="S19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="T19" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B20" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C20" t="n">
-        <v>3.3048558E7</v>
+        <v>1.49908781E8</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03974</v>
+        <v>0.1223</v>
       </c>
       <c r="F20" t="n">
-        <v>0.012373358476985948</v>
+        <v>0.027210292170426982</v>
       </c>
       <c r="G20" t="n">
-        <v>3.337</v>
+        <v>3.145</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.08906</v>
+        <v>-0.006499</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05243090691567332</v>
+        <v>0.01131370849898476</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.9453</v>
+        <v>-1.679</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7974333827975851</v>
+        <v>0.6240192304729077</v>
       </c>
       <c r="L20" t="n">
-        <v>3.9345678412884354E-8</v>
+        <v>5.354945651869252E-15</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1102</v>
+        <v>0.05728</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06083584469702052</v>
+        <v>0.044170125650715555</v>
       </c>
       <c r="O20" t="n">
-        <v>1.763</v>
+        <v>3.169</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1142</v>
+        <v>0.06243</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.10315037566582101</v>
+        <v>0.08600581375697808</v>
       </c>
       <c r="R20" t="n">
-        <v>0.9524</v>
+        <v>2.369</v>
       </c>
       <c r="S20" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="T20" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B21" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0881571E7</v>
+        <v>1.55292208E8</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02482</v>
+        <v>0.1212</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01089495295997188</v>
+        <v>0.02720845456838738</v>
       </c>
       <c r="G21" t="n">
-        <v>3.336</v>
+        <v>3.127</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.001768</v>
+        <v>-0.02209</v>
       </c>
       <c r="I21" t="n">
-        <v>0.004491102314577124</v>
+        <v>0.014415269681833914</v>
       </c>
       <c r="J21" t="n">
-        <v>-2.006</v>
+        <v>-1.189</v>
       </c>
       <c r="K21" t="n">
-        <v>0.19049934383089093</v>
+        <v>0.4388621651498338</v>
       </c>
       <c r="L21" t="n">
-        <v>2.493942700868699E-173</v>
+        <v>3.997282752257597E-23</v>
       </c>
       <c r="M21" t="n">
-        <v>0.08841</v>
+        <v>0.09246</v>
       </c>
       <c r="N21" t="n">
-        <v>0.04610856753359401</v>
+        <v>0.05417564028232615</v>
       </c>
       <c r="O21" t="n">
-        <v>3.243</v>
+        <v>1.887</v>
       </c>
       <c r="P21" t="n">
-        <v>0.04974</v>
+        <v>0.1005</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.07961783719745218</v>
+        <v>0.08927485648266258</v>
       </c>
       <c r="R21" t="n">
-        <v>0.6649</v>
+        <v>2.906</v>
       </c>
       <c r="S21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="T21" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B22" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C22" t="n">
-        <v>7.6495749E7</v>
+        <v>8.2224946E7</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2005</v>
+        <v>0.1381</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03957271787481876</v>
+        <v>0.03111751918132292</v>
       </c>
       <c r="G22" t="n">
-        <v>3.309</v>
+        <v>3.085</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.01889</v>
+        <v>-0.00516</v>
       </c>
       <c r="I22" t="n">
-        <v>0.023922792479140056</v>
+        <v>0.004960846701924985</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.461</v>
+        <v>-1.821</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5616048432839589</v>
+        <v>0.21847196616499792</v>
       </c>
       <c r="L22" t="n">
-        <v>1.0023850171481608E-17</v>
+        <v>5.594361927716673E-112</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1504</v>
+        <v>0.0856</v>
       </c>
       <c r="N22" t="n">
-        <v>0.06428841264178173</v>
+        <v>0.07132320800412724</v>
       </c>
       <c r="O22" t="n">
-        <v>2.242</v>
+        <v>0.6473</v>
       </c>
       <c r="P22" t="n">
-        <v>0.138</v>
+        <v>0.2595</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.09119210492142399</v>
+        <v>0.09609890738192604</v>
       </c>
       <c r="R22" t="n">
-        <v>3.051</v>
+        <v>3.665</v>
       </c>
       <c r="S22" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="T22" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B23" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.14055137E8</v>
+        <v>1.4280512E7</v>
       </c>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1305</v>
+        <v>0.1701</v>
       </c>
       <c r="F23" t="n">
-        <v>0.027939219745726617</v>
+        <v>0.038379682124790974</v>
       </c>
       <c r="G23" t="n">
-        <v>3.215</v>
+        <v>3.045</v>
       </c>
       <c r="H23" t="n">
-        <v>-6.157E-4</v>
+        <v>-0.0604</v>
       </c>
       <c r="I23" t="n">
-        <v>0.005349766350038102</v>
+        <v>0.022297981971469975</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.993</v>
+        <v>-1.087</v>
       </c>
       <c r="K23" t="n">
-        <v>0.11067971810589328</v>
+        <v>0.41340053217188777</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0</v>
+        <v>8.002301752783277E-24</v>
       </c>
       <c r="M23" t="n">
-        <v>0.08165</v>
+        <v>0.09515</v>
       </c>
       <c r="N23" t="n">
-        <v>0.04579301256742124</v>
+        <v>0.05950630218724736</v>
       </c>
       <c r="O23" t="n">
-        <v>3.161</v>
+        <v>1.519</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1131</v>
+        <v>0.2165</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.09060353193998565</v>
+        <v>0.09902524930541705</v>
       </c>
       <c r="R23" t="n">
-        <v>2.537</v>
+        <v>2.991</v>
       </c>
       <c r="S23" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="T23" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B24" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.49908781E8</v>
+        <v>3.1088434E7</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1223</v>
+        <v>-0.08715</v>
       </c>
       <c r="F24" t="n">
-        <v>0.027210292170426982</v>
+        <v>0.021494185260204676</v>
       </c>
       <c r="G24" t="n">
-        <v>3.145</v>
+        <v>3.032</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.006499</v>
+        <v>0.02542</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01131370849898476</v>
+        <v>0.01138859078200635</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.679</v>
+        <v>-1.617</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6240192304729077</v>
+        <v>0.293393933134276</v>
       </c>
       <c r="L24" t="n">
-        <v>5.354945651869252E-15</v>
+        <v>4.8622584149027505E-23</v>
       </c>
       <c r="M24" t="n">
-        <v>0.05728</v>
+        <v>-0.047</v>
       </c>
       <c r="N24" t="n">
-        <v>0.044170125650715555</v>
+        <v>0.047031904065219385</v>
       </c>
       <c r="O24" t="n">
-        <v>3.169</v>
+        <v>0.9663</v>
       </c>
       <c r="P24" t="n">
-        <v>0.06243</v>
+        <v>-0.1426</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.08600581375697808</v>
+        <v>0.10765686229869417</v>
       </c>
       <c r="R24" t="n">
-        <v>2.369</v>
+        <v>1.294</v>
       </c>
       <c r="S24" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="T24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.55292208E8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>200</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.1212</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.02720845456838738</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3.127</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-0.02209</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.014415269681833914</v>
-      </c>
-      <c r="J25" t="n">
-        <v>-1.189</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.4388621651498338</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.997282752257597E-23</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.09246</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.05417564028232615</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.1005</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.08927485648266258</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.906</v>
-      </c>
-      <c r="S25" t="s">
-        <v>221</v>
-      </c>
-      <c r="T25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>8.2224946E7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1381</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.03111751918132292</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3.085</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-0.00516</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.004960846701924985</v>
-      </c>
-      <c r="J26" t="n">
-        <v>-1.821</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.21847196616499792</v>
-      </c>
-      <c r="L26" t="n">
-        <v>5.594361927716673E-112</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.0856</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.07132320800412724</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.6473</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.2595</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.09609890738192604</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3.665</v>
-      </c>
-      <c r="S26" t="s">
-        <v>222</v>
-      </c>
-      <c r="T26" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1525085.0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>200</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-0.03818</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.012817956155331474</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-0.005206</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.010397114984456024</v>
-      </c>
-      <c r="J27" t="n">
-        <v>-1.67</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.47947888378947406</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.9553554080775115E-23</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-0.09022</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.07891134265744057</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.4769</v>
-      </c>
-      <c r="P27" t="n">
-        <v>-0.05921</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.083916625289629</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.4708</v>
-      </c>
-      <c r="S27" t="s">
-        <v>223</v>
-      </c>
-      <c r="T27" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1.4280512E7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>200</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.1701</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.038379682124790974</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-0.0604</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.022297981971469975</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-1.087</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.41340053217188777</v>
-      </c>
-      <c r="L28" t="n">
-        <v>8.002301752783277E-24</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.09515</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.05950630218724736</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.519</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.2165</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.09902524930541705</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="S28" t="s">
-        <v>224</v>
-      </c>
-      <c r="T28" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3.1088434E7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>200</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.08715</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.021494185260204676</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3.032</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.02542</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.01138859078200635</v>
-      </c>
-      <c r="J29" t="n">
-        <v>-1.617</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.293393933134276</v>
-      </c>
-      <c r="L29" t="n">
-        <v>7.539938266456881E-57</v>
-      </c>
-      <c r="M29" t="n">
-        <v>-0.047</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.047031904065219385</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.9663</v>
-      </c>
-      <c r="P29" t="n">
-        <v>-0.1426</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.10765686229869417</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.294</v>
-      </c>
-      <c r="S29" t="s">
-        <v>225</v>
-      </c>
-      <c r="T29" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6318,7 +5696,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B2" t="n">
         <v>11.0</v>
@@ -6327,7 +5705,7 @@
         <v>1.19232263E8</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E2" t="n">
         <v>0.1482</v>
@@ -6372,15 +5750,15 @@
         <v>0.5487</v>
       </c>
       <c r="S2" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="T2" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B3" t="n">
         <v>16.0</v>
@@ -6389,7 +5767,7 @@
         <v>8.853726E7</v>
       </c>
       <c r="D3" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E3" t="n">
         <v>0.218</v>
@@ -6434,15 +5812,15 @@
         <v>3.915</v>
       </c>
       <c r="S3" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="T3" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="B4" t="n">
         <v>2.0</v>
@@ -6451,7 +5829,7 @@
         <v>9.9439848E7</v>
       </c>
       <c r="D4" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E4" t="n">
         <v>-0.1851</v>
@@ -6475,7 +5853,7 @@
         <v>0.120124934963562</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>2.817096936254701E-183</v>
       </c>
       <c r="M4" t="n">
         <v>-0.1254</v>
@@ -6496,15 +5874,15 @@
         <v>0.9517</v>
       </c>
       <c r="S4" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="T4" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B5" t="n">
         <v>6.0</v>
@@ -6513,7 +5891,7 @@
         <v>7.6073316E7</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E5" t="n">
         <v>0.05982</v>
@@ -6537,7 +5915,7 @@
         <v>0.24205371304733173</v>
       </c>
       <c r="L5" t="n">
-        <v>2.618476179749864E-109</v>
+        <v>2.8758207804812463E-12</v>
       </c>
       <c r="M5" t="n">
         <v>0.05469</v>
@@ -6558,2056 +5936,1622 @@
         <v>1.804</v>
       </c>
       <c r="S5" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="T5" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B6" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.59706543E8</v>
+        <v>1.67530343E8</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03187</v>
+        <v>-0.1525</v>
       </c>
       <c r="F6" t="n">
-        <v>0.011153474794878947</v>
+        <v>0.026703932294701468</v>
       </c>
       <c r="G6" t="n">
-        <v>3.65</v>
+        <v>3.633</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005798</v>
+        <v>0.04593</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007698051701567092</v>
+        <v>0.01821537811850196</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.858</v>
+        <v>-1.147</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2837604623621832</v>
+        <v>0.3277193921634788</v>
       </c>
       <c r="L6" t="n">
-        <v>3.131056827336995E-84</v>
+        <v>1.2373141888971628E-27</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1002</v>
+        <v>-0.04468</v>
       </c>
       <c r="N6" t="n">
-        <v>0.08120344820264716</v>
+        <v>0.049969990994595946</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6291</v>
+        <v>0.3743</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07439</v>
+        <v>-0.08868</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.09376566535784833</v>
+        <v>0.0917877987534291</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2126</v>
+        <v>1.058</v>
       </c>
       <c r="S6" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="T6" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B7" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.67530343E8</v>
+        <v>1.34983444E8</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1525</v>
+        <v>0.05227</v>
       </c>
       <c r="F7" t="n">
-        <v>0.026703932294701468</v>
+        <v>0.013091982279242513</v>
       </c>
       <c r="G7" t="n">
-        <v>3.633</v>
+        <v>3.615</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04593</v>
+        <v>0.002157</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01821537811850196</v>
+        <v>0.006840321629865075</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.147</v>
+        <v>-1.921</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3277193921634788</v>
+        <v>0.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.733051980238638E-48</v>
+        <v>2.3691609012486524E-13</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.04468</v>
+        <v>0.1038</v>
       </c>
       <c r="N7" t="n">
-        <v>0.049969990994595946</v>
+        <v>0.046281745861624535</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3743</v>
+        <v>3.549</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.08868</v>
+        <v>0.06693</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0917877987534291</v>
+        <v>0.08512343978012167</v>
       </c>
       <c r="R7" t="n">
-        <v>1.058</v>
+        <v>1.258</v>
       </c>
       <c r="S7" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="T7" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B8" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.34983444E8</v>
+        <v>4.1220106E7</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05227</v>
+        <v>-0.1088</v>
       </c>
       <c r="F8" t="n">
-        <v>0.013091982279242513</v>
+        <v>0.02049146163649631</v>
       </c>
       <c r="G8" t="n">
-        <v>3.615</v>
+        <v>3.604</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002157</v>
+        <v>0.1007</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006840321629865075</v>
+        <v>0.05830094338859364</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.921</v>
+        <v>0.6621</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4</v>
+        <v>1.4149204924659193</v>
       </c>
       <c r="L8" t="n">
-        <v>7.310329631571963E-44</v>
+        <v>0.018799573101976833</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1038</v>
+        <v>-0.142</v>
       </c>
       <c r="N8" t="n">
-        <v>0.046281745861624535</v>
+        <v>0.04843552415324934</v>
       </c>
       <c r="O8" t="n">
-        <v>3.549</v>
+        <v>3.71</v>
       </c>
       <c r="P8" t="n">
-        <v>0.06693</v>
+        <v>-0.0723</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.08512343978012167</v>
+        <v>0.08741853350405737</v>
       </c>
       <c r="R8" t="n">
-        <v>1.258</v>
+        <v>1.002</v>
       </c>
       <c r="S8" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="T8" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="C9" t="n">
-        <v>4.1220106E7</v>
+        <v>6.0336433E7</v>
       </c>
       <c r="D9" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1088</v>
+        <v>-0.04631</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02049146163649631</v>
+        <v>0.012581732790041282</v>
       </c>
       <c r="G9" t="n">
-        <v>3.604</v>
+        <v>3.567</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1007</v>
+        <v>-0.006496</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05830094338859364</v>
+        <v>0.005885575587824865</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6621</v>
+        <v>-1.79</v>
       </c>
       <c r="K9" t="n">
-        <v>1.4149204924659193</v>
+        <v>0.1981161275615895</v>
       </c>
       <c r="L9" t="n">
-        <v>0.018799573101976833</v>
+        <v>1.3360972310567523E-11</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.142</v>
+        <v>-0.08104</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04843552415324934</v>
+        <v>0.05420332093147061</v>
       </c>
       <c r="O9" t="n">
-        <v>3.71</v>
+        <v>1.574</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0723</v>
+        <v>-0.1204</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.08741853350405737</v>
+        <v>0.09041017641836566</v>
       </c>
       <c r="R9" t="n">
-        <v>1.002</v>
+        <v>2.846</v>
       </c>
       <c r="S9" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="T9" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.9295011E7</v>
+      </c>
+      <c r="D10" t="s">
         <v>259</v>
       </c>
-      <c r="B10" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6.0336433E7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>287</v>
-      </c>
       <c r="E10" t="n">
-        <v>-0.04631</v>
+        <v>0.1425</v>
       </c>
       <c r="F10" t="n">
-        <v>0.012581732790041282</v>
+        <v>0.026023066690918653</v>
       </c>
       <c r="G10" t="n">
-        <v>3.567</v>
+        <v>3.556</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.006496</v>
+        <v>0.007307</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005885575587824865</v>
+        <v>0.006903622237637283</v>
       </c>
       <c r="J10" t="n">
-        <v>-1.79</v>
+        <v>-1.679</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1981161275615895</v>
+        <v>0.34525353003264136</v>
       </c>
       <c r="L10" t="n">
-        <v>2.5243752501640203E-161</v>
+        <v>3.1190769845216754E-52</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.08104</v>
+        <v>0.06408</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05420332093147061</v>
+        <v>0.05703507692639679</v>
       </c>
       <c r="O10" t="n">
-        <v>1.574</v>
+        <v>0.7364</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1204</v>
+        <v>0.2063</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.09041017641836566</v>
+        <v>0.0926120942425988</v>
       </c>
       <c r="R10" t="n">
-        <v>2.846</v>
+        <v>3.801</v>
       </c>
       <c r="S10" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="T10" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B11" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.9295011E7</v>
+        <v>1.27215669E8</v>
       </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1425</v>
+        <v>-0.1972</v>
       </c>
       <c r="F11" t="n">
-        <v>0.026023066690918653</v>
+        <v>0.03497141690009142</v>
       </c>
       <c r="G11" t="n">
-        <v>3.556</v>
+        <v>3.542</v>
       </c>
       <c r="H11" t="n">
-        <v>0.007307</v>
+        <v>-0.003761</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006903622237637283</v>
+        <v>0.0047265209192385894</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.679</v>
+        <v>-1.869</v>
       </c>
       <c r="K11" t="n">
-        <v>0.34525353003264136</v>
+        <v>0.18066543665017945</v>
       </c>
       <c r="L11" t="n">
-        <v>3.1190769845216754E-52</v>
+        <v>2.174476231900717E-197</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06408</v>
+        <v>-0.1391</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05703507692639679</v>
+        <v>0.05429548784199291</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7364</v>
+        <v>2.821</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2063</v>
+        <v>-0.1463</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0926120942425988</v>
+        <v>0.11627553482998906</v>
       </c>
       <c r="R11" t="n">
-        <v>3.801</v>
+        <v>1.02</v>
       </c>
       <c r="S11" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="T11" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B12" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.27215669E8</v>
+        <v>9.9439883E7</v>
       </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1972</v>
+        <v>-0.1029</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03497141690009142</v>
+        <v>0.020774984957876625</v>
       </c>
       <c r="G12" t="n">
-        <v>3.542</v>
+        <v>3.455</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.003761</v>
+        <v>0.007829</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0047265209192385894</v>
+        <v>0.006541406576570517</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.869</v>
+        <v>-1.811</v>
       </c>
       <c r="K12" t="n">
-        <v>0.18066543665017945</v>
+        <v>0.16278820596099705</v>
       </c>
       <c r="L12" t="n">
-        <v>2.174476231900717E-197</v>
+        <v>2.825938025803639E-64</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1391</v>
+        <v>-0.1783</v>
       </c>
       <c r="N12" t="n">
-        <v>0.05429548784199291</v>
+        <v>0.05308483775994799</v>
       </c>
       <c r="O12" t="n">
-        <v>2.821</v>
+        <v>3.479</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.1463</v>
+        <v>-0.2142</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.11627553482998906</v>
+        <v>0.09202716990106781</v>
       </c>
       <c r="R12" t="n">
-        <v>1.02</v>
+        <v>3.956</v>
       </c>
       <c r="S12" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="T12" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C13" t="n">
-        <v>9.9439883E7</v>
+        <v>1.25248264E8</v>
       </c>
       <c r="D13" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1029</v>
+        <v>-0.02957</v>
       </c>
       <c r="F13" t="n">
-        <v>0.020774984957876625</v>
+        <v>0.011202678251204039</v>
       </c>
       <c r="G13" t="n">
-        <v>3.455</v>
+        <v>3.434</v>
       </c>
       <c r="H13" t="n">
-        <v>0.007829</v>
+        <v>-0.001168</v>
       </c>
       <c r="I13" t="n">
-        <v>0.006541406576570517</v>
+        <v>0.0033823069050575526</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.811</v>
+        <v>-2.033</v>
       </c>
       <c r="K13" t="n">
-        <v>0.16278820596099705</v>
+        <v>0.16330952207388275</v>
       </c>
       <c r="L13" t="n">
-        <v>7.215935579520763E-230</v>
+        <v>4.5714447221216896E-17</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1783</v>
+        <v>-0.1067</v>
       </c>
       <c r="N13" t="n">
-        <v>0.05308483775994799</v>
+        <v>0.049949974974968704</v>
       </c>
       <c r="O13" t="n">
-        <v>3.479</v>
+        <v>2.77</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.2142</v>
+        <v>-0.1886</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.09202716990106781</v>
+        <v>0.11832159566199232</v>
       </c>
       <c r="R13" t="n">
-        <v>3.956</v>
+        <v>1.539</v>
       </c>
       <c r="S13" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="T13" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B14" t="n">
-        <v>3.0</v>
+        <v>19.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.25248264E8</v>
+        <v>1.7756507E7</v>
       </c>
       <c r="D14" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.02957</v>
+        <v>-0.1063</v>
       </c>
       <c r="F14" t="n">
-        <v>0.011202678251204039</v>
+        <v>0.021593980642762464</v>
       </c>
       <c r="G14" t="n">
-        <v>3.434</v>
+        <v>3.421</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.001168</v>
+        <v>0.006129</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0033823069050575526</v>
+        <v>0.016105899540230593</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.033</v>
+        <v>-1.704</v>
       </c>
       <c r="K14" t="n">
-        <v>0.16330952207388275</v>
+        <v>0.841486779456457</v>
       </c>
       <c r="L14" t="n">
-        <v>5.331532443154775E-246</v>
+        <v>5.631073136190338E-10</v>
       </c>
       <c r="M14" t="n">
         <v>-0.1067</v>
       </c>
       <c r="N14" t="n">
-        <v>0.049949974974968704</v>
+        <v>0.058838762733422596</v>
       </c>
       <c r="O14" t="n">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1886</v>
+        <v>-0.1599</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.11832159566199232</v>
+        <v>0.09527853903162033</v>
       </c>
       <c r="R14" t="n">
-        <v>1.539</v>
+        <v>2.779</v>
       </c>
       <c r="S14" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="T14" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B15" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.57932921E8</v>
+        <v>3.3796038E7</v>
       </c>
       <c r="D15" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.09692</v>
+        <v>-0.1383</v>
       </c>
       <c r="F15" t="n">
-        <v>0.020107212636265626</v>
+        <v>0.026933250824956127</v>
       </c>
       <c r="G15" t="n">
-        <v>3.421</v>
+        <v>3.416</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.03915</v>
+        <v>-0.02218</v>
       </c>
       <c r="I15" t="n">
-        <v>0.037841775856849</v>
+        <v>0.015607690412101338</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.09182</v>
+        <v>-1.498</v>
       </c>
       <c r="K15" t="n">
-        <v>1.7798876369029593</v>
+        <v>0.327414110874898</v>
       </c>
       <c r="L15" t="n">
-        <v>0.024212542679743713</v>
+        <v>1.0074473179410178E-13</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.1229</v>
+        <v>-0.03609</v>
       </c>
       <c r="N15" t="n">
-        <v>0.052057660339281484</v>
+        <v>0.04319722213291035</v>
       </c>
       <c r="O15" t="n">
-        <v>2.796</v>
+        <v>2.162</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.3975</v>
+        <v>-0.124</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.10222524150130435</v>
+        <v>0.11970797801316335</v>
       </c>
       <c r="R15" t="n">
-        <v>4.102</v>
+        <v>0.4898</v>
       </c>
       <c r="S15" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="T15" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B16" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.7756507E7</v>
+        <v>3.5547548E7</v>
       </c>
       <c r="D16" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1063</v>
+        <v>-0.158</v>
       </c>
       <c r="F16" t="n">
-        <v>0.021593980642762464</v>
+        <v>0.030993547715613325</v>
       </c>
       <c r="G16" t="n">
-        <v>3.421</v>
+        <v>3.364</v>
       </c>
       <c r="H16" t="n">
-        <v>0.006129</v>
+        <v>0.07028</v>
       </c>
       <c r="I16" t="n">
-        <v>0.016105899540230593</v>
+        <v>0.013903237033151668</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.704</v>
+        <v>-1.322</v>
       </c>
       <c r="K16" t="n">
-        <v>0.841486779456457</v>
+        <v>0.13674794331177342</v>
       </c>
       <c r="L16" t="n">
-        <v>5.631073136190338E-10</v>
+        <v>1.3939729891269854E-60</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.1067</v>
+        <v>-0.1166</v>
       </c>
       <c r="N16" t="n">
-        <v>0.058838762733422596</v>
+        <v>0.05616048432839589</v>
       </c>
       <c r="O16" t="n">
-        <v>1.83</v>
+        <v>2.253</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.1599</v>
+        <v>-0.1967</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.09527853903162033</v>
+        <v>0.10672394295564609</v>
       </c>
       <c r="R16" t="n">
-        <v>2.779</v>
+        <v>2.154</v>
       </c>
       <c r="S16" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="T16" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B17" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.3796038E7</v>
+        <v>1.9460097E7</v>
       </c>
       <c r="D17" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1383</v>
+        <v>-0.08947</v>
       </c>
       <c r="F17" t="n">
-        <v>0.026933250824956127</v>
+        <v>0.019449935732541637</v>
       </c>
       <c r="G17" t="n">
-        <v>3.416</v>
+        <v>3.349</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.02218</v>
+        <v>0.008154</v>
       </c>
       <c r="I17" t="n">
-        <v>0.015607690412101338</v>
+        <v>0.00779615289742319</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.498</v>
+        <v>-1.905</v>
       </c>
       <c r="K17" t="n">
-        <v>0.327414110874898</v>
+        <v>0.13251415018781956</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2288059435839505E-51</v>
+        <v>5.653852505890383E-36</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.03609</v>
+        <v>-0.1045</v>
       </c>
       <c r="N17" t="n">
-        <v>0.04319722213291035</v>
+        <v>0.05072474741188959</v>
       </c>
       <c r="O17" t="n">
-        <v>2.162</v>
+        <v>2.615</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.124</v>
+        <v>-0.1915</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.11970797801316335</v>
+        <v>0.11497825881443849</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4898</v>
+        <v>1.732</v>
       </c>
       <c r="S17" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="T17" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B18" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="C18" t="n">
-        <v>3.5547548E7</v>
+        <v>1.9586547E7</v>
       </c>
       <c r="D18" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.158</v>
+        <v>0.05587</v>
       </c>
       <c r="F18" t="n">
-        <v>0.030993547715613325</v>
+        <v>0.014394443372357265</v>
       </c>
       <c r="G18" t="n">
-        <v>3.364</v>
+        <v>3.344</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07028</v>
+        <v>0.001414</v>
       </c>
       <c r="I18" t="n">
-        <v>0.013903237033151668</v>
+        <v>0.005394441583704471</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.322</v>
+        <v>-1.941</v>
       </c>
       <c r="K18" t="n">
-        <v>0.13674794331177342</v>
+        <v>0.07331439149307589</v>
       </c>
       <c r="L18" t="n">
-        <v>1.1997942182313467E-257</v>
+        <v>5.8228663281020076E-24</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.1166</v>
+        <v>0.07524</v>
       </c>
       <c r="N18" t="n">
-        <v>0.05616048432839589</v>
+        <v>0.051048996072400876</v>
       </c>
       <c r="O18" t="n">
-        <v>2.253</v>
+        <v>1.741</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.1967</v>
+        <v>0.0909</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.10672394295564609</v>
+        <v>0.09615612304996494</v>
       </c>
       <c r="R18" t="n">
-        <v>2.154</v>
+        <v>0.741</v>
       </c>
       <c r="S18" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="T18" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B19" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.9460097E7</v>
+        <v>1.5382629E7</v>
       </c>
       <c r="D19" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.08947</v>
+        <v>-0.1425</v>
       </c>
       <c r="F19" t="n">
-        <v>0.019449935732541637</v>
+        <v>0.028663565723754607</v>
       </c>
       <c r="G19" t="n">
-        <v>3.349</v>
+        <v>3.333</v>
       </c>
       <c r="H19" t="n">
-        <v>0.008154</v>
+        <v>4.958E-4</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00779615289742319</v>
+        <v>0.006110646446980876</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.905</v>
+        <v>-2.087</v>
       </c>
       <c r="K19" t="n">
-        <v>0.13251415018781956</v>
+        <v>0.25663203229526904</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0</v>
+        <v>2.6195104867510604E-99</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.1045</v>
+        <v>-0.03818</v>
       </c>
       <c r="N19" t="n">
-        <v>0.05072474741188959</v>
+        <v>0.043566041821583926</v>
       </c>
       <c r="O19" t="n">
-        <v>2.615</v>
+        <v>1.224</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.1915</v>
+        <v>-0.07319</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.11497825881443849</v>
+        <v>0.09525229656024048</v>
       </c>
       <c r="R19" t="n">
-        <v>1.732</v>
+        <v>0.062</v>
       </c>
       <c r="S19" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="T19" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="B20" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.9586547E7</v>
+        <v>4.5088477E7</v>
       </c>
       <c r="D20" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05587</v>
+        <v>0.1394</v>
       </c>
       <c r="F20" t="n">
-        <v>0.014394443372357265</v>
+        <v>0.028215244106688145</v>
       </c>
       <c r="G20" t="n">
-        <v>3.344</v>
+        <v>3.325</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001414</v>
+        <v>-0.04179</v>
       </c>
       <c r="I20" t="n">
-        <v>0.005394441583704471</v>
+        <v>0.01570350279396288</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.941</v>
+        <v>-1.229</v>
       </c>
       <c r="K20" t="n">
-        <v>0.07331439149307589</v>
+        <v>0.2368543856465402</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0</v>
+        <v>8.468841335962259E-31</v>
       </c>
       <c r="M20" t="n">
-        <v>0.07524</v>
+        <v>0.08379</v>
       </c>
       <c r="N20" t="n">
-        <v>0.051048996072400876</v>
+        <v>0.05097057974949863</v>
       </c>
       <c r="O20" t="n">
-        <v>1.741</v>
+        <v>2.027</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0909</v>
+        <v>0.0804</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.09615612304996494</v>
+        <v>0.08772684879784523</v>
       </c>
       <c r="R20" t="n">
-        <v>0.741</v>
+        <v>1.561</v>
       </c>
       <c r="S20" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="T20" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.5382629E7</v>
+        <v>1.1001312E8</v>
       </c>
       <c r="D21" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1425</v>
+        <v>-0.1194</v>
       </c>
       <c r="F21" t="n">
-        <v>0.028663565723754607</v>
+        <v>0.024831431694527804</v>
       </c>
       <c r="G21" t="n">
-        <v>3.333</v>
+        <v>3.313</v>
       </c>
       <c r="H21" t="n">
-        <v>4.958E-4</v>
+        <v>0.002719</v>
       </c>
       <c r="I21" t="n">
-        <v>0.006110646446980876</v>
+        <v>0.00674240313241503</v>
       </c>
       <c r="J21" t="n">
-        <v>-2.087</v>
+        <v>-1.878</v>
       </c>
       <c r="K21" t="n">
-        <v>0.25663203229526904</v>
+        <v>0.24095642759636024</v>
       </c>
       <c r="L21" t="n">
-        <v>2.6195104867510604E-99</v>
+        <v>2.558564889742966E-73</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.03818</v>
+        <v>-0.02019</v>
       </c>
       <c r="N21" t="n">
-        <v>0.043566041821583926</v>
+        <v>0.04260281680828158</v>
       </c>
       <c r="O21" t="n">
-        <v>1.224</v>
+        <v>2.868</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.07319</v>
+        <v>-0.2194</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.09525229656024048</v>
+        <v>0.11666190466471907</v>
       </c>
       <c r="R21" t="n">
-        <v>0.062</v>
+        <v>1.962</v>
       </c>
       <c r="S21" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="T21" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="B22" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.5088477E7</v>
+        <v>1.29694683E8</v>
       </c>
       <c r="D22" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1394</v>
+        <v>-0.08605</v>
       </c>
       <c r="F22" t="n">
-        <v>0.028215244106688145</v>
+        <v>0.019924858845171277</v>
       </c>
       <c r="G22" t="n">
-        <v>3.325</v>
+        <v>3.205</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.04179</v>
+        <v>0.02865</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01570350279396288</v>
+        <v>0.009795407086997457</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.229</v>
+        <v>-1.564</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2368543856465402</v>
+        <v>0.1981665965797465</v>
       </c>
       <c r="L22" t="n">
-        <v>1.0998929495343961E-82</v>
+        <v>1.1385624805165539E-31</v>
       </c>
       <c r="M22" t="n">
-        <v>0.08379</v>
+        <v>-0.06193</v>
       </c>
       <c r="N22" t="n">
-        <v>0.05097057974949863</v>
+        <v>0.05117616632769594</v>
       </c>
       <c r="O22" t="n">
-        <v>2.027</v>
+        <v>1.202</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0804</v>
+        <v>-0.08151</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.08772684879784523</v>
+        <v>0.08870738413458036</v>
       </c>
       <c r="R22" t="n">
-        <v>1.561</v>
+        <v>1.649</v>
       </c>
       <c r="S22" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="T22" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B23" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.1001312E8</v>
+        <v>3.5969138E7</v>
       </c>
       <c r="D23" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.1194</v>
+        <v>0.1141</v>
       </c>
       <c r="F23" t="n">
-        <v>0.024831431694527804</v>
+        <v>0.025479403446705733</v>
       </c>
       <c r="G23" t="n">
-        <v>3.313</v>
+        <v>3.16</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002719</v>
+        <v>-0.02513</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00674240313241503</v>
+        <v>0.01609347693943108</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.878</v>
+        <v>-1.209</v>
       </c>
       <c r="K23" t="n">
-        <v>0.24095642759636024</v>
+        <v>0.544426303552648</v>
       </c>
       <c r="L23" t="n">
-        <v>3.0585059176033527E-103</v>
+        <v>5.077898998646446E-16</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.02019</v>
+        <v>0.06398</v>
       </c>
       <c r="N23" t="n">
-        <v>0.04260281680828158</v>
+        <v>0.04565084884205331</v>
       </c>
       <c r="O23" t="n">
-        <v>2.868</v>
+        <v>2.532</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.2194</v>
+        <v>0.2444</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.11666190466471907</v>
+        <v>0.09927235264664577</v>
       </c>
       <c r="R23" t="n">
-        <v>1.962</v>
+        <v>3.216</v>
       </c>
       <c r="S23" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="T23" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B24" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="C24" t="n">
-        <v>9.6268227E7</v>
+        <v>1.44503739E8</v>
       </c>
       <c r="D24" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07239</v>
+        <v>-0.166</v>
       </c>
       <c r="F24" t="n">
-        <v>0.017575551200460258</v>
+        <v>0.035763109484495334</v>
       </c>
       <c r="G24" t="n">
-        <v>3.206</v>
+        <v>3.148</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01651</v>
+        <v>-0.008854</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01189537725337032</v>
+        <v>0.0058309518948453</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.637</v>
+        <v>-1.766</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3971145930332956</v>
+        <v>0.2083026644092677</v>
       </c>
       <c r="L24" t="n">
-        <v>1.6429673703994467E-34</v>
+        <v>2.4023945536293923E-123</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1111</v>
+        <v>-0.02339</v>
       </c>
       <c r="N24" t="n">
-        <v>0.056258332716140814</v>
+        <v>0.03903844259188627</v>
       </c>
       <c r="O24" t="n">
-        <v>2.125</v>
+        <v>0.5529</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1596</v>
+        <v>-0.1695</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.09394679345246436</v>
+        <v>0.1046900186264192</v>
       </c>
       <c r="R24" t="n">
-        <v>2.78</v>
+        <v>1.933</v>
       </c>
       <c r="S24" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="T24" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="B25" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="C25" t="n">
-        <v>9.6268227E7</v>
+        <v>2.3299298E7</v>
       </c>
       <c r="D25" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07239</v>
+        <v>0.1499</v>
       </c>
       <c r="F25" t="n">
-        <v>0.017575551200460258</v>
+        <v>0.03290896534380867</v>
       </c>
       <c r="G25" t="n">
-        <v>3.206</v>
+        <v>3.125</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01651</v>
+        <v>-0.01219</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01189537725337032</v>
+        <v>0.015378556499229699</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.637</v>
+        <v>-1.424</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3971145930332956</v>
+        <v>0.72691127381545</v>
       </c>
       <c r="L25" t="n">
-        <v>1.6429673703994467E-34</v>
+        <v>1.9499139797888754E-10</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1111</v>
+        <v>0.04218</v>
       </c>
       <c r="N25" t="n">
-        <v>0.056258332716140814</v>
+        <v>0.043714985988788785</v>
       </c>
       <c r="O25" t="n">
-        <v>2.125</v>
+        <v>2.117</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1596</v>
+        <v>0.2262</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.09394679345246436</v>
+        <v>0.10339245620450266</v>
       </c>
       <c r="R25" t="n">
-        <v>2.78</v>
+        <v>2.697</v>
       </c>
       <c r="S25" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="T25" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B26" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.29694683E8</v>
+        <v>1.64544496E8</v>
       </c>
       <c r="D26" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.08605</v>
+        <v>0.07738</v>
       </c>
       <c r="F26" t="n">
-        <v>0.019924858845171277</v>
+        <v>0.019049934383089093</v>
       </c>
       <c r="G26" t="n">
-        <v>3.205</v>
+        <v>3.111</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02865</v>
+        <v>0.001695</v>
       </c>
       <c r="I26" t="n">
-        <v>0.009795407086997457</v>
+        <v>0.010358571330062849</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.564</v>
+        <v>-1.876</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1981665965797465</v>
+        <v>0.3361547262794322</v>
       </c>
       <c r="L26" t="n">
-        <v>2.86526648862361E-128</v>
+        <v>2.7417109295464303E-13</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.06193</v>
+        <v>0.153</v>
       </c>
       <c r="N26" t="n">
-        <v>0.05117616632769594</v>
+        <v>0.05330103188494572</v>
       </c>
       <c r="O26" t="n">
-        <v>1.202</v>
+        <v>3.123</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.08151</v>
+        <v>0.1006</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.08870738413458036</v>
+        <v>0.09518403227432636</v>
       </c>
       <c r="R26" t="n">
-        <v>1.649</v>
+        <v>1.224</v>
       </c>
       <c r="S26" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="T26" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B27" t="n">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="C27" t="n">
-        <v>3.5969138E7</v>
+        <v>1.3913162E8</v>
       </c>
       <c r="D27" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1141</v>
+        <v>-0.1731</v>
       </c>
       <c r="F27" t="n">
-        <v>0.025479403446705733</v>
+        <v>0.037841775856849</v>
       </c>
       <c r="G27" t="n">
-        <v>3.16</v>
+        <v>3.111</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.02513</v>
+        <v>0.00134</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01609347693943108</v>
+        <v>0.007744029958619736</v>
       </c>
       <c r="J27" t="n">
-        <v>-1.209</v>
+        <v>-1.748</v>
       </c>
       <c r="K27" t="n">
-        <v>0.544426303552648</v>
+        <v>0.6244197306299666</v>
       </c>
       <c r="L27" t="n">
-        <v>5.077898998646446E-16</v>
+        <v>3.579950294376328E-15</v>
       </c>
       <c r="M27" t="n">
-        <v>0.06398</v>
+        <v>-0.005725</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04565084884205331</v>
+        <v>0.04132795663954365</v>
       </c>
       <c r="O27" t="n">
-        <v>2.532</v>
+        <v>2.136</v>
       </c>
       <c r="P27" t="n">
-        <v>0.2444</v>
+        <v>-0.211</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.09927235264664577</v>
+        <v>0.11545561917897283</v>
       </c>
       <c r="R27" t="n">
-        <v>3.216</v>
+        <v>1.916</v>
       </c>
       <c r="S27" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="T27" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B28" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.44503739E8</v>
+        <v>8.3876612E7</v>
       </c>
       <c r="D28" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.166</v>
+        <v>0.04521</v>
       </c>
       <c r="F28" t="n">
-        <v>0.035763109484495334</v>
+        <v>0.013769531582446804</v>
       </c>
       <c r="G28" t="n">
-        <v>3.148</v>
+        <v>3.085</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.008854</v>
+        <v>8.194E-4</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0058309518948453</v>
+        <v>0.0033406586176980132</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.766</v>
+        <v>-1.984</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2083026644092677</v>
+        <v>0.1061602562167217</v>
       </c>
       <c r="L28" t="n">
-        <v>2.4023945536293923E-123</v>
+        <v>2.718228617305666E-40</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.02339</v>
+        <v>0.09267</v>
       </c>
       <c r="N28" t="n">
-        <v>0.03903844259188627</v>
+        <v>0.05854912467321779</v>
       </c>
       <c r="O28" t="n">
-        <v>0.5529</v>
+        <v>1.523</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.1695</v>
+        <v>0.1825</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.1046900186264192</v>
+        <v>0.08902246907382427</v>
       </c>
       <c r="R28" t="n">
-        <v>1.933</v>
+        <v>4.252</v>
       </c>
       <c r="S28" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="T28" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B29" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C29" t="n">
-        <v>2.3299298E7</v>
+        <v>5.8515388E7</v>
       </c>
       <c r="D29" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1499</v>
+        <v>0.103</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03290896534380867</v>
+        <v>0.025211108662651076</v>
       </c>
       <c r="G29" t="n">
-        <v>3.125</v>
+        <v>2.978</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.01219</v>
+        <v>-0.01051</v>
       </c>
       <c r="I29" t="n">
-        <v>0.015378556499229699</v>
+        <v>0.005891519328662174</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.424</v>
+        <v>-1.847</v>
       </c>
       <c r="K29" t="n">
-        <v>0.72691127381545</v>
+        <v>0.09993998198919189</v>
       </c>
       <c r="L29" t="n">
-        <v>1.9499139797888754E-10</v>
+        <v>1.0229716079455069E-82</v>
       </c>
       <c r="M29" t="n">
-        <v>0.04218</v>
+        <v>0.05437</v>
       </c>
       <c r="N29" t="n">
-        <v>0.043714985988788785</v>
+        <v>0.04773887304912004</v>
       </c>
       <c r="O29" t="n">
-        <v>2.117</v>
+        <v>1.329</v>
       </c>
       <c r="P29" t="n">
-        <v>0.2262</v>
+        <v>0.1932</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.10339245620450266</v>
+        <v>0.09857484466130291</v>
       </c>
       <c r="R29" t="n">
-        <v>2.697</v>
+        <v>2.663</v>
       </c>
       <c r="S29" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="T29" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="B30" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.64544496E8</v>
+        <v>1.28830453E8</v>
       </c>
       <c r="D30" t="s">
+        <v>259</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.1407</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.033436506994600976</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.964</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.03463</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.014163332941084171</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1.488</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.22954302428956538</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.38919950951588E-35</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.05064</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.04436214602563767</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.424</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-0.08236</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.0952732911156112</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.4306</v>
+      </c>
+      <c r="S30" t="s">
         <v>287</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.07738</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.019049934383089093</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3.111</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.001695</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.010358571330062849</v>
-      </c>
-      <c r="J30" t="n">
-        <v>-1.876</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.3361547262794322</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.322392975917821E-50</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.05330103188494572</v>
-      </c>
-      <c r="O30" t="n">
-        <v>3.123</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.1006</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.09518403227432636</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.224</v>
-      </c>
-      <c r="S30" t="s">
-        <v>315</v>
-      </c>
       <c r="T30" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B31" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.3913162E8</v>
+        <v>3.0852823E7</v>
       </c>
       <c r="D31" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.1731</v>
+        <v>0.115</v>
       </c>
       <c r="F31" t="n">
-        <v>0.037841775856849</v>
+        <v>0.028122944369322354</v>
       </c>
       <c r="G31" t="n">
-        <v>3.111</v>
+        <v>2.945</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00134</v>
+        <v>-0.01358</v>
       </c>
       <c r="I31" t="n">
-        <v>0.007744029958619736</v>
+        <v>0.009176600677810929</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.748</v>
+        <v>-1.732</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6244197306299666</v>
+        <v>0.17461385970191484</v>
       </c>
       <c r="L31" t="n">
-        <v>3.579950294376328E-15</v>
+        <v>1.321565711854152E-44</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.005725</v>
+        <v>0.08541</v>
       </c>
       <c r="N31" t="n">
-        <v>0.04132795663954365</v>
+        <v>0.04498888751680797</v>
       </c>
       <c r="O31" t="n">
-        <v>2.136</v>
+        <v>3.719</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.211</v>
+        <v>0.08226</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.11545561917897283</v>
+        <v>0.08746427842267951</v>
       </c>
       <c r="R31" t="n">
-        <v>1.916</v>
+        <v>2.25</v>
       </c>
       <c r="S31" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="T31" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>280</v>
-      </c>
-      <c r="B32" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>8.3876612E7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>287</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.04521</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.013769531582446804</v>
-      </c>
-      <c r="G32" t="n">
-        <v>3.085</v>
-      </c>
-      <c r="H32" t="n">
-        <v>8.194E-4</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.0033406586176980132</v>
-      </c>
-      <c r="J32" t="n">
-        <v>-1.984</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.1061602562167217</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.09267</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.05854912467321779</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.523</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0.1825</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.08902246907382427</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4.252</v>
-      </c>
-      <c r="S32" t="s">
         <v>317</v>
-      </c>
-      <c r="T32" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>281</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2.196631E7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>287</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-0.008565</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.009970456358662828</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3.067</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.005266</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.011832159566199232</v>
-      </c>
-      <c r="J33" t="n">
-        <v>-1.759</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.5902541825349482</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.4654243415546782E-16</v>
-      </c>
-      <c r="M33" t="n">
-        <v>-0.05966</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.04753945729601885</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.687</v>
-      </c>
-      <c r="P33" t="n">
-        <v>-0.243</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.09789279850938985</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3.365</v>
-      </c>
-      <c r="S33" t="s">
-        <v>318</v>
-      </c>
-      <c r="T33" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>282</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>7811409.0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>287</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-0.1156</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.026979621939530584</v>
-      </c>
-      <c r="G34" t="n">
-        <v>3.052</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.06299</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.035972211497209895</v>
-      </c>
-      <c r="J34" t="n">
-        <v>-0.8718</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.7281483365359012</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.5477242884276203E-8</v>
-      </c>
-      <c r="M34" t="n">
-        <v>-0.05209</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.04778074926160116</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.197</v>
-      </c>
-      <c r="P34" t="n">
-        <v>-0.2403</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.09197825830053535</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4.276</v>
-      </c>
-      <c r="S34" t="s">
-        <v>319</v>
-      </c>
-      <c r="T34" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>283</v>
-      </c>
-      <c r="B35" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>9.5546539E7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-0.06901</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.01830027322200409</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.02073</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.017618172436436194</v>
-      </c>
-      <c r="J35" t="n">
-        <v>-1.374</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.6754998149518622</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5.1704410649818374E-11</v>
-      </c>
-      <c r="M35" t="n">
-        <v>-0.1045</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.057113921245174545</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="P35" t="n">
-        <v>-0.06916</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.0934826187052973</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.01701</v>
-      </c>
-      <c r="S35" t="s">
-        <v>320</v>
-      </c>
-      <c r="T35" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B36" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>5.8515388E7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>287</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.025211108662651076</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2.978</v>
-      </c>
-      <c r="H36" t="n">
-        <v>-0.01051</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.005891519328662174</v>
-      </c>
-      <c r="J36" t="n">
-        <v>-1.847</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.09993998198919189</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.05437</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.04773887304912004</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.329</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.1932</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.09857484466130291</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.663</v>
-      </c>
-      <c r="S36" t="s">
-        <v>321</v>
-      </c>
-      <c r="T36" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>285</v>
-      </c>
-      <c r="B37" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1.28830453E8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>287</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-0.1407</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.033436506994600976</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2.964</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.03463</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.014163332941084171</v>
-      </c>
-      <c r="J37" t="n">
-        <v>-1.488</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.22954302428956538</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4.247945565932094E-84</v>
-      </c>
-      <c r="M37" t="n">
-        <v>-0.05064</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.04436214602563767</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2.424</v>
-      </c>
-      <c r="P37" t="n">
-        <v>-0.08236</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.0952732911156112</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.4306</v>
-      </c>
-      <c r="S37" t="s">
-        <v>322</v>
-      </c>
-      <c r="T37" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>286</v>
-      </c>
-      <c r="B38" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3.0852823E7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>287</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.028122944369322354</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2.945</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-0.01358</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.009176600677810929</v>
-      </c>
-      <c r="J38" t="n">
-        <v>-1.732</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.17461385970191484</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.428111325942304E-158</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.08541</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.04498888751680797</v>
-      </c>
-      <c r="O38" t="n">
-        <v>3.719</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0.08226</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.08746427842267951</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S38" t="s">
-        <v>323</v>
-      </c>
-      <c r="T38" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
